--- a/emx/dist/urdm.xlsx
+++ b/emx/dist/urdm.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="403">
   <si>
     <t>urdm</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Lookups</t>
   </si>
   <si>
-    <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.0, 2021-11-09)</t>
-  </si>
-  <si>
-    <t>URDM Lookup tables (v0.9.0, 2021-11-10)</t>
+    <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.0, 2021-11-11)</t>
+  </si>
+  <si>
+    <t>URDM Lookup tables (v0.9.0, 2021-11-11)</t>
   </si>
   <si>
     <t>dcat:catalog</t>
@@ -85,774 +85,780 @@
     <t>labIndication</t>
   </si>
   <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>pathologicalState</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>phenotypicSex</t>
+  </si>
+  <si>
+    <t>releases</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Sample Preparation</t>
+  </si>
+  <si>
+    <t>Sequencing</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>Persons who are observed, analyzed, examined, investigated, experimented upon, or/and treated in the course of a particular study</t>
+  </si>
+  <si>
+    <t>A detailed examination, analysis, or critical inspection of one or multiple subjects designed to discover facts.</t>
+  </si>
+  <si>
+    <t>Consent given by a patient to a surgical or medical procedure or participation in a study, examination or analysis after achieving an understanding of the relevant medical facts and the risks involved.</t>
+  </si>
+  <si>
+    <t>Findings and circumstances relating to the examination and treatment of a patient.</t>
+  </si>
+  <si>
+    <t>A natural substance derived from living organisms such as cells, tissues, proteins, and DNA.</t>
+  </si>
+  <si>
+    <t>A sample preparation for a nucleic acids sequencing assay.</t>
+  </si>
+  <si>
+    <t>The determination of complete (typically nucleotide) sequences, including those of genomes (full genome sequencing, de novo sequencing and resequencing), amplicons and transcriptomes.</t>
+  </si>
+  <si>
+    <t>A set of related records (either written or electronic) kept together.</t>
+  </si>
+  <si>
+    <t>Biological entity that constitutes the structural organization of an individual member of a biological species from which this material was taken.</t>
+  </si>
+  <si>
+    <t>Population category defined using ancestry informative markers (AIMs) based on genetic/genomic data.</t>
+  </si>
+  <si>
+    <t>The type of material taken from a biological entity for testing, diagnostic, propagation, treatment or research purposes.</t>
+  </si>
+  <si>
+    <t>A collective generic term that refers here to a wide variety of dependencies, areas of special sovereignty, uninhabited islands, and other entities in addition to the traditional countries or independent states.</t>
+  </si>
+  <si>
+    <t>A biological sex quality inhering in an individual based upon genotypic composition of sex chromosomes.</t>
+  </si>
+  <si>
+    <t>An indicator that provides information on the current health status of this person.</t>
+  </si>
+  <si>
+    <t>The explanation for why a test, measurement, or assessment is executed.</t>
+  </si>
+  <si>
+    <t>Organization information</t>
+  </si>
+  <si>
+    <t>The pathological state of the tissue from which this material was derived.</t>
+  </si>
+  <si>
+    <t>Human Phenotype Ontology (HPO) release v2021-08-02</t>
+  </si>
+  <si>
+    <t>An organismal quality inhering in a bearer by virtue of the bearer's physical expression of sexual characteristics.</t>
+  </si>
+  <si>
+    <t>The act of making data or other structured information accessible to the public or to the user group of a database.</t>
+  </si>
+  <si>
+    <t>ExO_0000127,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT_C63536,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT_C16735,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT_C25398,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT_C43376,dcat:dataset</t>
+  </si>
+  <si>
+    <t>OBI_0001902, dcat:dataset</t>
+  </si>
+  <si>
+    <t>topic_3168,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT_C42883,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C103264, dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C176763,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C70713,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C171105,dcat:dataset</t>
+  </si>
+  <si>
+    <t>PATO:0020000,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C166244,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C171003,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C25412,dcat:dataset</t>
+  </si>
+  <si>
+    <t>GO:0001894,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C16977,dcat:dataset</t>
+  </si>
+  <si>
+    <t>PATO:0001894,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C172217,dcat:dataset</t>
+  </si>
+  <si>
+    <t>urdm_subjects</t>
+  </si>
+  <si>
+    <t>urdm_study</t>
+  </si>
+  <si>
+    <t>urdm_consent</t>
+  </si>
+  <si>
+    <t>urdm_clinical</t>
+  </si>
+  <si>
+    <t>urdm_material</t>
+  </si>
+  <si>
+    <t>urdm_samplePreparation</t>
+  </si>
+  <si>
+    <t>urdm_sequencing</t>
+  </si>
+  <si>
+    <t>urdm_files</t>
+  </si>
+  <si>
+    <t>urdm_lookups_anatomicalSource</t>
+  </si>
+  <si>
+    <t>urdm_lookups_ancestry</t>
+  </si>
+  <si>
+    <t>urdm_lookups_biospecimenType</t>
+  </si>
+  <si>
+    <t>urdm_lookups_country</t>
+  </si>
+  <si>
+    <t>urdm_lookups_genotypicSex</t>
+  </si>
+  <si>
+    <t>urdm_lookups_inclusionStatus</t>
+  </si>
+  <si>
+    <t>urdm_lookups_labIndication</t>
+  </si>
+  <si>
+    <t>urdm_lookups_organization</t>
+  </si>
+  <si>
+    <t>urdm_lookups_pathologicalState</t>
+  </si>
+  <si>
+    <t>urdm_lookups_phenotype</t>
+  </si>
+  <si>
+    <t>urdm_lookups_phenotypicSex</t>
+  </si>
+  <si>
+    <t>urdm_lookups_releases</t>
+  </si>
+  <si>
+    <t>subjectID</t>
+  </si>
+  <si>
+    <t>belongsToFamily</t>
+  </si>
+  <si>
+    <t>belongsToMother</t>
+  </si>
+  <si>
+    <t>belongsToFather</t>
+  </si>
+  <si>
+    <t>belongsWithFamilyMembers</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>yearOfBirth</t>
+  </si>
+  <si>
+    <t>dateOfDeath</t>
+  </si>
+  <si>
+    <t>ageAtDeath</t>
+  </si>
+  <si>
+    <t>countryOfBirth</t>
+  </si>
+  <si>
+    <t>countryOfResidence</t>
+  </si>
+  <si>
+    <t>primaryAffiliation</t>
+  </si>
+  <si>
+    <t>contactPerson</t>
+  </si>
+  <si>
+    <t>contactEmail</t>
+  </si>
+  <si>
+    <t>alternativeIdentifiers</t>
+  </si>
+  <si>
+    <t>firstVisitDate</t>
+  </si>
+  <si>
+    <t>belongsWithTwin</t>
+  </si>
+  <si>
+    <t>fetalStatus</t>
+  </si>
+  <si>
+    <t>consanguinity</t>
+  </si>
+  <si>
+    <t>belongsToStudy</t>
+  </si>
+  <si>
+    <t>belongsToDataRelease</t>
+  </si>
+  <si>
+    <t>recordMetadata</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>dateRecordCreated</t>
+  </si>
+  <si>
+    <t>dateRecordUpdated</t>
+  </si>
+  <si>
+    <t>studyID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>inclusionCriteria</t>
+  </si>
+  <si>
+    <t>principleInvestigator</t>
+  </si>
+  <si>
+    <t>contactInformation</t>
+  </si>
+  <si>
+    <t>studyDescription</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>completionDate</t>
+  </si>
+  <si>
+    <t>studyStatus</t>
+  </si>
+  <si>
+    <t>participantsEnrolled</t>
+  </si>
+  <si>
+    <t>samplesCollected</t>
+  </si>
+  <si>
+    <t>consentID</t>
+  </si>
+  <si>
+    <t>belongsToSubject</t>
+  </si>
+  <si>
+    <t>collectedBy</t>
+  </si>
+  <si>
+    <t>signingDate</t>
+  </si>
+  <si>
+    <t>validFrom</t>
+  </si>
+  <si>
+    <t>validUntil</t>
+  </si>
+  <si>
+    <t>consentWithdrawn</t>
+  </si>
+  <si>
+    <t>dataUsePermission</t>
+  </si>
+  <si>
+    <t>dataUseModifiers</t>
+  </si>
+  <si>
+    <t>dataUseSpecification</t>
+  </si>
+  <si>
+    <t>allowIncidentalFindingRecontact</t>
+  </si>
+  <si>
+    <t>allowMatchmaker</t>
+  </si>
+  <si>
+    <t>allowRecontacting</t>
+  </si>
+  <si>
+    <t>clinicalID</t>
+  </si>
+  <si>
+    <t>affectedStatus</t>
+  </si>
+  <si>
+    <t>dateOfDiagnosis</t>
+  </si>
+  <si>
+    <t>ageAtDiagnosis</t>
+  </si>
+  <si>
+    <t>ageOfOnset</t>
+  </si>
+  <si>
+    <t>observedPhenotype</t>
+  </si>
+  <si>
+    <t>unobservedPhenotype</t>
+  </si>
+  <si>
+    <t>provisionalPhenotype</t>
+  </si>
+  <si>
+    <t>clinicalDiagnosis</t>
+  </si>
+  <si>
     <t>molecularDiagnosis</t>
   </si>
   <si>
-    <t>pathologicalState</t>
-  </si>
-  <si>
-    <t>phenotype</t>
-  </si>
-  <si>
-    <t>phenotypicSex</t>
-  </si>
-  <si>
-    <t>releases</t>
-  </si>
-  <si>
-    <t>Subjects</t>
-  </si>
-  <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>Consent</t>
-  </si>
-  <si>
-    <t>Clinical</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Sample Preparation</t>
-  </si>
-  <si>
-    <t>Sequencing</t>
-  </si>
-  <si>
-    <t>Files</t>
-  </si>
-  <si>
-    <t>Persons who are observed, analyzed, examined, investigated, experimented upon, or/and treated in the course of a particular study</t>
-  </si>
-  <si>
-    <t>A detailed examination, analysis, or critical inspection of one or multiple subjects designed to discover facts.</t>
-  </si>
-  <si>
-    <t>Consent given by a patient to a surgical or medical procedure or participation in a study, examination or analysis after achieving an understanding of the relevant medical facts and the risks involved.</t>
-  </si>
-  <si>
-    <t>Findings and circumstances relating to the examination and treatment of a patient.</t>
-  </si>
-  <si>
-    <t>A natural substance derived from living organisms such as cells, tissues, proteins, and DNA.</t>
-  </si>
-  <si>
-    <t>A sample preparation for a nucleic acids sequencing assay.</t>
-  </si>
-  <si>
-    <t>The determination of complete (typically nucleotide) sequences, including those of genomes (full genome sequencing, de novo sequencing and resequencing), amplicons and transcriptomes.</t>
-  </si>
-  <si>
-    <t>A set of related records (either written or electronic) kept together.</t>
-  </si>
-  <si>
-    <t>Biological entity that constitutes the structural organization of an individual member of a biological species from which this material was taken.</t>
-  </si>
-  <si>
-    <t>Population category defined using ancestry informative markers (AIMs) based on genetic/genomic data.</t>
-  </si>
-  <si>
-    <t>The type of material taken from a biological entity for testing, diagnostic, propagation, treatment or research purposes.</t>
-  </si>
-  <si>
-    <t>A collective generic term that refers here to a wide variety of dependencies, areas of special sovereignty, uninhabited islands, and other entities in addition to the traditional countries or independent states.</t>
-  </si>
-  <si>
-    <t>A biological sex quality inhering in an individual based upon genotypic composition of sex chromosomes.</t>
-  </si>
-  <si>
-    <t>An indicator that provides information on the current health status of this person.</t>
-  </si>
-  <si>
-    <t>The explanation for why a test, measurement, or assessment is executed.</t>
+    <t>molecularDiagnosisOther</t>
+  </si>
+  <si>
+    <t>resolved</t>
+  </si>
+  <si>
+    <t>dateResolved</t>
+  </si>
+  <si>
+    <t>belongsToMaterial</t>
+  </si>
+  <si>
+    <t>materialID</t>
+  </si>
+  <si>
+    <t>belongsToRequest</t>
+  </si>
+  <si>
+    <t>samplingReason</t>
+  </si>
+  <si>
+    <t>samplingTimestamp</t>
+  </si>
+  <si>
+    <t>samplingProtocol</t>
+  </si>
+  <si>
+    <t>samplingProtocolDeviation</t>
+  </si>
+  <si>
+    <t>reasonForSamplingProtocolDeviation</t>
+  </si>
+  <si>
+    <t>biospecimenUsability</t>
+  </si>
+  <si>
+    <t>sampleID</t>
+  </si>
+  <si>
+    <t>inputAmount</t>
+  </si>
+  <si>
+    <t>libraryPreparationKit</t>
+  </si>
+  <si>
+    <t>pcrFree</t>
+  </si>
+  <si>
+    <t>targetEnrichmentKit</t>
+  </si>
+  <si>
+    <t>umIsPresent</t>
+  </si>
+  <si>
+    <t>intendedInsertSize</t>
+  </si>
+  <si>
+    <t>intendedReadLength</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>sequencingID</t>
+  </si>
+  <si>
+    <t>belongsToSample</t>
+  </si>
+  <si>
+    <t>sequencingDate</t>
+  </si>
+  <si>
+    <t>sequencingFacilityOrganization</t>
+  </si>
+  <si>
+    <t>sequencingPlatform</t>
+  </si>
+  <si>
+    <t>sequencingInstrumentModel</t>
+  </si>
+  <si>
+    <t>sequencingMethod</t>
+  </si>
+  <si>
+    <t>averageReadDepth</t>
+  </si>
+  <si>
+    <t>observedReadLength</t>
+  </si>
+  <si>
+    <t>observedInsertSize</t>
+  </si>
+  <si>
+    <t>percentageQ30</t>
+  </si>
+  <si>
+    <t>percentageTR20</t>
+  </si>
+  <si>
+    <t>otherQualityMetrics</t>
+  </si>
+  <si>
+    <t>referenceGenomeUsed</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>belongsToSequencing</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>dateCreated</t>
+  </si>
+  <si>
+    <t>md5</t>
+  </si>
+  <si>
+    <t>uploaded</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>alternativeFileId</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>codesystem</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>iri</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>createdBy</t>
+  </si>
+  <si>
+    <t>numberOfEntriesAdded</t>
+  </si>
+  <si>
+    <t>dataSource</t>
+  </si>
+  <si>
+    <t>releaseComments</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>xref</t>
+  </si>
+  <si>
+    <t>mref</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
+  </si>
+  <si>
+    <t>An individual who is the subject of personal data, persons to whom data refers, and from whom data are collected, processed, and stored.</t>
+  </si>
+  <si>
+    <t>A domestic group, or a number of domestic groups linked through descent (demonstrated or stipulated) from a common ancestor, marriage, or adoption.</t>
+  </si>
+  <si>
+    <t>A designation that has some relationship to motherhood.</t>
+  </si>
+  <si>
+    <t>Having to do with the father, coming from the father, or related through the father.</t>
+  </si>
+  <si>
+    <t>Any individual related biologically or legally to another individual.</t>
+  </si>
+  <si>
+    <t>The calendar date on which a person was born.</t>
+  </si>
+  <si>
+    <t>The year in which a person was born.</t>
+  </si>
+  <si>
+    <t>The calendar date of subject's death.</t>
+  </si>
+  <si>
+    <t>The age at which death occurred.</t>
+  </si>
+  <si>
+    <t>The country that this person was born in.</t>
+  </si>
+  <si>
+    <t>Country of residence at enrollment.</t>
+  </si>
+  <si>
+    <t>The most significant institute for medical consultation and/or study inclusion in context of the genetic disease of this person.</t>
+  </si>
+  <si>
+    <t>A person acting as a channel for communication between groups or on behalf of a group.</t>
+  </si>
+  <si>
+    <t>Email address of the contact person or organization</t>
+  </si>
+  <si>
+    <t>A backup sequence of characters used to identify an entity.</t>
+  </si>
+  <si>
+    <t>The date for the first patient visit.</t>
+  </si>
+  <si>
+    <t>Either of two offspring born from the same pregnancy.</t>
+  </si>
+  <si>
+    <t>Any tissue from a fetus.</t>
+  </si>
+  <si>
+    <t>Genetic relatedness between individuals who are descendants of at least one common ancestor.</t>
+  </si>
+  <si>
+    <t>Reference to the study or studies in which this person participates.</t>
+  </si>
+  <si>
+    <t>metadata is data that provides information about data.</t>
+  </si>
+  <si>
+    <t>A written explanation, observation or criticism added to textual material.</t>
+  </si>
+  <si>
+    <t>The date on which the activity or entity is created.</t>
+  </si>
+  <si>
+    <t>The date (and time) on which report was updated after it had been submitted.</t>
+  </si>
+  <si>
+    <t>A unique proper name or character sequence that identifies this particular study.</t>
+  </si>
+  <si>
+    <t>A name that designates this study.</t>
+  </si>
+  <si>
+    <t>The conditions which, if met, make an person eligible for participation in this study.</t>
+  </si>
+  <si>
+    <t>The principle investigator or responsible person for this study.</t>
+  </si>
+  <si>
+    <t>An email address for the purpose of contacting the study contact person.</t>
+  </si>
+  <si>
+    <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of this study.</t>
+  </si>
+  <si>
+    <t>The date on which this study began.</t>
+  </si>
+  <si>
+    <t>The date on which the concluding information for this study is completed. Usually, this is when the last subject has a final visit, or the main analysis has finished, or any other protocol-defined completion date.</t>
+  </si>
+  <si>
+    <t>The status of a study or trial.</t>
+  </si>
+  <si>
+    <t>An integer specifying the quantity of study subjects enrolled in the study at the current time.</t>
+  </si>
+  <si>
+    <t>An integer specifying the quantity of samples collected at the current time.</t>
+  </si>
+  <si>
+    <t>A unique proper name or character sequence that identifies this particular signed individual consent.</t>
+  </si>
+  <si>
+    <t>Indicates the person, group, or institution who performed the collection act.</t>
+  </si>
+  <si>
+    <t>A date specification that designates when this individual consent form was signed.</t>
+  </si>
+  <si>
+    <t>Starting date of the validity of this individual consent.</t>
+  </si>
+  <si>
+    <t>End date of the validity of this individual consent.</t>
+  </si>
+  <si>
+    <t>An indication that the consent to participate in the study or one or more segments of the study has been revoked.</t>
+  </si>
+  <si>
+    <t>A data item that is used to indicate consent permissions for datasets and/or materials, and relates to the purposes for which datasets and/or material might be used.</t>
+  </si>
+  <si>
+    <t>Data use modifiers indicate additional conditions for use. For instance, a dataset is restricted to investigations into specific diseases or performed at specific geographical locations.</t>
+  </si>
+  <si>
+    <t>Further specification of applied data use permissions and modifiers. For example, a list of countries in case of geographic restrictions or a list of diseases when restricted to disease-specific research.</t>
+  </si>
+  <si>
+    <t>A planned process for a subject agrees not to be informed about any incidental finding.</t>
+  </si>
+  <si>
+    <t>Permission is given for MatchMaking</t>
+  </si>
+  <si>
+    <t>The procedure of recontacting the patient for specified reasons. This means the patient agrees to be re-identifiable under those circumstances.</t>
+  </si>
+  <si>
+    <t>A unique proper name or character sequence that identifies this particular clinical examination.</t>
+  </si>
+  <si>
+    <t>Individuals in a pedigree who exhibit the specific phenotype under study.</t>
+  </si>
+  <si>
+    <t>The date on which a diagnosis of disease was made.</t>
+  </si>
+  <si>
+    <t>The age (in years), measured from some defined time point (e.g. birth) at which a patient is diagnosed with a disease.</t>
+  </si>
+  <si>
+    <t>Age (in years) of onset of clinical manifestations related to the disease of the patient.</t>
+  </si>
+  <si>
+    <t>The outward appearance of the individual. In medical context, these are often the symptoms caused by a disease.</t>
+  </si>
+  <si>
+    <t>Phenotypes or symptoms that were looked for but not observed, which may help in differential diagnosis or establish incomplete penetrance.</t>
+  </si>
+  <si>
+    <t>The test or procedure was successfully performed, but the results are borderline and can neither be declared positive / negative nor detected / not detected according to the current established criteria.</t>
+  </si>
+  <si>
+    <t>A diagnosis made from a study of the signs and symptoms of a disease.</t>
   </si>
   <si>
     <t>Gene affected by pathogenic variation that is causal for disease of the patient.</t>
   </si>
   <si>
-    <t>The pathological state of the tissue from which this material was derived.</t>
-  </si>
-  <si>
-    <t>Human Phenotype Ontology (HPO) release v2021-08-02</t>
-  </si>
-  <si>
-    <t>An organismal quality inhering in a bearer by virtue of the bearer's physical expression of sexual characteristics.</t>
-  </si>
-  <si>
-    <t>The act of making data or other structured information accessible to the public or to the user group of a database.</t>
-  </si>
-  <si>
-    <t>ExO_0000127,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT_C63536,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT_C16735,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT_C25398,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT_C43376,dcat:dataset</t>
-  </si>
-  <si>
-    <t>OBI_0001902, dcat:dataset</t>
-  </si>
-  <si>
-    <t>topic_3168,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT_C42883,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C103264, dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C176763,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C70713,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C171105,dcat:dataset</t>
-  </si>
-  <si>
-    <t>PATO:0020000,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C166244,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C171003,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C20826,dcat:dataset</t>
-  </si>
-  <si>
-    <t>GO:0001894,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C16977,dcat:dataset</t>
-  </si>
-  <si>
-    <t>PATO:0001894,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C172217,dcat:dataset</t>
-  </si>
-  <si>
-    <t>urdm_subjects</t>
-  </si>
-  <si>
-    <t>urdm_study</t>
-  </si>
-  <si>
-    <t>urdm_consent</t>
-  </si>
-  <si>
-    <t>urdm_clinical</t>
-  </si>
-  <si>
-    <t>urdm_material</t>
-  </si>
-  <si>
-    <t>urdm_samplePreparation</t>
-  </si>
-  <si>
-    <t>urdm_sequencing</t>
-  </si>
-  <si>
-    <t>urdm_files</t>
-  </si>
-  <si>
-    <t>urdm_lookups_anatomicalSource</t>
-  </si>
-  <si>
-    <t>urdm_lookups_ancestry</t>
-  </si>
-  <si>
-    <t>urdm_lookups_biospecimenType</t>
-  </si>
-  <si>
-    <t>urdm_lookups_country</t>
-  </si>
-  <si>
-    <t>urdm_lookups_genotypicSex</t>
-  </si>
-  <si>
-    <t>urdm_lookups_inclusionStatus</t>
-  </si>
-  <si>
-    <t>urdm_lookups_labIndication</t>
-  </si>
-  <si>
-    <t>urdm_lookups_molecularDiagnosis</t>
-  </si>
-  <si>
-    <t>urdm_lookups_pathologicalState</t>
-  </si>
-  <si>
-    <t>urdm_lookups_phenotype</t>
-  </si>
-  <si>
-    <t>urdm_lookups_phenotypicSex</t>
-  </si>
-  <si>
-    <t>urdm_lookups_releases</t>
-  </si>
-  <si>
-    <t>subjectID</t>
-  </si>
-  <si>
-    <t>belongsToFamily</t>
-  </si>
-  <si>
-    <t>belongsToMother</t>
-  </si>
-  <si>
-    <t>belongsToFather</t>
-  </si>
-  <si>
-    <t>belongsWithFamilyMembers</t>
-  </si>
-  <si>
-    <t>dateOfBirth</t>
-  </si>
-  <si>
-    <t>yearOfBirth</t>
-  </si>
-  <si>
-    <t>dateOfDeath</t>
-  </si>
-  <si>
-    <t>ageAtDeath</t>
-  </si>
-  <si>
-    <t>countryOfBirth</t>
-  </si>
-  <si>
-    <t>countryOfResidence</t>
-  </si>
-  <si>
-    <t>primaryAffiliation</t>
-  </si>
-  <si>
-    <t>contactPerson</t>
-  </si>
-  <si>
-    <t>contactEmail</t>
-  </si>
-  <si>
-    <t>alternativeIdentifiers</t>
-  </si>
-  <si>
-    <t>firstVisitDate</t>
-  </si>
-  <si>
-    <t>belongsWithTwin</t>
-  </si>
-  <si>
-    <t>fetalStatus</t>
-  </si>
-  <si>
-    <t>consanguinity</t>
-  </si>
-  <si>
-    <t>belongsToStudy</t>
-  </si>
-  <si>
-    <t>belongsWithDataRelease</t>
-  </si>
-  <si>
-    <t>recordMetadata</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>dateRecordCreated</t>
-  </si>
-  <si>
-    <t>dateRecordUpdated</t>
-  </si>
-  <si>
-    <t>studyID</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>inclusionCriteria</t>
-  </si>
-  <si>
-    <t>principleInvestigator</t>
-  </si>
-  <si>
-    <t>contactInformation</t>
-  </si>
-  <si>
-    <t>studyDescription</t>
-  </si>
-  <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>completionDate</t>
-  </si>
-  <si>
-    <t>studyStatus</t>
-  </si>
-  <si>
-    <t>participantsEnrolled</t>
-  </si>
-  <si>
-    <t>samplesCollected</t>
-  </si>
-  <si>
-    <t>consentID</t>
-  </si>
-  <si>
-    <t>belongsToSubject</t>
-  </si>
-  <si>
-    <t>collectedBy</t>
-  </si>
-  <si>
-    <t>signingDate</t>
-  </si>
-  <si>
-    <t>validFrom</t>
-  </si>
-  <si>
-    <t>validUntil</t>
-  </si>
-  <si>
-    <t>consentWithdrawn</t>
-  </si>
-  <si>
-    <t>dataUsePermission</t>
-  </si>
-  <si>
-    <t>dataUseModifiers</t>
-  </si>
-  <si>
-    <t>dataUseSpecification</t>
-  </si>
-  <si>
-    <t>allowIncidentalFindingRecontact</t>
-  </si>
-  <si>
-    <t>allowMatchmaker</t>
-  </si>
-  <si>
-    <t>allowRecontacting</t>
-  </si>
-  <si>
-    <t>clinicalID</t>
-  </si>
-  <si>
-    <t>affectedStatus</t>
-  </si>
-  <si>
-    <t>dateOfDiagnosis</t>
-  </si>
-  <si>
-    <t>ageAtDiagnosis</t>
-  </si>
-  <si>
-    <t>ageOfOnset</t>
-  </si>
-  <si>
-    <t>observedPhenotype</t>
-  </si>
-  <si>
-    <t>unobservedPhenotype</t>
-  </si>
-  <si>
-    <t>provisionalPhenotype</t>
-  </si>
-  <si>
-    <t>clinicalDiagnosis</t>
-  </si>
-  <si>
-    <t>molecularDiagnosisOther</t>
-  </si>
-  <si>
-    <t>resolved</t>
-  </si>
-  <si>
-    <t>dateResolved</t>
-  </si>
-  <si>
-    <t>belongsToMaterial</t>
-  </si>
-  <si>
-    <t>materialID</t>
-  </si>
-  <si>
-    <t>belongsToRequest</t>
-  </si>
-  <si>
-    <t>samplingReason</t>
-  </si>
-  <si>
-    <t>samplingTimestamp</t>
-  </si>
-  <si>
-    <t>samplingProtocol</t>
-  </si>
-  <si>
-    <t>samplingProtocolDeviation</t>
-  </si>
-  <si>
-    <t>reasonForSamplingProtocolDeviation</t>
-  </si>
-  <si>
-    <t>biospecimenUsability</t>
-  </si>
-  <si>
-    <t>sampleID</t>
-  </si>
-  <si>
-    <t>inputAmount</t>
-  </si>
-  <si>
-    <t>libraryPreparationKit</t>
-  </si>
-  <si>
-    <t>pcrFree</t>
-  </si>
-  <si>
-    <t>targetEnrichmentKit</t>
-  </si>
-  <si>
-    <t>umIsPresent</t>
-  </si>
-  <si>
-    <t>intendedInsertSize</t>
-  </si>
-  <si>
-    <t>intendedReadLength</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>sequencingID</t>
-  </si>
-  <si>
-    <t>belongsToSample</t>
-  </si>
-  <si>
-    <t>sequencingDate</t>
-  </si>
-  <si>
-    <t>sequencingFacilityOrganization</t>
-  </si>
-  <si>
-    <t>sequencingPlatform</t>
-  </si>
-  <si>
-    <t>sequencingInstrumentModel</t>
-  </si>
-  <si>
-    <t>sequencingMethod</t>
-  </si>
-  <si>
-    <t>averageReadDepth</t>
-  </si>
-  <si>
-    <t>observedReadLength</t>
-  </si>
-  <si>
-    <t>observedInsertSize</t>
-  </si>
-  <si>
-    <t>percentageQ30</t>
-  </si>
-  <si>
-    <t>percentageTR20</t>
-  </si>
-  <si>
-    <t>otherQualityMetrics</t>
-  </si>
-  <si>
-    <t>referenceGenomeUsed</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>belongsToSequencing</t>
-  </si>
-  <si>
-    <t>server</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>dateCreated</t>
-  </si>
-  <si>
-    <t>md5</t>
-  </si>
-  <si>
-    <t>uploaded</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>alternativeFileId</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>codesystem</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>iri</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>createdBy</t>
-  </si>
-  <si>
-    <t>numberOfEntriesAdded</t>
-  </si>
-  <si>
-    <t>dataSource</t>
-  </si>
-  <si>
-    <t>releaseComments</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>xref</t>
-  </si>
-  <si>
-    <t>mref</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>compound</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>hyperlink</t>
-  </si>
-  <si>
-    <t>An individual who is the subject of personal data, persons to whom data refers, and from whom data are collected, processed, and stored.</t>
-  </si>
-  <si>
-    <t>A domestic group, or a number of domestic groups linked through descent (demonstrated or stipulated) from a common ancestor, marriage, or adoption.</t>
-  </si>
-  <si>
-    <t>A designation that has some relationship to motherhood.</t>
-  </si>
-  <si>
-    <t>Having to do with the father, coming from the father, or related through the father.</t>
-  </si>
-  <si>
-    <t>Any individual related biologically or legally to another individual.</t>
-  </si>
-  <si>
-    <t>The calendar date on which a person was born.</t>
-  </si>
-  <si>
-    <t>The year in which a person was born.</t>
-  </si>
-  <si>
-    <t>The calendar date of subject's death.</t>
-  </si>
-  <si>
-    <t>The age at which death occurred.</t>
-  </si>
-  <si>
-    <t>The country that this person was born in.</t>
-  </si>
-  <si>
-    <t>Country of residence at enrollment.</t>
-  </si>
-  <si>
-    <t>The most significant institute for medical consultation and/or study inclusion in context of the genetic disease of this person.</t>
-  </si>
-  <si>
-    <t>A person acting as a channel for communication between groups or on behalf of a group.</t>
-  </si>
-  <si>
-    <t>Email address of the contact person or organization</t>
-  </si>
-  <si>
-    <t>A backup sequence of characters used to identify an entity.</t>
-  </si>
-  <si>
-    <t>The date for the first patient visit.</t>
-  </si>
-  <si>
-    <t>Either of two offspring born from the same pregnancy.</t>
-  </si>
-  <si>
-    <t>Any tissue from a fetus.</t>
-  </si>
-  <si>
-    <t>Genetic relatedness between individuals who are descendants of at least one common ancestor.</t>
-  </si>
-  <si>
-    <t>Reference to the study or studies in which this person participates.</t>
-  </si>
-  <si>
-    <t>metadata is data that provides information about data.</t>
-  </si>
-  <si>
-    <t>A written explanation, observation or criticism added to textual material.</t>
-  </si>
-  <si>
-    <t>The date on which the activity or entity is created.</t>
-  </si>
-  <si>
-    <t>The date (and time) on which report was updated after it had been submitted.</t>
-  </si>
-  <si>
-    <t>A unique proper name or character sequence that identifies this particular study.</t>
-  </si>
-  <si>
-    <t>A name that designates this study.</t>
-  </si>
-  <si>
-    <t>The conditions which, if met, make an person eligible for participation in this study.</t>
-  </si>
-  <si>
-    <t>The principle investigator or responsible person for this study.</t>
-  </si>
-  <si>
-    <t>An email address for the purpose of contacting the study contact person.</t>
-  </si>
-  <si>
-    <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of this study.</t>
-  </si>
-  <si>
-    <t>The date on which this study began.</t>
-  </si>
-  <si>
-    <t>The date on which the concluding information for this study is completed. Usually, this is when the last subject has a final visit, or the main analysis has finished, or any other protocol-defined completion date.</t>
-  </si>
-  <si>
-    <t>The status of a study or trial.</t>
-  </si>
-  <si>
-    <t>An integer specifying the quantity of study subjects enrolled in the study at the current time.</t>
-  </si>
-  <si>
-    <t>An integer specifying the quantity of samples collected at the current time.</t>
-  </si>
-  <si>
-    <t>A unique proper name or character sequence that identifies this particular signed individual consent.</t>
-  </si>
-  <si>
-    <t>Indicates the person, group, or institution who performed the collection act.</t>
-  </si>
-  <si>
-    <t>A date specification that designates when this individual consent form was signed.</t>
-  </si>
-  <si>
-    <t>Starting date of the validity of this individual consent.</t>
-  </si>
-  <si>
-    <t>End date of the validity of this individual consent.</t>
-  </si>
-  <si>
-    <t>An indication that the consent to participate in the study or one or more segments of the study has been revoked.</t>
-  </si>
-  <si>
-    <t>A data item that is used to indicate consent permissions for datasets and/or materials, and relates to the purposes for which datasets and/or material might be used.</t>
-  </si>
-  <si>
-    <t>Data use modifiers indicate additional conditions for use. For instance, a dataset is restricted to investigations into specific diseases or performed at specific geographical locations.</t>
-  </si>
-  <si>
-    <t>Further specification of applied data use permissions and modifiers. For example, a list of countries in case of geographic restrictions or a list of diseases when restricted to disease-specific research.</t>
-  </si>
-  <si>
-    <t>A planned process for a subject agrees not to be informed about any incidental finding.</t>
-  </si>
-  <si>
-    <t>Permission is given for MatchMaking</t>
-  </si>
-  <si>
-    <t>The procedure of recontacting the patient for specified reasons. This means the patient agrees to be re-identifiable under those circumstances.</t>
-  </si>
-  <si>
-    <t>A unique proper name or character sequence that identifies this particular clinical examination.</t>
-  </si>
-  <si>
-    <t>Individuals in a pedigree who exhibit the specific phenotype under study.</t>
-  </si>
-  <si>
-    <t>The date on which a diagnosis of disease was made.</t>
-  </si>
-  <si>
-    <t>The age (in years), measured from some defined time point (e.g. birth) at which a patient is diagnosed with a disease.</t>
-  </si>
-  <si>
-    <t>Age (in years) of onset of clinical manifestations related to the disease of the patient.</t>
-  </si>
-  <si>
-    <t>The outward appearance of the individual. In medical context, these are often the symptoms caused by a disease.</t>
-  </si>
-  <si>
-    <t>Phenotypes or symptoms that were looked for but not observed, which may help in differential diagnosis or establish incomplete penetrance.</t>
-  </si>
-  <si>
-    <t>The test or procedure was successfully performed, but the results are borderline and can neither be declared positive / negative nor detected / not detected according to the current established criteria.</t>
-  </si>
-  <si>
-    <t>A diagnosis made from a study of the signs and symptoms of a disease.</t>
-  </si>
-  <si>
     <t>Causal variant in HGVS notation with optional classification or free text explaining any other molecular mechanisms involved.</t>
   </si>
   <si>
@@ -1015,15 +1021,6 @@
     <t>A notation regarding the decisions, and/or clarification of any information pertaining to data management.</t>
   </si>
   <si>
-    <t xml:space="preserve">{dateOfBirth} notempty </t>
-  </si>
-  <si>
-    <t>{dateOfBirth} notempty and {yearOfBirth} notempty and {yearOfBirth} = regex('^([0-9]{4})', {dateOfBirth})</t>
-  </si>
-  <si>
-    <t>{dateOfBirth} notempty and {dateOfDeath} notempty and {dateOfDeath} &gt; {dateOfBirth} or {dateOfDeath} = {dateOfBirth}</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -1054,15 +1051,12 @@
     <t>labelAttribute</t>
   </si>
   <si>
+    <t>visible</t>
+  </si>
+  <si>
     <t>refEntity</t>
   </si>
   <si>
-    <t>expression</t>
-  </si>
-  <si>
-    <t>validationExpression</t>
-  </si>
-  <si>
     <t>partOfAttribute</t>
   </si>
   <si>
@@ -1117,6 +1111,9 @@
     <t>NCIT:C20826</t>
   </si>
   <si>
+    <t>NCIT:C25412</t>
+  </si>
+  <si>
     <t>GO:0001894</t>
   </si>
   <si>
@@ -1187,6 +1184,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C20826</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25412</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/GO_0001894</t>
@@ -1596,16 +1596,16 @@
         <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1654,19 +1654,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1980,51 +1980,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L217"/>
+  <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2032,7 +2029,7 @@
         <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -2047,10 +2044,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>223</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2058,13 +2058,13 @@
         <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -2073,10 +2073,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>224</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -2084,13 +2087,13 @@
         <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -2099,13 +2102,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -2113,13 +2119,13 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2128,13 +2134,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -2142,13 +2151,13 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -2157,13 +2166,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>226</v>
-      </c>
-      <c r="I6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -2171,13 +2183,13 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -2188,8 +2200,11 @@
       <c r="H7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -2197,13 +2212,13 @@
         <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -2212,10 +2227,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>228</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -2223,13 +2241,13 @@
         <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -2238,16 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J9" t="s">
-        <v>332</v>
-      </c>
-      <c r="K9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>229</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -2255,13 +2270,13 @@
         <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2270,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
-      </c>
-      <c r="K10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>230</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -2284,13 +2299,13 @@
         <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2299,10 +2314,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>231</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2310,13 +2328,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -2327,11 +2345,14 @@
       <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2339,13 +2360,13 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2356,11 +2377,14 @@
       <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2368,13 +2392,13 @@
         <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2383,13 +2407,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>231</v>
-      </c>
-      <c r="I14" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -2397,13 +2424,13 @@
         <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2412,13 +2439,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>232</v>
-      </c>
-      <c r="I15" t="s">
+        <v>233</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2426,13 +2456,13 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2443,11 +2473,14 @@
       <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2455,13 +2488,13 @@
         <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2470,10 +2503,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>234</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -2481,13 +2520,13 @@
         <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2496,10 +2535,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>235</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -2507,13 +2549,13 @@
         <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2522,10 +2564,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>236</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2533,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2548,10 +2593,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>237</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -2559,13 +2607,13 @@
         <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2574,10 +2622,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>238</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2585,13 +2636,13 @@
         <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2600,10 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>239</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -2611,13 +2665,13 @@
         <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2626,10 +2680,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>240</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2637,13 +2694,13 @@
         <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -2652,10 +2709,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>241</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -2663,13 +2723,13 @@
         <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2678,13 +2738,16 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>241</v>
-      </c>
-      <c r="I25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2692,13 +2755,13 @@
         <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -2709,11 +2772,14 @@
       <c r="H26" t="s">
         <v>54</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -2721,13 +2787,13 @@
         <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2736,10 +2802,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>243</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -2747,13 +2816,13 @@
         <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -2762,13 +2831,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>243</v>
-      </c>
-      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2776,7 +2848,7 @@
         <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2791,13 +2863,16 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>244</v>
-      </c>
-      <c r="L29" t="s">
+        <v>245</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2805,7 +2880,7 @@
         <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -2820,13 +2895,16 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>245</v>
-      </c>
-      <c r="L30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2834,7 +2912,7 @@
         <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2849,10 +2927,13 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>247</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -2860,13 +2941,13 @@
         <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -2875,10 +2956,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>248</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2886,13 +2970,13 @@
         <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2901,10 +2985,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>249</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -2912,13 +2999,13 @@
         <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2927,10 +3014,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>250</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2938,13 +3028,13 @@
         <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2953,10 +3043,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>251</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2964,13 +3057,13 @@
         <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2979,10 +3072,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>252</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -2990,13 +3086,13 @@
         <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -3005,10 +3101,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>253</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -3016,13 +3115,13 @@
         <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -3031,10 +3130,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>254</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -3042,13 +3144,13 @@
         <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -3057,10 +3159,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>255</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -3068,13 +3173,13 @@
         <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -3083,10 +3188,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>256</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -3094,13 +3202,13 @@
         <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -3109,10 +3217,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>257</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -3120,13 +3231,13 @@
         <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -3137,11 +3248,14 @@
       <c r="H42" t="s">
         <v>54</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -3149,13 +3263,13 @@
         <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -3164,10 +3278,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>243</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -3175,13 +3292,13 @@
         <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3190,13 +3307,16 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>243</v>
-      </c>
-      <c r="L44" t="s">
+        <v>244</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -3204,7 +3324,7 @@
         <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -3219,13 +3339,16 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>244</v>
-      </c>
-      <c r="L45" t="s">
+        <v>245</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -3233,7 +3356,7 @@
         <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -3248,13 +3371,16 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>245</v>
-      </c>
-      <c r="L46" t="s">
+        <v>246</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -3262,7 +3388,7 @@
         <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -3277,10 +3403,13 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>258</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -3288,13 +3417,13 @@
         <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -3303,13 +3432,16 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>222</v>
-      </c>
-      <c r="I48" t="s">
+        <v>223</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -3317,13 +3449,13 @@
         <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -3332,10 +3464,13 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>259</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -3343,13 +3478,13 @@
         <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -3358,10 +3493,13 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>260</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -3369,13 +3507,13 @@
         <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3384,10 +3522,13 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>261</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -3395,13 +3536,13 @@
         <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3410,10 +3551,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>262</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -3421,13 +3565,13 @@
         <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -3436,10 +3580,13 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>263</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -3447,13 +3594,13 @@
         <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3462,10 +3609,13 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>264</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -3473,13 +3623,13 @@
         <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3488,10 +3638,13 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>265</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -3499,13 +3652,13 @@
         <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -3514,10 +3667,13 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>266</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -3525,13 +3681,13 @@
         <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -3540,10 +3696,13 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>267</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -3551,13 +3710,13 @@
         <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -3566,10 +3725,13 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>268</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -3577,13 +3739,13 @@
         <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -3592,10 +3754,13 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>269</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -3603,13 +3768,13 @@
         <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -3620,11 +3785,14 @@
       <c r="H60" t="s">
         <v>54</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -3632,13 +3800,13 @@
         <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -3647,10 +3815,13 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>243</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -3658,13 +3829,13 @@
         <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -3673,13 +3844,16 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>243</v>
-      </c>
-      <c r="L62" t="s">
+        <v>244</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -3687,7 +3861,7 @@
         <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -3702,13 +3876,16 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>244</v>
-      </c>
-      <c r="L63" t="s">
+        <v>245</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -3716,7 +3893,7 @@
         <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -3731,13 +3908,16 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>245</v>
-      </c>
-      <c r="L64" t="s">
+        <v>246</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -3745,13 +3925,13 @@
         <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3760,10 +3940,13 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>270</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -3771,13 +3954,13 @@
         <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3786,13 +3969,16 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>222</v>
-      </c>
-      <c r="I66" t="s">
+        <v>223</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -3800,13 +3986,13 @@
         <v>145</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -3815,10 +4001,13 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>271</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -3826,13 +4015,13 @@
         <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -3841,10 +4030,13 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>272</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -3852,13 +4044,13 @@
         <v>147</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -3867,10 +4059,13 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>273</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -3878,13 +4073,13 @@
         <v>148</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3893,10 +4088,13 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>274</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -3904,13 +4102,13 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -3919,10 +4117,13 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>275</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3930,13 +4131,13 @@
         <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -3945,10 +4146,13 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>276</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -3956,13 +4160,13 @@
         <v>151</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3971,10 +4175,13 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>277</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -3982,13 +4189,13 @@
         <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -3997,24 +4204,27 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>278</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -4023,24 +4233,27 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>279</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -4049,24 +4262,27 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>280</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -4075,24 +4291,27 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>281</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -4101,24 +4320,27 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>282</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -4127,13 +4349,16 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>281</v>
-      </c>
-      <c r="I79" t="s">
+        <v>283</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4141,13 +4366,13 @@
         <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -4158,11 +4383,14 @@
       <c r="H80" t="s">
         <v>54</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -4170,13 +4398,13 @@
         <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -4185,10 +4413,13 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>243</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -4196,13 +4427,13 @@
         <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -4211,13 +4442,16 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>243</v>
-      </c>
-      <c r="L82" t="s">
+        <v>244</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -4225,7 +4459,7 @@
         <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -4240,13 +4474,16 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>244</v>
-      </c>
-      <c r="L83" t="s">
+        <v>245</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -4254,7 +4491,7 @@
         <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -4269,21 +4506,24 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>245</v>
-      </c>
-      <c r="L84" t="s">
+        <v>246</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
@@ -4298,10 +4538,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>283</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -4309,13 +4552,13 @@
         <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -4324,27 +4567,30 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>222</v>
-      </c>
-      <c r="I86" t="s">
+        <v>223</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C87" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -4353,24 +4599,27 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>284</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -4381,25 +4630,28 @@
       <c r="H88" t="s">
         <v>49</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -4408,24 +4660,27 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>285</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -4434,24 +4689,27 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>286</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -4460,24 +4718,27 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>287</v>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>79</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -4486,10 +4747,13 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>288</v>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>79</v>
       </c>
@@ -4497,13 +4761,13 @@
         <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -4514,11 +4778,14 @@
       <c r="H93" t="s">
         <v>45</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -4526,13 +4793,13 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -4543,11 +4810,14 @@
       <c r="H94" t="s">
         <v>43</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -4555,13 +4825,13 @@
         <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -4572,25 +4842,28 @@
       <c r="H95" t="s">
         <v>51</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>79</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -4599,10 +4872,13 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>289</v>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>79</v>
       </c>
@@ -4610,13 +4886,13 @@
         <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -4625,10 +4901,13 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>237</v>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>79</v>
       </c>
@@ -4636,13 +4915,13 @@
         <v>115</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -4653,11 +4932,14 @@
       <c r="H98" t="s">
         <v>54</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>79</v>
       </c>
@@ -4665,13 +4947,13 @@
         <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
@@ -4680,10 +4962,13 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>243</v>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -4691,13 +4976,13 @@
         <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -4706,13 +4991,16 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>243</v>
-      </c>
-      <c r="L100" t="s">
+        <v>244</v>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -4720,7 +5008,7 @@
         <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -4735,13 +5023,16 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>244</v>
-      </c>
-      <c r="L101" t="s">
+        <v>245</v>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>79</v>
       </c>
@@ -4749,7 +5040,7 @@
         <v>119</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -4764,21 +5055,24 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>245</v>
-      </c>
-      <c r="L102" t="s">
+        <v>246</v>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -4793,24 +5087,27 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>290</v>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>80</v>
       </c>
       <c r="B104" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="b">
         <v>0</v>
@@ -4819,27 +5116,30 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>281</v>
-      </c>
-      <c r="I104" t="s">
+        <v>283</v>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>80</v>
       </c>
       <c r="B105" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
@@ -4848,24 +5148,27 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>291</v>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>80</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -4874,24 +5177,27 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>292</v>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>80</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C107" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -4900,24 +5206,27 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>293</v>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>80</v>
       </c>
       <c r="B108" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C108" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -4926,24 +5235,27 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>294</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>80</v>
       </c>
       <c r="B109" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
@@ -4952,24 +5264,27 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>295</v>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>80</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -4978,24 +5293,27 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>296</v>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>80</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C111" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -5004,24 +5322,27 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>297</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C112" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -5030,10 +5351,13 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>298</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>80</v>
       </c>
@@ -5041,13 +5365,13 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -5058,11 +5382,14 @@
       <c r="H113" t="s">
         <v>54</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>80</v>
       </c>
@@ -5070,13 +5397,13 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
@@ -5085,10 +5412,13 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>243</v>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>80</v>
       </c>
@@ -5096,13 +5426,13 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
@@ -5111,13 +5441,16 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>243</v>
-      </c>
-      <c r="L115" t="s">
+        <v>244</v>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>80</v>
       </c>
@@ -5125,7 +5458,7 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -5140,13 +5473,16 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>244</v>
-      </c>
-      <c r="L116" t="s">
+        <v>245</v>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>80</v>
       </c>
@@ -5154,7 +5490,7 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -5169,21 +5505,24 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>245</v>
-      </c>
-      <c r="L117" t="s">
+        <v>246</v>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>81</v>
       </c>
       <c r="B118" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C118" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
@@ -5198,24 +5537,27 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>299</v>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>81</v>
       </c>
       <c r="B119" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
@@ -5224,27 +5566,30 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>288</v>
-      </c>
-      <c r="I119" t="s">
+        <v>290</v>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>81</v>
       </c>
       <c r="B120" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -5253,24 +5598,27 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+        <v>300</v>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>81</v>
       </c>
       <c r="B121" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C121" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -5279,24 +5627,27 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+        <v>301</v>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>81</v>
       </c>
       <c r="B122" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C122" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
@@ -5305,24 +5656,27 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>302</v>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>81</v>
       </c>
       <c r="B123" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C123" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
@@ -5331,24 +5685,27 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>303</v>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>81</v>
       </c>
       <c r="B124" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C124" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
@@ -5357,24 +5714,27 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+        <v>304</v>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>81</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C125" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
@@ -5383,24 +5743,27 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+        <v>305</v>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>81</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C126" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
@@ -5409,24 +5772,27 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
+        <v>306</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>81</v>
       </c>
       <c r="B127" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C127" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
@@ -5435,24 +5801,27 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
+        <v>296</v>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>81</v>
       </c>
       <c r="B128" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C128" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -5461,24 +5830,27 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>307</v>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>81</v>
       </c>
       <c r="B129" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C129" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
@@ -5487,24 +5859,27 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>308</v>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>81</v>
       </c>
       <c r="B130" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C130" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
@@ -5513,24 +5888,27 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+        <v>309</v>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>81</v>
       </c>
       <c r="B131" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C131" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
@@ -5539,10 +5917,13 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <v>310</v>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>81</v>
       </c>
@@ -5550,13 +5931,13 @@
         <v>115</v>
       </c>
       <c r="C132" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
@@ -5567,11 +5948,14 @@
       <c r="H132" t="s">
         <v>54</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -5579,13 +5963,13 @@
         <v>116</v>
       </c>
       <c r="C133" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
@@ -5594,10 +5978,13 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+        <v>243</v>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
         <v>81</v>
       </c>
@@ -5605,13 +5992,13 @@
         <v>117</v>
       </c>
       <c r="C134" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
@@ -5620,13 +6007,16 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>243</v>
-      </c>
-      <c r="L134" t="s">
+        <v>244</v>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -5634,7 +6024,7 @@
         <v>118</v>
       </c>
       <c r="C135" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -5649,13 +6039,16 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>244</v>
-      </c>
-      <c r="L135" t="s">
+        <v>245</v>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="K135" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
         <v>81</v>
       </c>
@@ -5663,7 +6056,7 @@
         <v>119</v>
       </c>
       <c r="C136" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -5678,21 +6071,24 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>245</v>
-      </c>
-      <c r="L136" t="s">
+        <v>246</v>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="K136" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>82</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
@@ -5707,24 +6103,27 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+        <v>311</v>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>82</v>
       </c>
       <c r="B138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
@@ -5733,13 +6132,16 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>297</v>
-      </c>
-      <c r="I138" t="s">
+        <v>299</v>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
         <v>82</v>
       </c>
@@ -5747,13 +6149,13 @@
         <v>132</v>
       </c>
       <c r="C139" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
@@ -5762,27 +6164,30 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>222</v>
-      </c>
-      <c r="I139" t="s">
+        <v>223</v>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
         <v>82</v>
       </c>
       <c r="B140" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C140" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
@@ -5791,24 +6196,27 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+        <v>312</v>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
         <v>82</v>
       </c>
       <c r="B141" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C141" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
@@ -5817,24 +6225,27 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
+        <v>313</v>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
         <v>82</v>
       </c>
       <c r="B142" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C142" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -5843,24 +6254,27 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
+        <v>314</v>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
         <v>82</v>
       </c>
       <c r="B143" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C143" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
@@ -5869,24 +6283,27 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+        <v>315</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
         <v>82</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C144" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
@@ -5895,24 +6312,27 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+        <v>316</v>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>82</v>
       </c>
       <c r="B145" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C145" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
@@ -5921,24 +6341,27 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+        <v>317</v>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>82</v>
       </c>
       <c r="B146" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C146" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
@@ -5947,24 +6370,27 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
+        <v>318</v>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
         <v>82</v>
       </c>
       <c r="B147" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C147" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
@@ -5973,24 +6399,27 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+        <v>319</v>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
         <v>82</v>
       </c>
       <c r="B148" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C148" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
@@ -5999,24 +6428,27 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+        <v>320</v>
+      </c>
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
         <v>82</v>
       </c>
       <c r="B149" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C149" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
@@ -6025,10 +6457,13 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
+        <v>237</v>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>82</v>
       </c>
@@ -6036,13 +6471,13 @@
         <v>115</v>
       </c>
       <c r="C150" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
@@ -6053,11 +6488,14 @@
       <c r="H150" t="s">
         <v>54</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>82</v>
       </c>
@@ -6065,13 +6503,13 @@
         <v>116</v>
       </c>
       <c r="C151" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
@@ -6080,10 +6518,13 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+        <v>243</v>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
         <v>82</v>
       </c>
@@ -6091,13 +6532,13 @@
         <v>117</v>
       </c>
       <c r="C152" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
@@ -6106,13 +6547,16 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>243</v>
-      </c>
-      <c r="L152" t="s">
+        <v>244</v>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="K152" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>82</v>
       </c>
@@ -6120,7 +6564,7 @@
         <v>118</v>
       </c>
       <c r="C153" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
@@ -6135,13 +6579,16 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>244</v>
-      </c>
-      <c r="L153" t="s">
+        <v>245</v>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="K153" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>82</v>
       </c>
@@ -6149,7 +6596,7 @@
         <v>119</v>
       </c>
       <c r="C154" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -6164,21 +6611,24 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>245</v>
-      </c>
-      <c r="L154" t="s">
+        <v>246</v>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="K154" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>83</v>
       </c>
       <c r="B155" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C155" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -6193,18 +6643,18 @@
         <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>83</v>
       </c>
       <c r="B156" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C156" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
@@ -6219,18 +6669,18 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>83</v>
       </c>
       <c r="B157" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C157" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -6245,18 +6695,18 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>83</v>
       </c>
       <c r="B158" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C158" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
@@ -6271,18 +6721,18 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>83</v>
       </c>
       <c r="B159" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C159" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
@@ -6297,18 +6747,18 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>84</v>
       </c>
       <c r="B160" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C160" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
@@ -6323,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6331,10 +6781,10 @@
         <v>84</v>
       </c>
       <c r="B161" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C161" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
@@ -6349,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6357,10 +6807,10 @@
         <v>84</v>
       </c>
       <c r="B162" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C162" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
@@ -6375,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6383,10 +6833,10 @@
         <v>84</v>
       </c>
       <c r="B163" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C163" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
@@ -6401,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6409,10 +6859,10 @@
         <v>84</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C164" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
@@ -6427,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6435,10 +6885,10 @@
         <v>85</v>
       </c>
       <c r="B165" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C165" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
@@ -6453,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="H165" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6461,10 +6911,10 @@
         <v>85</v>
       </c>
       <c r="B166" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C166" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -6479,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6487,10 +6937,10 @@
         <v>85</v>
       </c>
       <c r="B167" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C167" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -6505,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6513,10 +6963,10 @@
         <v>85</v>
       </c>
       <c r="B168" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C168" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -6531,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6539,10 +6989,10 @@
         <v>85</v>
       </c>
       <c r="B169" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C169" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -6557,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6565,10 +7015,10 @@
         <v>86</v>
       </c>
       <c r="B170" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C170" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
@@ -6583,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6591,10 +7041,10 @@
         <v>86</v>
       </c>
       <c r="B171" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C171" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
@@ -6609,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6617,10 +7067,10 @@
         <v>86</v>
       </c>
       <c r="B172" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C172" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
@@ -6635,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6643,10 +7093,10 @@
         <v>86</v>
       </c>
       <c r="B173" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C173" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
@@ -6661,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6669,10 +7119,10 @@
         <v>86</v>
       </c>
       <c r="B174" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C174" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
@@ -6687,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6695,10 +7145,10 @@
         <v>87</v>
       </c>
       <c r="B175" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C175" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -6713,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6721,10 +7171,10 @@
         <v>87</v>
       </c>
       <c r="B176" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C176" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
@@ -6739,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6747,10 +7197,10 @@
         <v>87</v>
       </c>
       <c r="B177" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C177" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
@@ -6765,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6773,10 +7223,10 @@
         <v>87</v>
       </c>
       <c r="B178" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C178" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
@@ -6791,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6799,10 +7249,10 @@
         <v>87</v>
       </c>
       <c r="B179" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C179" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D179" t="b">
         <v>0</v>
@@ -6817,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6825,10 +7275,10 @@
         <v>88</v>
       </c>
       <c r="B180" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C180" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D180" t="b">
         <v>1</v>
@@ -6843,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6851,10 +7301,10 @@
         <v>88</v>
       </c>
       <c r="B181" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C181" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
@@ -6869,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6877,10 +7327,10 @@
         <v>88</v>
       </c>
       <c r="B182" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C182" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
@@ -6895,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6903,10 +7353,10 @@
         <v>88</v>
       </c>
       <c r="B183" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C183" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
@@ -6921,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6929,10 +7379,10 @@
         <v>88</v>
       </c>
       <c r="B184" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C184" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
@@ -6947,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6955,10 +7405,10 @@
         <v>89</v>
       </c>
       <c r="B185" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C185" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
@@ -6973,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6981,10 +7431,10 @@
         <v>89</v>
       </c>
       <c r="B186" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C186" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
@@ -6999,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7007,10 +7457,10 @@
         <v>89</v>
       </c>
       <c r="B187" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C187" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
@@ -7025,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7033,10 +7483,10 @@
         <v>89</v>
       </c>
       <c r="B188" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C188" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -7051,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7059,10 +7509,10 @@
         <v>89</v>
       </c>
       <c r="B189" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C189" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
@@ -7077,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7085,10 +7535,10 @@
         <v>90</v>
       </c>
       <c r="B190" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C190" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
@@ -7103,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7111,10 +7561,10 @@
         <v>90</v>
       </c>
       <c r="B191" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C191" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
@@ -7129,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7137,10 +7587,10 @@
         <v>90</v>
       </c>
       <c r="B192" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C192" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D192" t="b">
         <v>0</v>
@@ -7155,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7163,10 +7613,10 @@
         <v>90</v>
       </c>
       <c r="B193" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C193" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
@@ -7181,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7189,10 +7639,10 @@
         <v>90</v>
       </c>
       <c r="B194" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C194" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D194" t="b">
         <v>0</v>
@@ -7207,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7215,10 +7665,10 @@
         <v>91</v>
       </c>
       <c r="B195" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C195" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D195" t="b">
         <v>1</v>
@@ -7233,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7241,10 +7691,10 @@
         <v>91</v>
       </c>
       <c r="B196" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C196" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D196" t="b">
         <v>0</v>
@@ -7259,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7267,10 +7717,10 @@
         <v>91</v>
       </c>
       <c r="B197" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C197" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D197" t="b">
         <v>0</v>
@@ -7285,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7293,10 +7743,10 @@
         <v>91</v>
       </c>
       <c r="B198" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C198" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
@@ -7311,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7319,10 +7769,10 @@
         <v>91</v>
       </c>
       <c r="B199" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C199" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
@@ -7337,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7345,10 +7795,10 @@
         <v>92</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D200" t="b">
         <v>1</v>
@@ -7363,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7371,10 +7821,10 @@
         <v>92</v>
       </c>
       <c r="B201" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C201" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D201" t="b">
         <v>0</v>
@@ -7389,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7397,10 +7847,10 @@
         <v>92</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D202" t="b">
         <v>0</v>
@@ -7415,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7423,10 +7873,10 @@
         <v>92</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D203" t="b">
         <v>0</v>
@@ -7441,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7449,10 +7899,10 @@
         <v>92</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
@@ -7467,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7475,10 +7925,10 @@
         <v>93</v>
       </c>
       <c r="B205" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C205" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D205" t="b">
         <v>1</v>
@@ -7493,7 +7943,7 @@
         <v>1</v>
       </c>
       <c r="H205" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7501,10 +7951,10 @@
         <v>93</v>
       </c>
       <c r="B206" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C206" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D206" t="b">
         <v>0</v>
@@ -7519,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7527,10 +7977,10 @@
         <v>93</v>
       </c>
       <c r="B207" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C207" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
@@ -7545,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7553,10 +8003,10 @@
         <v>93</v>
       </c>
       <c r="B208" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C208" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
@@ -7571,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7579,10 +8029,10 @@
         <v>93</v>
       </c>
       <c r="B209" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C209" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D209" t="b">
         <v>0</v>
@@ -7597,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7605,10 +8055,10 @@
         <v>94</v>
       </c>
       <c r="B210" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C210" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D210" t="b">
         <v>1</v>
@@ -7623,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7634,7 +8084,7 @@
         <v>121</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
@@ -7649,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="H211" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7657,10 +8107,10 @@
         <v>94</v>
       </c>
       <c r="B212" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C212" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D212" t="b">
         <v>0</v>
@@ -7675,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7683,10 +8133,10 @@
         <v>94</v>
       </c>
       <c r="B213" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C213" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D213" t="b">
         <v>0</v>
@@ -7701,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7709,10 +8159,10 @@
         <v>94</v>
       </c>
       <c r="B214" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C214" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
@@ -7727,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7735,10 +8185,10 @@
         <v>94</v>
       </c>
       <c r="B215" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C215" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
@@ -7753,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7761,10 +8211,10 @@
         <v>94</v>
       </c>
       <c r="B216" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C216" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
@@ -7779,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7787,10 +8237,10 @@
         <v>94</v>
       </c>
       <c r="B217" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C217" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D217" t="b">
         <v>0</v>
@@ -7805,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -7815,7 +8265,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7826,7 +8276,7 @@
         <v>398</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>399</v>
@@ -7846,10 +8296,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2" t="s">
         <v>394</v>
@@ -7863,13 +8313,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
         <v>394</v>
@@ -7883,13 +8333,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E4" t="s">
         <v>396</v>
@@ -7900,13 +8350,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E5" t="s">
         <v>396</v>
@@ -7917,13 +8367,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E6" t="s">
         <v>396</v>
@@ -7934,13 +8384,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E7" t="s">
         <v>396</v>
@@ -7951,13 +8401,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E8" t="s">
         <v>396</v>
@@ -7968,13 +8418,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D9" t="s">
         <v>395</v>
@@ -7988,13 +8438,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E10" t="s">
         <v>396</v>
@@ -8005,13 +8455,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E11" t="s">
         <v>396</v>
@@ -8025,10 +8475,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
         <v>394</v>
@@ -8042,13 +8492,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
         <v>394</v>
@@ -8062,13 +8512,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E14" t="s">
         <v>396</v>
@@ -8079,13 +8529,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E15" t="s">
         <v>396</v>
@@ -8096,13 +8546,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E16" t="s">
         <v>396</v>
@@ -8113,13 +8563,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E17" t="s">
         <v>396</v>
@@ -8130,13 +8580,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E18" t="s">
         <v>396</v>
@@ -8147,13 +8597,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E19" t="s">
         <v>396</v>
@@ -8164,13 +8614,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E20" t="s">
         <v>396</v>
@@ -8181,13 +8631,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E21" t="s">
         <v>396</v>
@@ -8198,13 +8648,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E22" t="s">
         <v>396</v>
@@ -8215,13 +8665,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E23" t="s">
         <v>396</v>
@@ -8232,13 +8682,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E24" t="s">
         <v>396</v>
@@ -8249,18 +8699,35 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E25" t="s">
         <v>396</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8314,6 +8781,8 @@
     <hyperlink ref="F24" r:id="rId46" location="isAssociatedWith"/>
     <hyperlink ref="C25" r:id="rId47"/>
     <hyperlink ref="F25" r:id="rId48" location="isAssociatedWith"/>
+    <hyperlink ref="C26" r:id="rId49"/>
+    <hyperlink ref="F26" r:id="rId50" location="isAssociatedWith"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/emx/dist/urdm.xlsx
+++ b/emx/dist/urdm.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="419">
   <si>
     <t>urdm</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Lookups</t>
   </si>
   <si>
-    <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.0, 2021-11-11)</t>
-  </si>
-  <si>
-    <t>URDM Lookup tables (v0.9.0, 2021-11-11)</t>
+    <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.1, 2021-11-15)</t>
+  </si>
+  <si>
+    <t>URDM Lookup tables (v0.9.1, 2021-11-15)</t>
   </si>
   <si>
     <t>dcat:catalog</t>
@@ -64,6 +64,12 @@
     <t>files</t>
   </si>
   <si>
+    <t>attributeTemplateDefault</t>
+  </si>
+  <si>
+    <t>attributeTemplateCode</t>
+  </si>
+  <si>
     <t>anatomicalSource</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>country</t>
   </si>
   <si>
+    <t>genomeAccessions</t>
+  </si>
+  <si>
     <t>genotypicSex</t>
   </si>
   <si>
@@ -100,6 +109,12 @@
     <t>releases</t>
   </si>
   <si>
+    <t>sequencingMethods</t>
+  </si>
+  <si>
+    <t>studyStatus</t>
+  </si>
+  <si>
     <t>Subjects</t>
   </si>
   <si>
@@ -148,877 +163,892 @@
     <t>A set of related records (either written or electronic) kept together.</t>
   </si>
   <si>
+    <t>default attribute template ('value' is idAttribute)</t>
+  </si>
+  <si>
+    <t>code centric attribute template ('code' is idAttribute)</t>
+  </si>
+  <si>
+    <t>reference dataset defined by FAIR Genomes v1.1</t>
+  </si>
+  <si>
+    <t>An indicator that provides information on the current health status of this person.</t>
+  </si>
+  <si>
+    <t>The explanation for why a test, measurement, or assessment is executed.</t>
+  </si>
+  <si>
+    <t>Organization information standardized to the Research Organization Registry (ROR)</t>
+  </si>
+  <si>
+    <t>Human Phenotype Ontology (HPO) release v2021-08-02</t>
+  </si>
+  <si>
+    <t>The act of making data or other structured information accessible to the public or to the user group of a database.</t>
+  </si>
+  <si>
+    <t>The status of a study or trial.</t>
+  </si>
+  <si>
+    <t>ExO_0000127,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT_C63536,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT_C16735,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT_C25398,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT_C43376,dcat:dataset</t>
+  </si>
+  <si>
+    <t>OBI_0001902, dcat:dataset</t>
+  </si>
+  <si>
+    <t>topic_3168,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT_C42883,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C103264, dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C176763,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C70713,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C171105,dcat:dataset</t>
+  </si>
+  <si>
+    <t>EDAM:2340, dcat:dataset</t>
+  </si>
+  <si>
+    <t>PATO:0020000,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C166244,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C171003,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C25412,dcat:dataset</t>
+  </si>
+  <si>
+    <t>GO:0001894,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C16977,dcat:dataset</t>
+  </si>
+  <si>
+    <t>PATO:0001894,dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C172217,dcat:dataset</t>
+  </si>
+  <si>
+    <t>FIX:0000704, dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C171103, dcat:dataset</t>
+  </si>
+  <si>
+    <t>urdm_lookups_attributeTemplateDefault</t>
+  </si>
+  <si>
+    <t>urdm_lookups_attributeTemplateCode</t>
+  </si>
+  <si>
+    <t>urdm_subjects</t>
+  </si>
+  <si>
+    <t>urdm_study</t>
+  </si>
+  <si>
+    <t>urdm_consent</t>
+  </si>
+  <si>
+    <t>urdm_clinical</t>
+  </si>
+  <si>
+    <t>urdm_material</t>
+  </si>
+  <si>
+    <t>urdm_samplePreparation</t>
+  </si>
+  <si>
+    <t>urdm_sequencing</t>
+  </si>
+  <si>
+    <t>urdm_files</t>
+  </si>
+  <si>
+    <t>urdm_lookups_releases</t>
+  </si>
+  <si>
+    <t>subjectID</t>
+  </si>
+  <si>
+    <t>belongsToFamily</t>
+  </si>
+  <si>
+    <t>belongsToMother</t>
+  </si>
+  <si>
+    <t>belongsToFather</t>
+  </si>
+  <si>
+    <t>belongsWithFamilyMembers</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>yearOfBirth</t>
+  </si>
+  <si>
+    <t>dateOfDeath</t>
+  </si>
+  <si>
+    <t>ageAtDeath</t>
+  </si>
+  <si>
+    <t>countryOfBirth</t>
+  </si>
+  <si>
+    <t>countryOfResidence</t>
+  </si>
+  <si>
+    <t>primaryAffiliation</t>
+  </si>
+  <si>
+    <t>contactPerson</t>
+  </si>
+  <si>
+    <t>contactEmail</t>
+  </si>
+  <si>
+    <t>alternativeIdentifiers</t>
+  </si>
+  <si>
+    <t>firstVisitDate</t>
+  </si>
+  <si>
+    <t>belongsWithTwin</t>
+  </si>
+  <si>
+    <t>fetalStatus</t>
+  </si>
+  <si>
+    <t>consanguinity</t>
+  </si>
+  <si>
+    <t>belongsToStudy</t>
+  </si>
+  <si>
+    <t>belongsToDataRelease</t>
+  </si>
+  <si>
+    <t>recordMetadata</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>dateRecordCreated</t>
+  </si>
+  <si>
+    <t>dateRecordUpdated</t>
+  </si>
+  <si>
+    <t>studyID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>inclusionCriteria</t>
+  </si>
+  <si>
+    <t>principleInvestigator</t>
+  </si>
+  <si>
+    <t>contactInformation</t>
+  </si>
+  <si>
+    <t>studyDescription</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>completionDate</t>
+  </si>
+  <si>
+    <t>participantsEnrolled</t>
+  </si>
+  <si>
+    <t>samplesCollected</t>
+  </si>
+  <si>
+    <t>consentID</t>
+  </si>
+  <si>
+    <t>belongsToSubject</t>
+  </si>
+  <si>
+    <t>collectedBy</t>
+  </si>
+  <si>
+    <t>signingDate</t>
+  </si>
+  <si>
+    <t>validFrom</t>
+  </si>
+  <si>
+    <t>validUntil</t>
+  </si>
+  <si>
+    <t>consentWithdrawn</t>
+  </si>
+  <si>
+    <t>dataUsePermission</t>
+  </si>
+  <si>
+    <t>dataUseModifiers</t>
+  </si>
+  <si>
+    <t>dataUseSpecification</t>
+  </si>
+  <si>
+    <t>allowIncidentalFindingRecontact</t>
+  </si>
+  <si>
+    <t>allowMatchmaker</t>
+  </si>
+  <si>
+    <t>allowRecontacting</t>
+  </si>
+  <si>
+    <t>clinicalID</t>
+  </si>
+  <si>
+    <t>affectedStatus</t>
+  </si>
+  <si>
+    <t>dateOfDiagnosis</t>
+  </si>
+  <si>
+    <t>ageAtDiagnosis</t>
+  </si>
+  <si>
+    <t>ageOfOnset</t>
+  </si>
+  <si>
+    <t>observedPhenotype</t>
+  </si>
+  <si>
+    <t>unobservedPhenotype</t>
+  </si>
+  <si>
+    <t>provisionalPhenotype</t>
+  </si>
+  <si>
+    <t>clinicalDiagnosis</t>
+  </si>
+  <si>
+    <t>molecularDiagnosis</t>
+  </si>
+  <si>
+    <t>molecularDiagnosisOther</t>
+  </si>
+  <si>
+    <t>resolved</t>
+  </si>
+  <si>
+    <t>dateResolved</t>
+  </si>
+  <si>
+    <t>belongsToMaterial</t>
+  </si>
+  <si>
+    <t>materialID</t>
+  </si>
+  <si>
+    <t>belongsToRequest</t>
+  </si>
+  <si>
+    <t>samplingReason</t>
+  </si>
+  <si>
+    <t>samplingTimestamp</t>
+  </si>
+  <si>
+    <t>samplingProtocol</t>
+  </si>
+  <si>
+    <t>samplingProtocolDeviation</t>
+  </si>
+  <si>
+    <t>reasonForSamplingProtocolDeviation</t>
+  </si>
+  <si>
+    <t>biospecimenUsability</t>
+  </si>
+  <si>
+    <t>sampleID</t>
+  </si>
+  <si>
+    <t>inputAmount</t>
+  </si>
+  <si>
+    <t>libraryPreparationKit</t>
+  </si>
+  <si>
+    <t>pcrFree</t>
+  </si>
+  <si>
+    <t>targetEnrichmentKit</t>
+  </si>
+  <si>
+    <t>umIsPresent</t>
+  </si>
+  <si>
+    <t>intendedInsertSize</t>
+  </si>
+  <si>
+    <t>intendedReadLength</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>sequencingID</t>
+  </si>
+  <si>
+    <t>belongsToSample</t>
+  </si>
+  <si>
+    <t>sequencingDate</t>
+  </si>
+  <si>
+    <t>sequencingFacilityOrganization</t>
+  </si>
+  <si>
+    <t>sequencingPlatform</t>
+  </si>
+  <si>
+    <t>sequencingInstrumentModel</t>
+  </si>
+  <si>
+    <t>sequencingMethod</t>
+  </si>
+  <si>
+    <t>averageReadDepth</t>
+  </si>
+  <si>
+    <t>observedReadLength</t>
+  </si>
+  <si>
+    <t>observedInsertSize</t>
+  </si>
+  <si>
+    <t>percentageQ30</t>
+  </si>
+  <si>
+    <t>percentageTR20</t>
+  </si>
+  <si>
+    <t>otherQualityMetrics</t>
+  </si>
+  <si>
+    <t>referenceGenomeUsed</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>belongsToSequencing</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>dateCreated</t>
+  </si>
+  <si>
+    <t>md5</t>
+  </si>
+  <si>
+    <t>uploaded</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>alternativeFileId</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>codesystem</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>iri</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>createdBy</t>
+  </si>
+  <si>
+    <t>numberOfEntriesAdded</t>
+  </si>
+  <si>
+    <t>dataSource</t>
+  </si>
+  <si>
+    <t>releaseComments</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>xref</t>
+  </si>
+  <si>
+    <t>mref</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
+  </si>
+  <si>
+    <t>An individual who is the subject of personal data, persons to whom data refers, and from whom data are collected, processed, and stored.</t>
+  </si>
+  <si>
+    <t>A domestic group, or a number of domestic groups linked through descent (demonstrated or stipulated) from a common ancestor, marriage, or adoption.</t>
+  </si>
+  <si>
+    <t>A designation that has some relationship to motherhood.</t>
+  </si>
+  <si>
+    <t>Having to do with the father, coming from the father, or related through the father.</t>
+  </si>
+  <si>
+    <t>Any individual related biologically or legally to another individual.</t>
+  </si>
+  <si>
+    <t>The calendar date on which a person was born.</t>
+  </si>
+  <si>
+    <t>The year in which a person was born.</t>
+  </si>
+  <si>
+    <t>The calendar date of subject's death.</t>
+  </si>
+  <si>
+    <t>The age at which death occurred.</t>
+  </si>
+  <si>
+    <t>An organismal quality inhering in a bearer by virtue of the bearer's physical expression of sexual characteristics.</t>
+  </si>
+  <si>
+    <t>A biological sex quality inhering in an individual based upon genotypic composition of sex chromosomes.</t>
+  </si>
+  <si>
+    <t>The country that this person was born in.</t>
+  </si>
+  <si>
+    <t>Country of residence at enrollment.</t>
+  </si>
+  <si>
+    <t>Population category defined using ancestry informative markers (AIMs) based on genetic/genomic data.</t>
+  </si>
+  <si>
+    <t>The most significant institute for medical consultation and/or study inclusion in context of the genetic disease of this person.</t>
+  </si>
+  <si>
+    <t>A person acting as a channel for communication between groups or on behalf of a group.</t>
+  </si>
+  <si>
+    <t>Email address of the contact person or organization</t>
+  </si>
+  <si>
+    <t>A backup sequence of characters used to identify an entity.</t>
+  </si>
+  <si>
+    <t>The date for the first patient visit.</t>
+  </si>
+  <si>
+    <t>Either of two offspring born from the same pregnancy.</t>
+  </si>
+  <si>
+    <t>Any tissue from a fetus.</t>
+  </si>
+  <si>
+    <t>Genetic relatedness between individuals who are descendants of at least one common ancestor.</t>
+  </si>
+  <si>
+    <t>Reference to the study or studies in which this person participates.</t>
+  </si>
+  <si>
+    <t>metadata is data that provides information about data.</t>
+  </si>
+  <si>
+    <t>A written explanation, observation or criticism added to textual material.</t>
+  </si>
+  <si>
+    <t>The date on which the activity or entity is created.</t>
+  </si>
+  <si>
+    <t>The date (and time) on which report was updated after it had been submitted.</t>
+  </si>
+  <si>
+    <t>A unique proper name or character sequence that identifies this particular study.</t>
+  </si>
+  <si>
+    <t>A name that designates this study.</t>
+  </si>
+  <si>
+    <t>The conditions which, if met, make an person eligible for participation in this study.</t>
+  </si>
+  <si>
+    <t>The principle investigator or responsible person for this study.</t>
+  </si>
+  <si>
+    <t>An email address for the purpose of contacting the study contact person.</t>
+  </si>
+  <si>
+    <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of this study.</t>
+  </si>
+  <si>
+    <t>The date on which this study began.</t>
+  </si>
+  <si>
+    <t>The date on which the concluding information for this study is completed. Usually, this is when the last subject has a final visit, or the main analysis has finished, or any other protocol-defined completion date.</t>
+  </si>
+  <si>
+    <t>An integer specifying the quantity of study subjects enrolled in the study at the current time.</t>
+  </si>
+  <si>
+    <t>An integer specifying the quantity of samples collected at the current time.</t>
+  </si>
+  <si>
+    <t>A unique proper name or character sequence that identifies this particular signed individual consent.</t>
+  </si>
+  <si>
+    <t>Indicates the person, group, or institution who performed the collection act.</t>
+  </si>
+  <si>
+    <t>A date specification that designates when this individual consent form was signed.</t>
+  </si>
+  <si>
+    <t>Starting date of the validity of this individual consent.</t>
+  </si>
+  <si>
+    <t>End date of the validity of this individual consent.</t>
+  </si>
+  <si>
+    <t>An indication that the consent to participate in the study or one or more segments of the study has been revoked.</t>
+  </si>
+  <si>
+    <t>A data item that is used to indicate consent permissions for datasets and/or materials, and relates to the purposes for which datasets and/or material might be used.</t>
+  </si>
+  <si>
+    <t>Data use modifiers indicate additional conditions for use. For instance, a dataset is restricted to investigations into specific diseases or performed at specific geographical locations.</t>
+  </si>
+  <si>
+    <t>Further specification of applied data use permissions and modifiers. For example, a list of countries in case of geographic restrictions or a list of diseases when restricted to disease-specific research.</t>
+  </si>
+  <si>
+    <t>A planned process for a subject agrees not to be informed about any incidental finding.</t>
+  </si>
+  <si>
+    <t>Permission is given for MatchMaking</t>
+  </si>
+  <si>
+    <t>The procedure of recontacting the patient for specified reasons. This means the patient agrees to be re-identifiable under those circumstances.</t>
+  </si>
+  <si>
+    <t>A unique proper name or character sequence that identifies this particular clinical examination.</t>
+  </si>
+  <si>
+    <t>Individuals in a pedigree who exhibit the specific phenotype under study.</t>
+  </si>
+  <si>
+    <t>The date on which a diagnosis of disease was made.</t>
+  </si>
+  <si>
+    <t>The age (in years), measured from some defined time point (e.g. birth) at which a patient is diagnosed with a disease.</t>
+  </si>
+  <si>
+    <t>Age (in years) of onset of clinical manifestations related to the disease of the patient.</t>
+  </si>
+  <si>
+    <t>The outward appearance of the individual. In medical context, these are often the symptoms caused by a disease.</t>
+  </si>
+  <si>
+    <t>Phenotypes or symptoms that were looked for but not observed, which may help in differential diagnosis or establish incomplete penetrance.</t>
+  </si>
+  <si>
+    <t>The test or procedure was successfully performed, but the results are borderline and can neither be declared positive / negative nor detected / not detected according to the current established criteria.</t>
+  </si>
+  <si>
+    <t>A diagnosis made from a study of the signs and symptoms of a disease.</t>
+  </si>
+  <si>
+    <t>Gene affected by pathogenic variation that is causal for disease of the patient.</t>
+  </si>
+  <si>
+    <t>Causal variant in HGVS notation with optional classification or free text explaining any other molecular mechanisms involved.</t>
+  </si>
+  <si>
+    <t>The satisfactory closure of a data item query.</t>
+  </si>
+  <si>
+    <t>The date (and time) when the adverse event ends or returns to baseline.</t>
+  </si>
+  <si>
+    <t>A unique proper name or character sequence that identifies this particular material.</t>
+  </si>
+  <si>
+    <t>A sequence of letters, numbers, or other characters that specifically identifies a particular order.</t>
+  </si>
+  <si>
+    <t>Date and time at which this material was collected.</t>
+  </si>
+  <si>
+    <t>The procedure whereby this material was sampled for an analysis.</t>
+  </si>
+  <si>
+    <t>A variation from processes or procedures defined in the sampling protocol. Deviations usually do not preclude the overall evaluability of subject data for either efficacy or safety, and are often acknowledged and accepted in advance by the sponsor.</t>
+  </si>
+  <si>
+    <t>The rationale for why a deviation from the sampling protocol has occurred.</t>
+  </si>
+  <si>
+    <t>The type of material taken from a biological entity for testing, diagnostic, propagation, treatment or research purposes.</t>
+  </si>
+  <si>
     <t>Biological entity that constitutes the structural organization of an individual member of a biological species from which this material was taken.</t>
   </si>
   <si>
-    <t>Population category defined using ancestry informative markers (AIMs) based on genetic/genomic data.</t>
-  </si>
-  <si>
-    <t>The type of material taken from a biological entity for testing, diagnostic, propagation, treatment or research purposes.</t>
-  </si>
-  <si>
-    <t>A collective generic term that refers here to a wide variety of dependencies, areas of special sovereignty, uninhabited islands, and other entities in addition to the traditional countries or independent states.</t>
-  </si>
-  <si>
-    <t>A biological sex quality inhering in an individual based upon genotypic composition of sex chromosomes.</t>
-  </si>
-  <si>
-    <t>An indicator that provides information on the current health status of this person.</t>
-  </si>
-  <si>
-    <t>The explanation for why a test, measurement, or assessment is executed.</t>
-  </si>
-  <si>
-    <t>Organization information</t>
-  </si>
-  <si>
     <t>The pathological state of the tissue from which this material was derived.</t>
   </si>
   <si>
-    <t>Human Phenotype Ontology (HPO) release v2021-08-02</t>
-  </si>
-  <si>
-    <t>An organismal quality inhering in a bearer by virtue of the bearer's physical expression of sexual characteristics.</t>
-  </si>
-  <si>
-    <t>The act of making data or other structured information accessible to the public or to the user group of a database.</t>
-  </si>
-  <si>
-    <t>ExO_0000127,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT_C63536,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT_C16735,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT_C25398,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT_C43376,dcat:dataset</t>
-  </si>
-  <si>
-    <t>OBI_0001902, dcat:dataset</t>
-  </si>
-  <si>
-    <t>topic_3168,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT_C42883,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C103264, dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C176763,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C70713,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C171105,dcat:dataset</t>
-  </si>
-  <si>
-    <t>PATO:0020000,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C166244,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C171003,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C25412,dcat:dataset</t>
-  </si>
-  <si>
-    <t>GO:0001894,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C16977,dcat:dataset</t>
-  </si>
-  <si>
-    <t>PATO:0001894,dcat:dataset</t>
-  </si>
-  <si>
-    <t>NCIT:C172217,dcat:dataset</t>
-  </si>
-  <si>
-    <t>urdm_subjects</t>
-  </si>
-  <si>
-    <t>urdm_study</t>
-  </si>
-  <si>
-    <t>urdm_consent</t>
-  </si>
-  <si>
-    <t>urdm_clinical</t>
-  </si>
-  <si>
-    <t>urdm_material</t>
-  </si>
-  <si>
-    <t>urdm_samplePreparation</t>
-  </si>
-  <si>
-    <t>urdm_sequencing</t>
-  </si>
-  <si>
-    <t>urdm_files</t>
+    <t>An indication as to whether a biospecimen is suitable for testing purposes.</t>
+  </si>
+  <si>
+    <t>A unique proper name or character sequence that identifies this particular sample preparation.</t>
+  </si>
+  <si>
+    <t>Amount of input material in nanogram (ng).</t>
+  </si>
+  <si>
+    <t>Pre-filled, ready-to-use reagent cartridges intented to improve chemistry, cluster density and read length as well as improve quality (Q) scores for this sample. Reagent components are encoded to interact with the sequencing system to validate compatibility with user-defined applications.</t>
+  </si>
+  <si>
+    <t>Indicates whether a polymerase chain reaction (PCR) was used to prepare this sample. PCR is a method for amplifying a DNA base sequence using multiple rounds of heat denaturation of the DNA and annealing of oligonucleotide primers complementary to flanking regions in the presence of a heat-stable polymerase.</t>
+  </si>
+  <si>
+    <t>Indicates which target enrichment kit was used to prepare this sample. Target enrichment is a pre-sequencing DNA preparation step where DNA sequences are either directly amplified (amplicon or multiplex PCR-based) or captured (hybrid capture-based) in order to only focus on specific regions of a genome or DNA sample.</t>
+  </si>
+  <si>
+    <t>Indicates whether any unique molecular identifiers (UMIs) are present. An UMI barcode is a short nucleotide sequence that is used to identify reads originating from an individual mRNA molecule.</t>
+  </si>
+  <si>
+    <t>In paired-end sequencing, the DNA between the adapter sequences is the insert. The length of this sequence is known as the insert size, not to be confused with the inner distance between reads. So, fragment length equals read adapter length (2x) plus insert size, and insert size equals read lenght (2x) plus inner distance.</t>
+  </si>
+  <si>
+    <t>The number of nucleotides intended to be ordered from each side of a nucleic acid fragment obtained after the completion of a sequencing process.</t>
+  </si>
+  <si>
+    <t>A machine-readable representation of information in a visual format on a surface.</t>
+  </si>
+  <si>
+    <t>A unique proper name or character sequence that identifies this particular nucleic acid sequencing assay.</t>
+  </si>
+  <si>
+    <t>Date on which this sequencing assay was performed.</t>
+  </si>
+  <si>
+    <t>An organization that provides sequence determination service</t>
+  </si>
+  <si>
+    <t>The used sequencing platform (i.e. brand, name of a company that produces sequencer equipment).</t>
+  </si>
+  <si>
+    <t>The used product name and model number of a manufacturer's genomic (dna) sequencer.</t>
+  </si>
+  <si>
+    <t>Method used to determine the order of bases in a nucleic acid sequence.</t>
+  </si>
+  <si>
+    <t>The average number of times a particular locus (site, nucleotide, amplicon, region) was sequenced.</t>
+  </si>
+  <si>
+    <t>The number of nucleotides successfully ordered from each side of a nucleic acid fragment obtained after the completion of a sequencing process.</t>
+  </si>
+  <si>
+    <t>Percentage of reads with a Phred quality score over 30, which indicates less than a 1/1000 chance that the base was called incorrectly.</t>
+  </si>
+  <si>
+    <t>Percentage of the target sequence on which 20 or more unique reads were successfully mapped.</t>
+  </si>
+  <si>
+    <t>Other NGS quality control metrics, including but not limited to (i) sequencer metrics such as yield, error rate, density (K/mm2), cluster PF (%) and phas/prephas (%), (ii) alignment metrics such as QM insert size, GC content, QM duplicated reads (%), QM error rate, uniformity/evenness of coverage and maternal cell contamination, and (iii) variant call metrics such as number of SNVs/CNVs/SVs called, number of missense/nonsense variants, common variants (%), unique variants (%), gender match and trio inheritance check.</t>
+  </si>
+  <si>
+    <t>The specific build of the human genome used as reference for sequence alignment and variant calling.</t>
+  </si>
+  <si>
+    <t>The literal identifier for an electronic file.</t>
+  </si>
+  <si>
+    <t>A computer which provides some service for other computers connected to it via a network.</t>
+  </si>
+  <si>
+    <t>The specification of a node (file or directory) in a hierarchical file system, usually specified by listing the nodes top-down.</t>
+  </si>
+  <si>
+    <t>The format of an electronic file.</t>
+  </si>
+  <si>
+    <t>The size of an electronic file in bytes.</t>
+  </si>
+  <si>
+    <t>The date a digital resource was created.</t>
+  </si>
+  <si>
+    <t>A 32-character hexadecimal number that is computed on a file.</t>
+  </si>
+  <si>
+    <t>An indication that a submitted file has successfully been uploaded to a data repository.</t>
+  </si>
+  <si>
+    <t>An indication that a file has been released to the users of a database or data repository.</t>
+  </si>
+  <si>
+    <t>An indication that a file has invalid data or is in an invalid format and cannot be submitted to a data repository.</t>
+  </si>
+  <si>
+    <t>The information contained in a data field. It may represent a numeric quantity, a textual characterization, a date or time measurement, or some other state, depending on the nature of the attribute.</t>
+  </si>
+  <si>
+    <t>A written or verbal account, representation, statement, or explanation of something</t>
+  </si>
+  <si>
+    <t>A systematized collection of concepts that define corresponding codes.</t>
+  </si>
+  <si>
+    <t>A symbol or combination of symbols which is assigned to the members of a collection.</t>
+  </si>
+  <si>
+    <t>A unique symbol that establishes identity of the resource.</t>
+  </si>
+  <si>
+    <t>One or more characters used to identify, name, or characterize the nature, properties, or contents of a thing.</t>
+  </si>
+  <si>
+    <t>The words or language units by which a thing is known.</t>
+  </si>
+  <si>
+    <t>A written or verbal account, representation, statement, or explanation of something.</t>
+  </si>
+  <si>
+    <t>A date of database submission refers to the moment in time in which some information was submitted/received to a database system.</t>
+  </si>
+  <si>
+    <t>Indicates the person or authoritative body who brought the item into existence.</t>
+  </si>
+  <si>
+    <t>Determining the number or amount of something (NCIT). A database entry is a single, implicitly structured data item in a table. (SIO)</t>
+  </si>
+  <si>
+    <t>The person or authoritative body who provided the information.</t>
+  </si>
+  <si>
+    <t>A notation regarding the decisions, and/or clarification of any information pertaining to data management.</t>
+  </si>
+  <si>
+    <t>urdm_lookups_phenotypicSex</t>
+  </si>
+  <si>
+    <t>urdm_lookups_genotypicSex</t>
+  </si>
+  <si>
+    <t>urdm_lookups_country</t>
+  </si>
+  <si>
+    <t>urdm_lookups_ancestry</t>
+  </si>
+  <si>
+    <t>urdm_lookups_organization</t>
+  </si>
+  <si>
+    <t>urdm_lookups_studyStatus</t>
+  </si>
+  <si>
+    <t>urdm_lookups_labIndication</t>
+  </si>
+  <si>
+    <t>urdm_lookups_biospecimenType</t>
   </si>
   <si>
     <t>urdm_lookups_anatomicalSource</t>
   </si>
   <si>
-    <t>urdm_lookups_ancestry</t>
-  </si>
-  <si>
-    <t>urdm_lookups_biospecimenType</t>
-  </si>
-  <si>
-    <t>urdm_lookups_country</t>
-  </si>
-  <si>
-    <t>urdm_lookups_genotypicSex</t>
-  </si>
-  <si>
-    <t>urdm_lookups_inclusionStatus</t>
-  </si>
-  <si>
-    <t>urdm_lookups_labIndication</t>
-  </si>
-  <si>
-    <t>urdm_lookups_organization</t>
-  </si>
-  <si>
     <t>urdm_lookups_pathologicalState</t>
   </si>
   <si>
-    <t>urdm_lookups_phenotype</t>
-  </si>
-  <si>
-    <t>urdm_lookups_phenotypicSex</t>
-  </si>
-  <si>
-    <t>urdm_lookups_releases</t>
-  </si>
-  <si>
-    <t>subjectID</t>
-  </si>
-  <si>
-    <t>belongsToFamily</t>
-  </si>
-  <si>
-    <t>belongsToMother</t>
-  </si>
-  <si>
-    <t>belongsToFather</t>
-  </si>
-  <si>
-    <t>belongsWithFamilyMembers</t>
-  </si>
-  <si>
-    <t>dateOfBirth</t>
-  </si>
-  <si>
-    <t>yearOfBirth</t>
-  </si>
-  <si>
-    <t>dateOfDeath</t>
-  </si>
-  <si>
-    <t>ageAtDeath</t>
-  </si>
-  <si>
-    <t>countryOfBirth</t>
-  </si>
-  <si>
-    <t>countryOfResidence</t>
-  </si>
-  <si>
-    <t>primaryAffiliation</t>
-  </si>
-  <si>
-    <t>contactPerson</t>
-  </si>
-  <si>
-    <t>contactEmail</t>
-  </si>
-  <si>
-    <t>alternativeIdentifiers</t>
-  </si>
-  <si>
-    <t>firstVisitDate</t>
-  </si>
-  <si>
-    <t>belongsWithTwin</t>
-  </si>
-  <si>
-    <t>fetalStatus</t>
-  </si>
-  <si>
-    <t>consanguinity</t>
-  </si>
-  <si>
-    <t>belongsToStudy</t>
-  </si>
-  <si>
-    <t>belongsToDataRelease</t>
-  </si>
-  <si>
-    <t>recordMetadata</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>dateRecordCreated</t>
-  </si>
-  <si>
-    <t>dateRecordUpdated</t>
-  </si>
-  <si>
-    <t>studyID</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>inclusionCriteria</t>
-  </si>
-  <si>
-    <t>principleInvestigator</t>
-  </si>
-  <si>
-    <t>contactInformation</t>
-  </si>
-  <si>
-    <t>studyDescription</t>
-  </si>
-  <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>completionDate</t>
-  </si>
-  <si>
-    <t>studyStatus</t>
-  </si>
-  <si>
-    <t>participantsEnrolled</t>
-  </si>
-  <si>
-    <t>samplesCollected</t>
-  </si>
-  <si>
-    <t>consentID</t>
-  </si>
-  <si>
-    <t>belongsToSubject</t>
-  </si>
-  <si>
-    <t>collectedBy</t>
-  </si>
-  <si>
-    <t>signingDate</t>
-  </si>
-  <si>
-    <t>validFrom</t>
-  </si>
-  <si>
-    <t>validUntil</t>
-  </si>
-  <si>
-    <t>consentWithdrawn</t>
-  </si>
-  <si>
-    <t>dataUsePermission</t>
-  </si>
-  <si>
-    <t>dataUseModifiers</t>
-  </si>
-  <si>
-    <t>dataUseSpecification</t>
-  </si>
-  <si>
-    <t>allowIncidentalFindingRecontact</t>
-  </si>
-  <si>
-    <t>allowMatchmaker</t>
-  </si>
-  <si>
-    <t>allowRecontacting</t>
-  </si>
-  <si>
-    <t>clinicalID</t>
-  </si>
-  <si>
-    <t>affectedStatus</t>
-  </si>
-  <si>
-    <t>dateOfDiagnosis</t>
-  </si>
-  <si>
-    <t>ageAtDiagnosis</t>
-  </si>
-  <si>
-    <t>ageOfOnset</t>
-  </si>
-  <si>
-    <t>observedPhenotype</t>
-  </si>
-  <si>
-    <t>unobservedPhenotype</t>
-  </si>
-  <si>
-    <t>provisionalPhenotype</t>
-  </si>
-  <si>
-    <t>clinicalDiagnosis</t>
-  </si>
-  <si>
-    <t>molecularDiagnosis</t>
-  </si>
-  <si>
-    <t>molecularDiagnosisOther</t>
-  </si>
-  <si>
-    <t>resolved</t>
-  </si>
-  <si>
-    <t>dateResolved</t>
-  </si>
-  <si>
-    <t>belongsToMaterial</t>
-  </si>
-  <si>
-    <t>materialID</t>
-  </si>
-  <si>
-    <t>belongsToRequest</t>
-  </si>
-  <si>
-    <t>samplingReason</t>
-  </si>
-  <si>
-    <t>samplingTimestamp</t>
-  </si>
-  <si>
-    <t>samplingProtocol</t>
-  </si>
-  <si>
-    <t>samplingProtocolDeviation</t>
-  </si>
-  <si>
-    <t>reasonForSamplingProtocolDeviation</t>
-  </si>
-  <si>
-    <t>biospecimenUsability</t>
-  </si>
-  <si>
-    <t>sampleID</t>
-  </si>
-  <si>
-    <t>inputAmount</t>
-  </si>
-  <si>
-    <t>libraryPreparationKit</t>
-  </si>
-  <si>
-    <t>pcrFree</t>
-  </si>
-  <si>
-    <t>targetEnrichmentKit</t>
-  </si>
-  <si>
-    <t>umIsPresent</t>
-  </si>
-  <si>
-    <t>intendedInsertSize</t>
-  </si>
-  <si>
-    <t>intendedReadLength</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>sequencingID</t>
-  </si>
-  <si>
-    <t>belongsToSample</t>
-  </si>
-  <si>
-    <t>sequencingDate</t>
-  </si>
-  <si>
-    <t>sequencingFacilityOrganization</t>
-  </si>
-  <si>
-    <t>sequencingPlatform</t>
-  </si>
-  <si>
-    <t>sequencingInstrumentModel</t>
-  </si>
-  <si>
-    <t>sequencingMethod</t>
-  </si>
-  <si>
-    <t>averageReadDepth</t>
-  </si>
-  <si>
-    <t>observedReadLength</t>
-  </si>
-  <si>
-    <t>observedInsertSize</t>
-  </si>
-  <si>
-    <t>percentageQ30</t>
-  </si>
-  <si>
-    <t>percentageTR20</t>
-  </si>
-  <si>
-    <t>otherQualityMetrics</t>
-  </si>
-  <si>
-    <t>referenceGenomeUsed</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>belongsToSequencing</t>
-  </si>
-  <si>
-    <t>server</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>dateCreated</t>
-  </si>
-  <si>
-    <t>md5</t>
-  </si>
-  <si>
-    <t>uploaded</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>alternativeFileId</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>codesystem</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>iri</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>createdBy</t>
-  </si>
-  <si>
-    <t>numberOfEntriesAdded</t>
-  </si>
-  <si>
-    <t>dataSource</t>
-  </si>
-  <si>
-    <t>releaseComments</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>xref</t>
-  </si>
-  <si>
-    <t>mref</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>compound</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>hyperlink</t>
-  </si>
-  <si>
-    <t>An individual who is the subject of personal data, persons to whom data refers, and from whom data are collected, processed, and stored.</t>
-  </si>
-  <si>
-    <t>A domestic group, or a number of domestic groups linked through descent (demonstrated or stipulated) from a common ancestor, marriage, or adoption.</t>
-  </si>
-  <si>
-    <t>A designation that has some relationship to motherhood.</t>
-  </si>
-  <si>
-    <t>Having to do with the father, coming from the father, or related through the father.</t>
-  </si>
-  <si>
-    <t>Any individual related biologically or legally to another individual.</t>
-  </si>
-  <si>
-    <t>The calendar date on which a person was born.</t>
-  </si>
-  <si>
-    <t>The year in which a person was born.</t>
-  </si>
-  <si>
-    <t>The calendar date of subject's death.</t>
-  </si>
-  <si>
-    <t>The age at which death occurred.</t>
-  </si>
-  <si>
-    <t>The country that this person was born in.</t>
-  </si>
-  <si>
-    <t>Country of residence at enrollment.</t>
-  </si>
-  <si>
-    <t>The most significant institute for medical consultation and/or study inclusion in context of the genetic disease of this person.</t>
-  </si>
-  <si>
-    <t>A person acting as a channel for communication between groups or on behalf of a group.</t>
-  </si>
-  <si>
-    <t>Email address of the contact person or organization</t>
-  </si>
-  <si>
-    <t>A backup sequence of characters used to identify an entity.</t>
-  </si>
-  <si>
-    <t>The date for the first patient visit.</t>
-  </si>
-  <si>
-    <t>Either of two offspring born from the same pregnancy.</t>
-  </si>
-  <si>
-    <t>Any tissue from a fetus.</t>
-  </si>
-  <si>
-    <t>Genetic relatedness between individuals who are descendants of at least one common ancestor.</t>
-  </si>
-  <si>
-    <t>Reference to the study or studies in which this person participates.</t>
-  </si>
-  <si>
-    <t>metadata is data that provides information about data.</t>
-  </si>
-  <si>
-    <t>A written explanation, observation or criticism added to textual material.</t>
-  </si>
-  <si>
-    <t>The date on which the activity or entity is created.</t>
-  </si>
-  <si>
-    <t>The date (and time) on which report was updated after it had been submitted.</t>
-  </si>
-  <si>
-    <t>A unique proper name or character sequence that identifies this particular study.</t>
-  </si>
-  <si>
-    <t>A name that designates this study.</t>
-  </si>
-  <si>
-    <t>The conditions which, if met, make an person eligible for participation in this study.</t>
-  </si>
-  <si>
-    <t>The principle investigator or responsible person for this study.</t>
-  </si>
-  <si>
-    <t>An email address for the purpose of contacting the study contact person.</t>
-  </si>
-  <si>
-    <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of this study.</t>
-  </si>
-  <si>
-    <t>The date on which this study began.</t>
-  </si>
-  <si>
-    <t>The date on which the concluding information for this study is completed. Usually, this is when the last subject has a final visit, or the main analysis has finished, or any other protocol-defined completion date.</t>
-  </si>
-  <si>
-    <t>The status of a study or trial.</t>
-  </si>
-  <si>
-    <t>An integer specifying the quantity of study subjects enrolled in the study at the current time.</t>
-  </si>
-  <si>
-    <t>An integer specifying the quantity of samples collected at the current time.</t>
-  </si>
-  <si>
-    <t>A unique proper name or character sequence that identifies this particular signed individual consent.</t>
-  </si>
-  <si>
-    <t>Indicates the person, group, or institution who performed the collection act.</t>
-  </si>
-  <si>
-    <t>A date specification that designates when this individual consent form was signed.</t>
-  </si>
-  <si>
-    <t>Starting date of the validity of this individual consent.</t>
-  </si>
-  <si>
-    <t>End date of the validity of this individual consent.</t>
-  </si>
-  <si>
-    <t>An indication that the consent to participate in the study or one or more segments of the study has been revoked.</t>
-  </si>
-  <si>
-    <t>A data item that is used to indicate consent permissions for datasets and/or materials, and relates to the purposes for which datasets and/or material might be used.</t>
-  </si>
-  <si>
-    <t>Data use modifiers indicate additional conditions for use. For instance, a dataset is restricted to investigations into specific diseases or performed at specific geographical locations.</t>
-  </si>
-  <si>
-    <t>Further specification of applied data use permissions and modifiers. For example, a list of countries in case of geographic restrictions or a list of diseases when restricted to disease-specific research.</t>
-  </si>
-  <si>
-    <t>A planned process for a subject agrees not to be informed about any incidental finding.</t>
-  </si>
-  <si>
-    <t>Permission is given for MatchMaking</t>
-  </si>
-  <si>
-    <t>The procedure of recontacting the patient for specified reasons. This means the patient agrees to be re-identifiable under those circumstances.</t>
-  </si>
-  <si>
-    <t>A unique proper name or character sequence that identifies this particular clinical examination.</t>
-  </si>
-  <si>
-    <t>Individuals in a pedigree who exhibit the specific phenotype under study.</t>
-  </si>
-  <si>
-    <t>The date on which a diagnosis of disease was made.</t>
-  </si>
-  <si>
-    <t>The age (in years), measured from some defined time point (e.g. birth) at which a patient is diagnosed with a disease.</t>
-  </si>
-  <si>
-    <t>Age (in years) of onset of clinical manifestations related to the disease of the patient.</t>
-  </si>
-  <si>
-    <t>The outward appearance of the individual. In medical context, these are often the symptoms caused by a disease.</t>
-  </si>
-  <si>
-    <t>Phenotypes or symptoms that were looked for but not observed, which may help in differential diagnosis or establish incomplete penetrance.</t>
-  </si>
-  <si>
-    <t>The test or procedure was successfully performed, but the results are borderline and can neither be declared positive / negative nor detected / not detected according to the current established criteria.</t>
-  </si>
-  <si>
-    <t>A diagnosis made from a study of the signs and symptoms of a disease.</t>
-  </si>
-  <si>
-    <t>Gene affected by pathogenic variation that is causal for disease of the patient.</t>
-  </si>
-  <si>
-    <t>Causal variant in HGVS notation with optional classification or free text explaining any other molecular mechanisms involved.</t>
-  </si>
-  <si>
-    <t>The satisfactory closure of a data item query.</t>
-  </si>
-  <si>
-    <t>The date (and time) when the adverse event ends or returns to baseline.</t>
-  </si>
-  <si>
-    <t>A unique proper name or character sequence that identifies this particular material.</t>
-  </si>
-  <si>
-    <t>A sequence of letters, numbers, or other characters that specifically identifies a particular order.</t>
-  </si>
-  <si>
-    <t>Date and time at which this material was collected.</t>
-  </si>
-  <si>
-    <t>The procedure whereby this material was sampled for an analysis.</t>
-  </si>
-  <si>
-    <t>A variation from processes or procedures defined in the sampling protocol. Deviations usually do not preclude the overall evaluability of subject data for either efficacy or safety, and are often acknowledged and accepted in advance by the sponsor.</t>
-  </si>
-  <si>
-    <t>The rationale for why a deviation from the sampling protocol has occurred.</t>
-  </si>
-  <si>
-    <t>An indication as to whether a biospecimen is suitable for testing purposes.</t>
-  </si>
-  <si>
-    <t>A unique proper name or character sequence that identifies this particular sample preparation.</t>
-  </si>
-  <si>
-    <t>Amount of input material in nanogram (ng).</t>
-  </si>
-  <si>
-    <t>Pre-filled, ready-to-use reagent cartridges intented to improve chemistry, cluster density and read length as well as improve quality (Q) scores for this sample. Reagent components are encoded to interact with the sequencing system to validate compatibility with user-defined applications.</t>
-  </si>
-  <si>
-    <t>Indicates whether a polymerase chain reaction (PCR) was used to prepare this sample. PCR is a method for amplifying a DNA base sequence using multiple rounds of heat denaturation of the DNA and annealing of oligonucleotide primers complementary to flanking regions in the presence of a heat-stable polymerase.</t>
-  </si>
-  <si>
-    <t>Indicates which target enrichment kit was used to prepare this sample. Target enrichment is a pre-sequencing DNA preparation step where DNA sequences are either directly amplified (amplicon or multiplex PCR-based) or captured (hybrid capture-based) in order to only focus on specific regions of a genome or DNA sample.</t>
-  </si>
-  <si>
-    <t>Indicates whether any unique molecular identifiers (UMIs) are present. An UMI barcode is a short nucleotide sequence that is used to identify reads originating from an individual mRNA molecule.</t>
-  </si>
-  <si>
-    <t>In paired-end sequencing, the DNA between the adapter sequences is the insert. The length of this sequence is known as the insert size, not to be confused with the inner distance between reads. So, fragment length equals read adapter length (2x) plus insert size, and insert size equals read lenght (2x) plus inner distance.</t>
-  </si>
-  <si>
-    <t>The number of nucleotides intended to be ordered from each side of a nucleic acid fragment obtained after the completion of a sequencing process.</t>
-  </si>
-  <si>
-    <t>A machine-readable representation of information in a visual format on a surface.</t>
-  </si>
-  <si>
-    <t>A unique proper name or character sequence that identifies this particular nucleic acid sequencing assay.</t>
-  </si>
-  <si>
-    <t>Date on which this sequencing assay was performed.</t>
-  </si>
-  <si>
-    <t>An organization that provides sequence determination service</t>
-  </si>
-  <si>
-    <t>The used sequencing platform (i.e. brand, name of a company that produces sequencer equipment).</t>
-  </si>
-  <si>
-    <t>The used product name and model number of a manufacturer's genomic (dna) sequencer.</t>
-  </si>
-  <si>
-    <t>Method used to determine the order of bases in a nucleic acid sequence.</t>
-  </si>
-  <si>
-    <t>The average number of times a particular locus (site, nucleotide, amplicon, region) was sequenced.</t>
-  </si>
-  <si>
-    <t>The number of nucleotides successfully ordered from each side of a nucleic acid fragment obtained after the completion of a sequencing process.</t>
-  </si>
-  <si>
-    <t>Percentage of reads with a Phred quality score over 30, which indicates less than a 1/1000 chance that the base was called incorrectly.</t>
-  </si>
-  <si>
-    <t>Percentage of the target sequence on which 20 or more unique reads were successfully mapped.</t>
-  </si>
-  <si>
-    <t>Other NGS quality control metrics, including but not limited to (i) sequencer metrics such as yield, error rate, density (K/mm2), cluster PF (%) and phas/prephas (%), (ii) alignment metrics such as QM insert size, GC content, QM duplicated reads (%), QM error rate, uniformity/evenness of coverage and maternal cell contamination, and (iii) variant call metrics such as number of SNVs/CNVs/SVs called, number of missense/nonsense variants, common variants (%), unique variants (%), gender match and trio inheritance check.</t>
-  </si>
-  <si>
-    <t>The specific build of the human genome used as reference for sequence alignment and variant calling.</t>
-  </si>
-  <si>
-    <t>The literal identifier for an electronic file.</t>
-  </si>
-  <si>
-    <t>A computer which provides some service for other computers connected to it via a network.</t>
-  </si>
-  <si>
-    <t>The specification of a node (file or directory) in a hierarchical file system, usually specified by listing the nodes top-down.</t>
-  </si>
-  <si>
-    <t>The format of an electronic file.</t>
-  </si>
-  <si>
-    <t>The size of an electronic file in bytes.</t>
-  </si>
-  <si>
-    <t>The date a digital resource was created.</t>
-  </si>
-  <si>
-    <t>A 32-character hexadecimal number that is computed on a file.</t>
-  </si>
-  <si>
-    <t>An indication that a submitted file has successfully been uploaded to a data repository.</t>
-  </si>
-  <si>
-    <t>An indication that a file has been released to the users of a database or data repository.</t>
-  </si>
-  <si>
-    <t>An indication that a file has invalid data or is in an invalid format and cannot be submitted to a data repository.</t>
-  </si>
-  <si>
-    <t>The information contained in a data field. It may represent a numeric quantity, a textual characterization, a date or time measurement, or some other state, depending on the nature of the attribute.</t>
-  </si>
-  <si>
-    <t>A written or verbal account, representation, statement, or explanation of something</t>
-  </si>
-  <si>
-    <t>A systematized collection of concepts that define corresponding codes.</t>
-  </si>
-  <si>
-    <t>A symbol or combination of symbols which is assigned to the members of a collection.</t>
-  </si>
-  <si>
-    <t>A unique symbol that establishes identity of the resource.</t>
-  </si>
-  <si>
-    <t>One or more characters used to identify, name, or characterize the nature, properties, or contents of a thing.</t>
-  </si>
-  <si>
-    <t>The words or language units by which a thing is known.</t>
-  </si>
-  <si>
-    <t>A written or verbal account, representation, statement, or explanation of something.</t>
-  </si>
-  <si>
-    <t>A date of database submission refers to the moment in time in which some information was submitted/received to a database system.</t>
-  </si>
-  <si>
-    <t>Indicates the person or authoritative body who brought the item into existence.</t>
-  </si>
-  <si>
-    <t>Determining the number or amount of something (NCIT). A database entry is a single, implicitly structured data item in a table. (SIO)</t>
-  </si>
-  <si>
-    <t>The person or authoritative body who provided the information.</t>
-  </si>
-  <si>
-    <t>A notation regarding the decisions, and/or clarification of any information pertaining to data management.</t>
+    <t>urdm_lookups_genomeAccessions</t>
   </si>
   <si>
     <t>label</t>
@@ -1033,6 +1063,12 @@
     <t>package</t>
   </si>
   <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>extends</t>
+  </si>
+  <si>
     <t>entity</t>
   </si>
   <si>
@@ -1099,6 +1135,9 @@
     <t>NCIT:C171105</t>
   </si>
   <si>
+    <t>EDAM:2340</t>
+  </si>
+  <si>
     <t>PATO:0020000</t>
   </si>
   <si>
@@ -1108,9 +1147,6 @@
     <t>NCIT:C171003</t>
   </si>
   <si>
-    <t>NCIT:C20826</t>
-  </si>
-  <si>
     <t>NCIT:C25412</t>
   </si>
   <si>
@@ -1126,6 +1162,12 @@
     <t>NCIT:C172217</t>
   </si>
   <si>
+    <t>FIX:0000704</t>
+  </si>
+  <si>
+    <t>NCIT:C171103</t>
+  </si>
+  <si>
     <t>dcat:Catalog</t>
   </si>
   <si>
@@ -1174,6 +1216,9 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C171105</t>
   </si>
   <si>
+    <t>http://edamontology.org/data_2340</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/PATO_0020000</t>
   </si>
   <si>
@@ -1183,9 +1228,6 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C171003</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C20826</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C25412</t>
   </si>
   <si>
@@ -1199,6 +1241,12 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C172217</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/FIX_0000704</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171103</t>
   </si>
   <si>
     <t>dcat</t>
@@ -1593,19 +1641,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1646,30 +1694,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>345</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1677,16 +1731,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1694,16 +1748,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1711,16 +1765,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1728,16 +1782,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1745,16 +1799,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1762,16 +1816,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1779,16 +1833,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1796,16 +1850,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1813,13 +1867,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1827,13 +1881,13 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1841,13 +1895,16 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1855,13 +1912,16 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1869,13 +1929,16 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1883,13 +1946,16 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1897,13 +1963,16 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1916,8 +1985,11 @@
       <c r="E17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1930,8 +2002,11 @@
       <c r="E18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1944,8 +2019,11 @@
       <c r="E19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1958,8 +2036,11 @@
       <c r="E20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1967,10 +2048,95 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1980,7 +2146,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K217"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1988,48 +2154,48 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -2044,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -2052,13 +2218,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -2073,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -2081,13 +2247,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -2102,24 +2268,24 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -2134,24 +2300,24 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -2166,24 +2332,24 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2198,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -2206,13 +2372,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -2227,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -2235,13 +2401,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -2256,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -2264,13 +2430,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -2285,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -2293,13 +2459,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2314,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -2322,13 +2488,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2343,24 +2509,24 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2375,24 +2541,24 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2407,24 +2573,24 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2439,24 +2605,24 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2471,24 +2637,24 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2503,24 +2669,24 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2535,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -2543,13 +2709,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2564,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -2572,13 +2738,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2593,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -2601,13 +2767,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2622,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -2630,13 +2796,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2651,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -2659,13 +2825,13 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2680,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -2688,13 +2854,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2709,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -2717,13 +2883,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2738,24 +2904,24 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2770,24 +2936,24 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2802,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -2810,13 +2976,13 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2831,24 +2997,24 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2863,24 +3029,24 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -2895,24 +3061,24 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2927,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -2935,13 +3101,13 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2956,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -2964,13 +3130,13 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2985,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -2993,13 +3159,13 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3014,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -3022,13 +3188,13 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3043,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -3051,13 +3217,13 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -3072,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -3080,13 +3246,13 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -3101,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -3109,13 +3275,13 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3130,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -3138,13 +3304,13 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -3159,21 +3325,24 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>255</v>
+        <v>56</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -3188,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -3196,13 +3365,13 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -3217,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -3225,13 +3394,13 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -3246,24 +3415,24 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -3278,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -3286,13 +3455,13 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -3307,24 +3476,24 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -3339,24 +3508,24 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -3371,24 +3540,24 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -3403,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -3411,13 +3580,13 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -3432,24 +3601,24 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -3464,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -3472,13 +3641,13 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -3493,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -3501,13 +3670,13 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -3522,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -3530,13 +3699,13 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -3551,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -3559,13 +3728,13 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -3580,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -3588,13 +3757,13 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -3609,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -3617,13 +3786,13 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -3638,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -3646,13 +3815,13 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -3667,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -3675,13 +3844,13 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -3696,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -3704,13 +3873,13 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -3725,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -3733,13 +3902,13 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -3754,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -3762,13 +3931,13 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -3783,24 +3952,24 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -3815,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -3823,13 +3992,13 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -3844,24 +4013,24 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -3876,24 +4045,24 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -3908,24 +4077,24 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -3940,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -3948,13 +4117,13 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -3969,24 +4138,24 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -4001,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -4009,13 +4178,13 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -4030,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
@@ -4038,13 +4207,13 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -4059,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -4067,13 +4236,13 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -4088,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
@@ -4096,13 +4265,13 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -4117,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
@@ -4125,13 +4294,13 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -4146,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
@@ -4154,13 +4323,13 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -4175,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -4183,13 +4352,13 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -4204,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -4212,13 +4381,13 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -4233,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -4241,13 +4410,13 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -4262,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -4270,13 +4439,13 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -4291,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -4299,13 +4468,13 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -4320,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -4328,13 +4497,13 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C79" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -4349,24 +4518,24 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -4381,24 +4550,24 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -4413,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -4421,13 +4590,13 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -4442,24 +4611,24 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -4474,24 +4643,24 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -4506,24 +4675,24 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
@@ -4538,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
@@ -4546,13 +4715,13 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -4567,24 +4736,24 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -4599,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -4607,13 +4776,13 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -4628,24 +4797,24 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -4660,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -4668,13 +4837,13 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -4689,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
@@ -4697,13 +4866,13 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -4718,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -4726,13 +4895,13 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -4747,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I92" t="b">
         <v>1</v>
@@ -4755,13 +4924,13 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -4776,24 +4945,24 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>85</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -4808,24 +4977,24 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>83</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -4840,24 +5009,24 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>91</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -4872,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
@@ -4880,13 +5049,13 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -4901,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
@@ -4909,13 +5078,13 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -4930,24 +5099,24 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -4962,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I99" t="b">
         <v>1</v>
@@ -4970,13 +5139,13 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -4991,24 +5160,24 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -5023,24 +5192,24 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -5055,24 +5224,24 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B103" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -5087,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
@@ -5095,13 +5264,13 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -5116,24 +5285,24 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C105" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -5148,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
@@ -5156,13 +5325,13 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B106" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -5177,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
@@ -5185,13 +5354,13 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -5206,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
@@ -5214,13 +5383,13 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -5235,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
@@ -5243,13 +5412,13 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B109" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -5264,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
@@ -5272,13 +5441,13 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B110" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C110" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -5293,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
@@ -5301,13 +5470,13 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B111" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C111" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -5322,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
@@ -5330,13 +5499,13 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C112" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -5351,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
@@ -5359,13 +5528,13 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -5380,24 +5549,24 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -5412,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
@@ -5420,13 +5589,13 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -5441,24 +5610,24 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -5473,24 +5642,24 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -5505,24 +5674,24 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B118" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C118" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
@@ -5537,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
@@ -5545,13 +5714,13 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -5566,24 +5735,24 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B120" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C120" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -5598,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
@@ -5606,13 +5775,13 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B121" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C121" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -5627,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
@@ -5635,13 +5804,13 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -5656,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
@@ -5664,13 +5833,13 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C123" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -5685,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
@@ -5693,13 +5862,13 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B124" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C124" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -5714,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I124" t="b">
         <v>1</v>
@@ -5722,13 +5891,13 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B125" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C125" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -5743,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I125" t="b">
         <v>1</v>
@@ -5751,13 +5920,13 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B126" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C126" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -5772,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
@@ -5780,13 +5949,13 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B127" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C127" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -5801,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I127" t="b">
         <v>1</v>
@@ -5809,13 +5978,13 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B128" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -5830,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I128" t="b">
         <v>1</v>
@@ -5838,13 +6007,13 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B129" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -5859,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I129" t="b">
         <v>1</v>
@@ -5867,13 +6036,13 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B130" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -5888,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
@@ -5896,13 +6065,13 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B131" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -5917,21 +6086,24 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B132" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C132" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -5946,24 +6118,24 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B133" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C133" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -5978,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I133" t="b">
         <v>1</v>
@@ -5986,13 +6158,13 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B134" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -6007,24 +6179,24 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I134" t="b">
         <v>1</v>
       </c>
       <c r="K134" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B135" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C135" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -6039,24 +6211,24 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I135" t="b">
         <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B136" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C136" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -6071,24 +6243,24 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I136" t="b">
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C137" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
@@ -6103,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
@@ -6111,13 +6283,13 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C138" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -6132,56 +6304,56 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
+        <v>89</v>
+      </c>
+      <c r="B139" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" t="s">
+        <v>208</v>
+      </c>
+      <c r="D139" t="b">
+        <v>0</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>217</v>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
         <v>82</v>
-      </c>
-      <c r="B139" t="s">
-        <v>132</v>
-      </c>
-      <c r="C139" t="s">
-        <v>214</v>
-      </c>
-      <c r="D139" t="b">
-        <v>0</v>
-      </c>
-      <c r="E139" t="b">
-        <v>1</v>
-      </c>
-      <c r="F139" t="b">
-        <v>0</v>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
-      </c>
-      <c r="H139" t="s">
-        <v>223</v>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B140" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C140" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -6196,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
@@ -6204,13 +6376,13 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B141" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C141" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -6225,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
@@ -6233,13 +6405,13 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B142" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C142" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -6254,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
@@ -6262,13 +6434,13 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B143" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C143" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -6283,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
@@ -6291,13 +6463,13 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B144" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C144" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
@@ -6312,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
@@ -6320,13 +6492,13 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B145" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C145" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -6341,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
@@ -6349,13 +6521,13 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B146" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C146" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
@@ -6370,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
@@ -6378,13 +6550,13 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B147" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C147" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -6399,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
@@ -6407,13 +6579,13 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B148" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C148" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -6428,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
@@ -6436,13 +6608,13 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B149" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C149" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -6457,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I149" t="b">
         <v>1</v>
@@ -6465,13 +6637,13 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B150" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C150" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -6486,24 +6658,24 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B151" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C151" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -6518,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I151" t="b">
         <v>1</v>
@@ -6526,13 +6698,13 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B152" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C152" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -6547,24 +6719,24 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I152" t="b">
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B153" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C153" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
@@ -6579,24 +6751,24 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I153" t="b">
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B154" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C154" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -6611,24 +6783,24 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I154" t="b">
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B155" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C155" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -6643,18 +6815,18 @@
         <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B156" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C156" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
@@ -6669,18 +6841,18 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B157" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C157" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -6695,18 +6867,18 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C158" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
@@ -6721,18 +6893,18 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B159" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C159" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
@@ -6747,44 +6919,44 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B160" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C160" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C161" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
@@ -6799,18 +6971,18 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B162" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C162" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
@@ -6825,44 +6997,44 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B163" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C163" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B164" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C164" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
@@ -6877,18 +7049,18 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B165" t="s">
         <v>201</v>
       </c>
       <c r="C165" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
@@ -6897,24 +7069,24 @@
         <v>0</v>
       </c>
       <c r="F165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B166" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="C166" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -6923,24 +7095,24 @@
         <v>1</v>
       </c>
       <c r="F166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B167" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C167" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -6955,18 +7127,18 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B168" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C168" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -6981,18 +7153,18 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B169" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C169" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -7007,44 +7179,44 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B170" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C170" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B171" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C171" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
@@ -7059,18 +7231,18 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B172" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C172" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
@@ -7085,1177 +7257,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>86</v>
-      </c>
-      <c r="B173" t="s">
-        <v>204</v>
-      </c>
-      <c r="C173" t="s">
-        <v>213</v>
-      </c>
-      <c r="D173" t="b">
-        <v>0</v>
-      </c>
-      <c r="E173" t="b">
-        <v>1</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-      <c r="G173" t="b">
-        <v>0</v>
-      </c>
-      <c r="H173" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>86</v>
-      </c>
-      <c r="B174" t="s">
-        <v>205</v>
-      </c>
-      <c r="C174" t="s">
-        <v>222</v>
-      </c>
-      <c r="D174" t="b">
-        <v>0</v>
-      </c>
-      <c r="E174" t="b">
-        <v>1</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-      <c r="G174" t="b">
-        <v>0</v>
-      </c>
-      <c r="H174" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
-        <v>87</v>
-      </c>
-      <c r="B175" t="s">
-        <v>201</v>
-      </c>
-      <c r="C175" t="s">
-        <v>213</v>
-      </c>
-      <c r="D175" t="b">
-        <v>1</v>
-      </c>
-      <c r="E175" t="b">
-        <v>0</v>
-      </c>
-      <c r="F175" t="b">
-        <v>1</v>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" t="s">
-        <v>87</v>
-      </c>
-      <c r="B176" t="s">
-        <v>202</v>
-      </c>
-      <c r="C176" t="s">
-        <v>221</v>
-      </c>
-      <c r="D176" t="b">
-        <v>0</v>
-      </c>
-      <c r="E176" t="b">
-        <v>1</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-      <c r="G176" t="b">
-        <v>0</v>
-      </c>
-      <c r="H176" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
-        <v>87</v>
-      </c>
-      <c r="B177" t="s">
-        <v>203</v>
-      </c>
-      <c r="C177" t="s">
-        <v>213</v>
-      </c>
-      <c r="D177" t="b">
-        <v>0</v>
-      </c>
-      <c r="E177" t="b">
-        <v>1</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-      <c r="G177" t="b">
-        <v>0</v>
-      </c>
-      <c r="H177" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
-        <v>87</v>
-      </c>
-      <c r="B178" t="s">
-        <v>204</v>
-      </c>
-      <c r="C178" t="s">
-        <v>213</v>
-      </c>
-      <c r="D178" t="b">
-        <v>0</v>
-      </c>
-      <c r="E178" t="b">
-        <v>1</v>
-      </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-      <c r="G178" t="b">
-        <v>0</v>
-      </c>
-      <c r="H178" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="s">
-        <v>87</v>
-      </c>
-      <c r="B179" t="s">
-        <v>205</v>
-      </c>
-      <c r="C179" t="s">
-        <v>222</v>
-      </c>
-      <c r="D179" t="b">
-        <v>0</v>
-      </c>
-      <c r="E179" t="b">
-        <v>1</v>
-      </c>
-      <c r="F179" t="b">
-        <v>0</v>
-      </c>
-      <c r="G179" t="b">
-        <v>0</v>
-      </c>
-      <c r="H179" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>88</v>
-      </c>
-      <c r="B180" t="s">
-        <v>201</v>
-      </c>
-      <c r="C180" t="s">
-        <v>213</v>
-      </c>
-      <c r="D180" t="b">
-        <v>1</v>
-      </c>
-      <c r="E180" t="b">
-        <v>0</v>
-      </c>
-      <c r="F180" t="b">
-        <v>1</v>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" t="s">
-        <v>88</v>
-      </c>
-      <c r="B181" t="s">
-        <v>202</v>
-      </c>
-      <c r="C181" t="s">
-        <v>221</v>
-      </c>
-      <c r="D181" t="b">
-        <v>0</v>
-      </c>
-      <c r="E181" t="b">
-        <v>1</v>
-      </c>
-      <c r="F181" t="b">
-        <v>0</v>
-      </c>
-      <c r="G181" t="b">
-        <v>0</v>
-      </c>
-      <c r="H181" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" t="s">
-        <v>88</v>
-      </c>
-      <c r="B182" t="s">
-        <v>203</v>
-      </c>
-      <c r="C182" t="s">
-        <v>213</v>
-      </c>
-      <c r="D182" t="b">
-        <v>0</v>
-      </c>
-      <c r="E182" t="b">
-        <v>1</v>
-      </c>
-      <c r="F182" t="b">
-        <v>0</v>
-      </c>
-      <c r="G182" t="b">
-        <v>0</v>
-      </c>
-      <c r="H182" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>88</v>
-      </c>
-      <c r="B183" t="s">
-        <v>204</v>
-      </c>
-      <c r="C183" t="s">
-        <v>213</v>
-      </c>
-      <c r="D183" t="b">
-        <v>0</v>
-      </c>
-      <c r="E183" t="b">
-        <v>1</v>
-      </c>
-      <c r="F183" t="b">
-        <v>0</v>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="s">
-        <v>88</v>
-      </c>
-      <c r="B184" t="s">
-        <v>205</v>
-      </c>
-      <c r="C184" t="s">
-        <v>222</v>
-      </c>
-      <c r="D184" t="b">
-        <v>0</v>
-      </c>
-      <c r="E184" t="b">
-        <v>1</v>
-      </c>
-      <c r="F184" t="b">
-        <v>0</v>
-      </c>
-      <c r="G184" t="b">
-        <v>0</v>
-      </c>
-      <c r="H184" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" t="s">
-        <v>89</v>
-      </c>
-      <c r="B185" t="s">
-        <v>201</v>
-      </c>
-      <c r="C185" t="s">
-        <v>213</v>
-      </c>
-      <c r="D185" t="b">
-        <v>1</v>
-      </c>
-      <c r="E185" t="b">
-        <v>0</v>
-      </c>
-      <c r="F185" t="b">
-        <v>1</v>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
-        <v>89</v>
-      </c>
-      <c r="B186" t="s">
-        <v>202</v>
-      </c>
-      <c r="C186" t="s">
-        <v>221</v>
-      </c>
-      <c r="D186" t="b">
-        <v>0</v>
-      </c>
-      <c r="E186" t="b">
-        <v>1</v>
-      </c>
-      <c r="F186" t="b">
-        <v>0</v>
-      </c>
-      <c r="G186" t="b">
-        <v>0</v>
-      </c>
-      <c r="H186" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" t="s">
-        <v>89</v>
-      </c>
-      <c r="B187" t="s">
-        <v>203</v>
-      </c>
-      <c r="C187" t="s">
-        <v>213</v>
-      </c>
-      <c r="D187" t="b">
-        <v>0</v>
-      </c>
-      <c r="E187" t="b">
-        <v>1</v>
-      </c>
-      <c r="F187" t="b">
-        <v>0</v>
-      </c>
-      <c r="G187" t="b">
-        <v>0</v>
-      </c>
-      <c r="H187" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" t="s">
-        <v>89</v>
-      </c>
-      <c r="B188" t="s">
-        <v>204</v>
-      </c>
-      <c r="C188" t="s">
-        <v>213</v>
-      </c>
-      <c r="D188" t="b">
-        <v>0</v>
-      </c>
-      <c r="E188" t="b">
-        <v>1</v>
-      </c>
-      <c r="F188" t="b">
-        <v>0</v>
-      </c>
-      <c r="G188" t="b">
-        <v>0</v>
-      </c>
-      <c r="H188" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>89</v>
-      </c>
-      <c r="B189" t="s">
-        <v>205</v>
-      </c>
-      <c r="C189" t="s">
-        <v>222</v>
-      </c>
-      <c r="D189" t="b">
-        <v>0</v>
-      </c>
-      <c r="E189" t="b">
-        <v>1</v>
-      </c>
-      <c r="F189" t="b">
-        <v>0</v>
-      </c>
-      <c r="G189" t="b">
-        <v>0</v>
-      </c>
-      <c r="H189" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" t="s">
-        <v>90</v>
-      </c>
-      <c r="B190" t="s">
-        <v>201</v>
-      </c>
-      <c r="C190" t="s">
-        <v>213</v>
-      </c>
-      <c r="D190" t="b">
-        <v>1</v>
-      </c>
-      <c r="E190" t="b">
-        <v>0</v>
-      </c>
-      <c r="F190" t="b">
-        <v>1</v>
-      </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" t="s">
-        <v>90</v>
-      </c>
-      <c r="B191" t="s">
-        <v>202</v>
-      </c>
-      <c r="C191" t="s">
-        <v>221</v>
-      </c>
-      <c r="D191" t="b">
-        <v>0</v>
-      </c>
-      <c r="E191" t="b">
-        <v>1</v>
-      </c>
-      <c r="F191" t="b">
-        <v>0</v>
-      </c>
-      <c r="G191" t="b">
-        <v>0</v>
-      </c>
-      <c r="H191" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" t="s">
-        <v>90</v>
-      </c>
-      <c r="B192" t="s">
-        <v>203</v>
-      </c>
-      <c r="C192" t="s">
-        <v>213</v>
-      </c>
-      <c r="D192" t="b">
-        <v>0</v>
-      </c>
-      <c r="E192" t="b">
-        <v>1</v>
-      </c>
-      <c r="F192" t="b">
-        <v>0</v>
-      </c>
-      <c r="G192" t="b">
-        <v>0</v>
-      </c>
-      <c r="H192" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" t="s">
-        <v>90</v>
-      </c>
-      <c r="B193" t="s">
-        <v>204</v>
-      </c>
-      <c r="C193" t="s">
-        <v>213</v>
-      </c>
-      <c r="D193" t="b">
-        <v>0</v>
-      </c>
-      <c r="E193" t="b">
-        <v>1</v>
-      </c>
-      <c r="F193" t="b">
-        <v>0</v>
-      </c>
-      <c r="G193" t="b">
-        <v>0</v>
-      </c>
-      <c r="H193" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" t="s">
-        <v>90</v>
-      </c>
-      <c r="B194" t="s">
-        <v>205</v>
-      </c>
-      <c r="C194" t="s">
-        <v>222</v>
-      </c>
-      <c r="D194" t="b">
-        <v>0</v>
-      </c>
-      <c r="E194" t="b">
-        <v>1</v>
-      </c>
-      <c r="F194" t="b">
-        <v>0</v>
-      </c>
-      <c r="G194" t="b">
-        <v>0</v>
-      </c>
-      <c r="H194" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" t="s">
-        <v>91</v>
-      </c>
-      <c r="B195" t="s">
-        <v>201</v>
-      </c>
-      <c r="C195" t="s">
-        <v>213</v>
-      </c>
-      <c r="D195" t="b">
-        <v>1</v>
-      </c>
-      <c r="E195" t="b">
-        <v>0</v>
-      </c>
-      <c r="F195" t="b">
-        <v>1</v>
-      </c>
-      <c r="G195" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
-        <v>91</v>
-      </c>
-      <c r="B196" t="s">
-        <v>202</v>
-      </c>
-      <c r="C196" t="s">
-        <v>221</v>
-      </c>
-      <c r="D196" t="b">
-        <v>0</v>
-      </c>
-      <c r="E196" t="b">
-        <v>1</v>
-      </c>
-      <c r="F196" t="b">
-        <v>0</v>
-      </c>
-      <c r="G196" t="b">
-        <v>0</v>
-      </c>
-      <c r="H196" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" t="s">
-        <v>91</v>
-      </c>
-      <c r="B197" t="s">
-        <v>203</v>
-      </c>
-      <c r="C197" t="s">
-        <v>213</v>
-      </c>
-      <c r="D197" t="b">
-        <v>0</v>
-      </c>
-      <c r="E197" t="b">
-        <v>1</v>
-      </c>
-      <c r="F197" t="b">
-        <v>0</v>
-      </c>
-      <c r="G197" t="b">
-        <v>0</v>
-      </c>
-      <c r="H197" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" t="s">
-        <v>91</v>
-      </c>
-      <c r="B198" t="s">
-        <v>204</v>
-      </c>
-      <c r="C198" t="s">
-        <v>213</v>
-      </c>
-      <c r="D198" t="b">
-        <v>0</v>
-      </c>
-      <c r="E198" t="b">
-        <v>1</v>
-      </c>
-      <c r="F198" t="b">
-        <v>0</v>
-      </c>
-      <c r="G198" t="b">
-        <v>0</v>
-      </c>
-      <c r="H198" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" t="s">
-        <v>91</v>
-      </c>
-      <c r="B199" t="s">
-        <v>205</v>
-      </c>
-      <c r="C199" t="s">
-        <v>222</v>
-      </c>
-      <c r="D199" t="b">
-        <v>0</v>
-      </c>
-      <c r="E199" t="b">
-        <v>1</v>
-      </c>
-      <c r="F199" t="b">
-        <v>0</v>
-      </c>
-      <c r="G199" t="b">
-        <v>0</v>
-      </c>
-      <c r="H199" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" t="s">
-        <v>92</v>
-      </c>
-      <c r="B200" t="s">
-        <v>201</v>
-      </c>
-      <c r="C200" t="s">
-        <v>213</v>
-      </c>
-      <c r="D200" t="b">
-        <v>1</v>
-      </c>
-      <c r="E200" t="b">
-        <v>0</v>
-      </c>
-      <c r="F200" t="b">
-        <v>1</v>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>92</v>
-      </c>
-      <c r="B201" t="s">
-        <v>206</v>
-      </c>
-      <c r="C201" t="s">
-        <v>221</v>
-      </c>
-      <c r="D201" t="b">
-        <v>0</v>
-      </c>
-      <c r="E201" t="b">
-        <v>1</v>
-      </c>
-      <c r="F201" t="b">
-        <v>0</v>
-      </c>
-      <c r="G201" t="b">
-        <v>0</v>
-      </c>
-      <c r="H201" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
-        <v>92</v>
-      </c>
-      <c r="B202" t="s">
-        <v>203</v>
-      </c>
-      <c r="C202" t="s">
-        <v>213</v>
-      </c>
-      <c r="D202" t="b">
-        <v>0</v>
-      </c>
-      <c r="E202" t="b">
-        <v>1</v>
-      </c>
-      <c r="F202" t="b">
-        <v>0</v>
-      </c>
-      <c r="G202" t="b">
-        <v>0</v>
-      </c>
-      <c r="H202" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" t="s">
-        <v>92</v>
-      </c>
-      <c r="B203" t="s">
-        <v>204</v>
-      </c>
-      <c r="C203" t="s">
-        <v>213</v>
-      </c>
-      <c r="D203" t="b">
-        <v>0</v>
-      </c>
-      <c r="E203" t="b">
-        <v>1</v>
-      </c>
-      <c r="F203" t="b">
-        <v>0</v>
-      </c>
-      <c r="G203" t="b">
-        <v>0</v>
-      </c>
-      <c r="H203" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
-        <v>92</v>
-      </c>
-      <c r="B204" t="s">
-        <v>205</v>
-      </c>
-      <c r="C204" t="s">
-        <v>222</v>
-      </c>
-      <c r="D204" t="b">
-        <v>0</v>
-      </c>
-      <c r="E204" t="b">
-        <v>1</v>
-      </c>
-      <c r="F204" t="b">
-        <v>0</v>
-      </c>
-      <c r="G204" t="b">
-        <v>0</v>
-      </c>
-      <c r="H204" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
-        <v>93</v>
-      </c>
-      <c r="B205" t="s">
-        <v>201</v>
-      </c>
-      <c r="C205" t="s">
-        <v>213</v>
-      </c>
-      <c r="D205" t="b">
-        <v>1</v>
-      </c>
-      <c r="E205" t="b">
-        <v>0</v>
-      </c>
-      <c r="F205" t="b">
-        <v>1</v>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
-        <v>93</v>
-      </c>
-      <c r="B206" t="s">
-        <v>202</v>
-      </c>
-      <c r="C206" t="s">
-        <v>221</v>
-      </c>
-      <c r="D206" t="b">
-        <v>0</v>
-      </c>
-      <c r="E206" t="b">
-        <v>1</v>
-      </c>
-      <c r="F206" t="b">
-        <v>0</v>
-      </c>
-      <c r="G206" t="b">
-        <v>0</v>
-      </c>
-      <c r="H206" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" t="s">
-        <v>93</v>
-      </c>
-      <c r="B207" t="s">
-        <v>203</v>
-      </c>
-      <c r="C207" t="s">
-        <v>213</v>
-      </c>
-      <c r="D207" t="b">
-        <v>0</v>
-      </c>
-      <c r="E207" t="b">
-        <v>1</v>
-      </c>
-      <c r="F207" t="b">
-        <v>0</v>
-      </c>
-      <c r="G207" t="b">
-        <v>0</v>
-      </c>
-      <c r="H207" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" t="s">
-        <v>93</v>
-      </c>
-      <c r="B208" t="s">
-        <v>204</v>
-      </c>
-      <c r="C208" t="s">
-        <v>213</v>
-      </c>
-      <c r="D208" t="b">
-        <v>0</v>
-      </c>
-      <c r="E208" t="b">
-        <v>1</v>
-      </c>
-      <c r="F208" t="b">
-        <v>0</v>
-      </c>
-      <c r="G208" t="b">
-        <v>0</v>
-      </c>
-      <c r="H208" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
-        <v>93</v>
-      </c>
-      <c r="B209" t="s">
-        <v>205</v>
-      </c>
-      <c r="C209" t="s">
-        <v>222</v>
-      </c>
-      <c r="D209" t="b">
-        <v>0</v>
-      </c>
-      <c r="E209" t="b">
-        <v>1</v>
-      </c>
-      <c r="F209" t="b">
-        <v>0</v>
-      </c>
-      <c r="G209" t="b">
-        <v>0</v>
-      </c>
-      <c r="H209" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" t="s">
-        <v>94</v>
-      </c>
-      <c r="B210" t="s">
-        <v>207</v>
-      </c>
-      <c r="C210" t="s">
-        <v>213</v>
-      </c>
-      <c r="D210" t="b">
-        <v>1</v>
-      </c>
-      <c r="E210" t="b">
-        <v>0</v>
-      </c>
-      <c r="F210" t="b">
-        <v>0</v>
-      </c>
-      <c r="G210" t="b">
-        <v>0</v>
-      </c>
-      <c r="H210" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" t="s">
-        <v>94</v>
-      </c>
-      <c r="B211" t="s">
-        <v>121</v>
-      </c>
-      <c r="C211" t="s">
-        <v>213</v>
-      </c>
-      <c r="D211" t="b">
-        <v>0</v>
-      </c>
-      <c r="E211" t="b">
-        <v>1</v>
-      </c>
-      <c r="F211" t="b">
-        <v>1</v>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" t="s">
-        <v>94</v>
-      </c>
-      <c r="B212" t="s">
-        <v>202</v>
-      </c>
-      <c r="C212" t="s">
-        <v>221</v>
-      </c>
-      <c r="D212" t="b">
-        <v>0</v>
-      </c>
-      <c r="E212" t="b">
-        <v>1</v>
-      </c>
-      <c r="F212" t="b">
-        <v>0</v>
-      </c>
-      <c r="G212" t="b">
-        <v>0</v>
-      </c>
-      <c r="H212" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" t="s">
-        <v>94</v>
-      </c>
-      <c r="B213" t="s">
-        <v>208</v>
-      </c>
-      <c r="C213" t="s">
-        <v>208</v>
-      </c>
-      <c r="D213" t="b">
-        <v>0</v>
-      </c>
-      <c r="E213" t="b">
-        <v>1</v>
-      </c>
-      <c r="F213" t="b">
-        <v>0</v>
-      </c>
-      <c r="G213" t="b">
-        <v>0</v>
-      </c>
-      <c r="H213" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" t="s">
-        <v>94</v>
-      </c>
-      <c r="B214" t="s">
-        <v>209</v>
-      </c>
-      <c r="C214" t="s">
-        <v>213</v>
-      </c>
-      <c r="D214" t="b">
-        <v>0</v>
-      </c>
-      <c r="E214" t="b">
-        <v>1</v>
-      </c>
-      <c r="F214" t="b">
-        <v>0</v>
-      </c>
-      <c r="G214" t="b">
-        <v>0</v>
-      </c>
-      <c r="H214" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" t="s">
-        <v>94</v>
-      </c>
-      <c r="B215" t="s">
-        <v>210</v>
-      </c>
-      <c r="C215" t="s">
-        <v>216</v>
-      </c>
-      <c r="D215" t="b">
-        <v>0</v>
-      </c>
-      <c r="E215" t="b">
-        <v>1</v>
-      </c>
-      <c r="F215" t="b">
-        <v>0</v>
-      </c>
-      <c r="G215" t="b">
-        <v>0</v>
-      </c>
-      <c r="H215" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" t="s">
-        <v>94</v>
-      </c>
-      <c r="B216" t="s">
-        <v>211</v>
-      </c>
-      <c r="C216" t="s">
-        <v>213</v>
-      </c>
-      <c r="D216" t="b">
-        <v>0</v>
-      </c>
-      <c r="E216" t="b">
-        <v>1</v>
-      </c>
-      <c r="F216" t="b">
-        <v>0</v>
-      </c>
-      <c r="G216" t="b">
-        <v>0</v>
-      </c>
-      <c r="H216" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" t="s">
-        <v>94</v>
-      </c>
-      <c r="B217" t="s">
-        <v>212</v>
-      </c>
-      <c r="C217" t="s">
-        <v>221</v>
-      </c>
-      <c r="D217" t="b">
-        <v>0</v>
-      </c>
-      <c r="E217" t="b">
-        <v>1</v>
-      </c>
-      <c r="F217" t="b">
-        <v>0</v>
-      </c>
-      <c r="G217" t="b">
-        <v>0</v>
-      </c>
-      <c r="H217" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -8265,7 +7267,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8273,22 +7275,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8296,178 +7298,178 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="E3" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="E6" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="E7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="E8" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="D9" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="E9" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="E11" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8475,260 +7477,294 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D12" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="E12" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="D13" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="E13" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E14" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E15" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="E16" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E17" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="E18" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="E19" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="E20" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="E21" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B22" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="E22" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E23" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B24" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="E24" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="E25" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B26" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="E26" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>381</v>
+      </c>
+      <c r="B27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E27" t="s">
+        <v>412</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>382</v>
+      </c>
+      <c r="B28" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E28" t="s">
+        <v>412</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -8783,6 +7819,10 @@
     <hyperlink ref="F25" r:id="rId48" location="isAssociatedWith"/>
     <hyperlink ref="C26" r:id="rId49"/>
     <hyperlink ref="F26" r:id="rId50" location="isAssociatedWith"/>
+    <hyperlink ref="C27" r:id="rId51"/>
+    <hyperlink ref="F27" r:id="rId52" location="isAssociatedWith"/>
+    <hyperlink ref="C28" r:id="rId53"/>
+    <hyperlink ref="F28" r:id="rId54" location="isAssociatedWith"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/emx/dist/urdm.xlsx
+++ b/emx/dist/urdm.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="421">
   <si>
     <t>urdm</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Lookups</t>
   </si>
   <si>
-    <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.1, 2021-11-15)</t>
-  </si>
-  <si>
-    <t>URDM Lookup tables (v0.9.1, 2021-11-15)</t>
+    <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.2, 2021-11-16)</t>
+  </si>
+  <si>
+    <t>URDM Lookup tables (v0.9.2, 2021-11-16)</t>
   </si>
   <si>
     <t>dcat:catalog</t>
@@ -1018,6 +1018,9 @@
     <t>A notation regarding the decisions, and/or clarification of any information pertaining to data management.</t>
   </si>
   <si>
+    <t>urdm_lookups_inclusionStatus</t>
+  </si>
+  <si>
     <t>urdm_lookups_phenotypicSex</t>
   </si>
   <si>
@@ -1046,6 +1049,9 @@
   </si>
   <si>
     <t>urdm_lookups_pathologicalState</t>
+  </si>
+  <si>
+    <t>urdm_lookups_sequencingMethods</t>
   </si>
   <si>
     <t>urdm_lookups_genomeAccessions</t>
@@ -1644,16 +1650,16 @@
         <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1702,25 +1708,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2154,37 +2160,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>197</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2349,7 +2355,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2368,6 +2374,9 @@
       </c>
       <c r="I7" t="b">
         <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2515,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2547,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2579,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2611,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2643,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2675,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3331,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4803,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4951,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4983,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5015,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5781,7 +5790,7 @@
         <v>173</v>
       </c>
       <c r="C121" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -5800,6 +5809,9 @@
       </c>
       <c r="I121" t="b">
         <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -5868,7 +5880,7 @@
         <v>176</v>
       </c>
       <c r="C124" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -5887,6 +5899,9 @@
       </c>
       <c r="I124" t="b">
         <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6092,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6939,10 +6954,10 @@
         <v>1</v>
       </c>
       <c r="F160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="s">
         <v>320</v>
@@ -7017,10 +7032,10 @@
         <v>0</v>
       </c>
       <c r="F163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="s">
         <v>323</v>
@@ -7275,22 +7290,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7298,178 +7313,178 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7477,294 +7492,294 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D12" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E12" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E14" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E15" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E16" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E17" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E18" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E19" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B20" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E20" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B21" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E21" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B22" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E22" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E23" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E24" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B25" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E25" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E26" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E27" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E28" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/emx/dist/urdm.xlsx
+++ b/emx/dist/urdm.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="422">
   <si>
     <t>urdm</t>
   </si>
@@ -34,7 +34,7 @@
     <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.2, 2021-11-16)</t>
   </si>
   <si>
-    <t>URDM Lookup tables (v0.9.2, 2021-11-16)</t>
+    <t>URDM Lookup tables (v0.9.3, 2021-11-16)</t>
   </si>
   <si>
     <t>dcat:catalog</t>
@@ -1037,6 +1037,9 @@
   </si>
   <si>
     <t>urdm_lookups_studyStatus</t>
+  </si>
+  <si>
+    <t>urdm_lookups_phenotype</t>
   </si>
   <si>
     <t>urdm_lookups_labIndication</t>
@@ -1650,16 +1653,16 @@
         <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1708,25 +1711,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2077,7 +2080,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2160,37 +2163,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>197</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4280,7 +4283,7 @@
         <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -4299,6 +4302,9 @@
       </c>
       <c r="I71" t="b">
         <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4309,7 +4315,7 @@
         <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -4328,6 +4334,9 @@
       </c>
       <c r="I72" t="b">
         <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4338,7 +4347,7 @@
         <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -4357,6 +4366,9 @@
       </c>
       <c r="I73" t="b">
         <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4812,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4960,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4992,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5024,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5901,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6107,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -7290,22 +7302,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7313,178 +7325,178 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7492,294 +7504,294 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E22" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E23" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B26" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B28" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/emx/dist/urdm.xlsx
+++ b/emx/dist/urdm.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="438">
   <si>
     <t>urdm</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Lookups</t>
   </si>
   <si>
-    <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.2, 2021-11-16)</t>
-  </si>
-  <si>
-    <t>URDM Lookup tables (v0.9.3, 2021-11-16)</t>
+    <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.3, 2021-11-18)</t>
+  </si>
+  <si>
+    <t>URDM Lookup tables (v0.9.4, 2021-11-18)</t>
   </si>
   <si>
     <t>dcat:catalog</t>
@@ -94,6 +94,9 @@
     <t>labIndication</t>
   </si>
   <si>
+    <t>laboratoryProcedures</t>
+  </si>
+  <si>
     <t>organization</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>The explanation for why a test, measurement, or assessment is executed.</t>
   </si>
   <si>
+    <t>Any procedure that involves testing or manipulating a sample of blood, urine, or other body substance in a laboratory setting.</t>
+  </si>
+  <si>
     <t>Organization information standardized to the Research Organization Registry (ROR)</t>
   </si>
   <si>
@@ -238,6 +244,9 @@
     <t>NCIT:C171003,dcat:dataset</t>
   </si>
   <si>
+    <t>NCIT:C25294,dcat:dataset</t>
+  </si>
+  <si>
     <t>NCIT:C25412,dcat:dataset</t>
   </si>
   <si>
@@ -289,6 +298,9 @@
     <t>urdm_files</t>
   </si>
   <si>
+    <t>urdm_lookups_laboratoryProcedures</t>
+  </si>
+  <si>
     <t>urdm_lookups_releases</t>
   </si>
   <si>
@@ -532,6 +544,9 @@
     <t>sequencingID</t>
   </si>
   <si>
+    <t>belongsTolabProcedure</t>
+  </si>
+  <si>
     <t>belongsToSample</t>
   </si>
   <si>
@@ -622,6 +637,18 @@
     <t>iri</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>geneList</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -994,6 +1021,21 @@
     <t>A unique symbol that establishes identity of the resource.</t>
   </si>
   <si>
+    <t>A character or string that represents the short code name of the laboratory test.</t>
+  </si>
+  <si>
+    <t>A character or string that represents the full name of the laboratory assessment.</t>
+  </si>
+  <si>
+    <t>A classification of the laboratory test.</t>
+  </si>
+  <si>
+    <t>A sub-division of the laboratory test classification.</t>
+  </si>
+  <si>
+    <t>A data set of the names or identifiers of genes that are the outcome of an analysis or have been put together for the purpose of an analysis.</t>
+  </si>
+  <si>
     <t>One or more characters used to identify, name, or characterize the nature, properties, or contents of a thing.</t>
   </si>
   <si>
@@ -1156,6 +1198,9 @@
     <t>NCIT:C171003</t>
   </si>
   <si>
+    <t>NCIT:C25294</t>
+  </si>
+  <si>
     <t>NCIT:C25412</t>
   </si>
   <si>
@@ -1235,6 +1280,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C171003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25294</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C25412</t>
@@ -1650,19 +1698,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1703,7 +1751,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1711,25 +1759,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1740,13 +1788,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1757,13 +1805,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1774,13 +1822,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1791,13 +1839,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1808,13 +1856,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1825,13 +1873,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1842,13 +1890,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1859,13 +1907,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1876,7 +1924,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1890,7 +1938,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1904,13 +1952,13 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1921,13 +1969,13 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1938,13 +1986,13 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1955,13 +2003,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1972,13 +2020,13 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1989,13 +2037,13 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2006,13 +2054,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2023,13 +2071,13 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2040,13 +2088,10 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2057,13 +2102,13 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2074,13 +2119,13 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2091,13 +2136,13 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2108,10 +2153,13 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2122,12 +2170,9 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2139,13 +2184,30 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2217,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2163,48 +2225,48 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -2219,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -2227,13 +2289,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -2248,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -2256,13 +2318,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -2277,24 +2339,24 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -2309,24 +2371,24 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -2341,24 +2403,24 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2373,24 +2435,24 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -2405,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -2413,13 +2475,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -2434,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -2442,13 +2504,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -2463,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -2471,13 +2533,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2492,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -2500,13 +2562,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2521,24 +2583,24 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2553,24 +2615,24 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2585,24 +2647,24 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2617,24 +2679,24 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2649,24 +2711,24 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2681,24 +2743,24 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2713,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -2721,13 +2783,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2742,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -2750,13 +2812,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2771,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -2779,13 +2841,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2800,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -2808,13 +2870,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2829,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -2837,13 +2899,13 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2858,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -2866,13 +2928,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2887,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -2895,13 +2957,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2916,24 +2978,24 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2948,24 +3010,24 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2980,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -2988,13 +3050,13 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3009,24 +3071,24 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3041,24 +3103,24 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3073,24 +3135,24 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -3105,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -3113,13 +3175,13 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3134,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -3142,13 +3204,13 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3163,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -3171,13 +3233,13 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3192,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -3200,13 +3262,13 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3221,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -3229,13 +3291,13 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -3250,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -3258,13 +3320,13 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -3279,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -3287,13 +3349,13 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3308,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -3316,13 +3378,13 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -3337,24 +3399,24 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -3369,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -3377,13 +3439,13 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -3398,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -3406,13 +3468,13 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -3427,24 +3489,24 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -3459,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -3467,13 +3529,13 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -3488,24 +3550,24 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -3520,24 +3582,24 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -3552,24 +3614,24 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -3584,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -3592,13 +3654,13 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -3613,24 +3675,24 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -3645,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -3653,13 +3715,13 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -3674,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -3682,13 +3744,13 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -3703,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -3711,13 +3773,13 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -3732,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -3740,13 +3802,13 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -3761,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -3769,13 +3831,13 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -3790,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -3798,13 +3860,13 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -3819,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -3827,13 +3889,13 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -3848,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -3856,13 +3918,13 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -3877,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -3885,13 +3947,13 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -3906,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -3914,13 +3976,13 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -3935,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -3943,13 +4005,13 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -3964,24 +4026,24 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -3996,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -4004,13 +4066,13 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -4025,24 +4087,24 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -4057,24 +4119,24 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -4089,24 +4151,24 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -4121,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -4129,45 +4191,45 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>226</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
         <v>85</v>
-      </c>
-      <c r="B66" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" t="s">
-        <v>208</v>
-      </c>
-      <c r="D66" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="s">
-        <v>217</v>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -4182,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -4190,13 +4252,13 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -4211,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
@@ -4219,13 +4281,13 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -4240,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -4248,13 +4310,13 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -4269,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
@@ -4277,13 +4339,13 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -4298,24 +4360,24 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -4330,24 +4392,24 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -4362,24 +4424,24 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -4394,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -4402,13 +4464,13 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -4423,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -4431,13 +4493,13 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -4452,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -4460,13 +4522,13 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -4481,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -4489,13 +4551,13 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -4510,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -4518,13 +4580,13 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -4539,24 +4601,24 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -4571,24 +4633,24 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -4603,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -4611,13 +4673,13 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -4632,24 +4694,24 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -4664,24 +4726,24 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -4696,24 +4758,24 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
@@ -4728,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
@@ -4736,13 +4798,13 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -4757,24 +4819,24 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C87" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -4789,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -4797,13 +4859,13 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -4818,24 +4880,24 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -4850,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -4858,13 +4920,13 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -4879,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
@@ -4887,13 +4949,13 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -4908,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -4916,13 +4978,13 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -4937,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="I92" t="b">
         <v>1</v>
@@ -4945,13 +5007,13 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -4966,24 +5028,24 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -4998,24 +5060,24 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -5030,24 +5092,24 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -5062,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
@@ -5070,13 +5132,13 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -5091,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
@@ -5099,13 +5161,13 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C98" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -5120,24 +5182,24 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -5152,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I99" t="b">
         <v>1</v>
@@ -5160,13 +5222,13 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B100" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -5181,24 +5243,24 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B101" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -5213,24 +5275,24 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C102" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -5245,24 +5307,24 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -5277,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
@@ -5285,13 +5347,13 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -5306,24 +5368,24 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -5338,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
@@ -5346,13 +5408,13 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C106" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -5367,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
@@ -5375,13 +5437,13 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C107" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -5396,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
@@ -5404,13 +5466,13 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -5425,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
@@ -5433,13 +5495,13 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -5454,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
@@ -5462,13 +5524,13 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C110" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -5483,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
@@ -5491,13 +5553,13 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C111" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -5512,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
@@ -5520,13 +5582,13 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C112" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -5541,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
@@ -5549,13 +5611,13 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -5570,24 +5632,24 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -5602,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
@@ -5610,13 +5672,13 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -5631,24 +5693,24 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -5663,24 +5725,24 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -5695,24 +5757,24 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B118" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C118" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
@@ -5727,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
@@ -5735,13 +5797,13 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B119" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -5756,24 +5818,24 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>289</v>
+        <v>54</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B120" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C120" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -5788,21 +5850,24 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B121" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C121" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -5817,24 +5882,21 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
-      </c>
-      <c r="J121" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B122" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C122" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -5849,21 +5911,24 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B123" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C123" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -5878,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
@@ -5886,13 +5951,13 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B124" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C124" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -5907,24 +5972,21 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="I124" t="b">
         <v>1</v>
-      </c>
-      <c r="J124" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B125" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C125" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -5939,21 +6001,24 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="I125" t="b">
         <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B126" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C126" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -5968,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
@@ -5976,13 +6041,13 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B127" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C127" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -5997,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="I127" t="b">
         <v>1</v>
@@ -6005,13 +6070,13 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B128" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C128" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -6026,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I128" t="b">
         <v>1</v>
@@ -6034,13 +6099,13 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B129" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C129" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -6055,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="I129" t="b">
         <v>1</v>
@@ -6063,13 +6128,13 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B130" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C130" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -6084,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
@@ -6092,13 +6157,13 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C131" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -6113,24 +6178,21 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
-      </c>
-      <c r="J131" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B132" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="C132" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -6145,24 +6207,24 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>90</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B133" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C133" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -6177,21 +6239,24 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="I133" t="b">
         <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B134" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -6206,30 +6271,27 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="I134" t="b">
         <v>1</v>
-      </c>
-      <c r="K134" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B135" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C135" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
@@ -6238,24 +6300,24 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="I135" t="b">
         <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B136" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C136" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -6270,27 +6332,27 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="I136" t="b">
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B137" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="C137" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
@@ -6302,27 +6364,30 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
+      </c>
+      <c r="K137" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B138" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C138" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
@@ -6331,24 +6396,21 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
-      </c>
-      <c r="J138" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C139" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -6363,24 +6425,24 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="C140" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -6395,21 +6457,24 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B141" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C141" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -6424,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
@@ -6432,13 +6497,13 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B142" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C142" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -6453,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
@@ -6461,13 +6526,13 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B143" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C143" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -6482,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
@@ -6490,13 +6555,13 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B144" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C144" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
@@ -6511,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
@@ -6519,13 +6584,13 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B145" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C145" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -6540,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
@@ -6548,13 +6613,13 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B146" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C146" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
@@ -6569,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
@@ -6577,13 +6642,13 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B147" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C147" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -6598,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
@@ -6606,13 +6671,13 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B148" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C148" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -6627,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
@@ -6635,13 +6700,13 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B149" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C149" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -6656,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="I149" t="b">
         <v>1</v>
@@ -6664,13 +6729,13 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B150" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="C150" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -6685,24 +6750,21 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
-      </c>
-      <c r="J150" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B151" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C151" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -6717,21 +6779,24 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="I151" t="b">
         <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B152" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C152" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -6746,30 +6811,27 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="I152" t="b">
         <v>1</v>
-      </c>
-      <c r="K152" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B153" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C153" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
@@ -6778,24 +6840,24 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="I153" t="b">
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B154" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C154" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -6810,76 +6872,82 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="I154" t="b">
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B155" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="C155" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>320</v>
+        <v>252</v>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="K155" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B156" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C156" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B157" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C157" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -6894,18 +6962,18 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C158" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
@@ -6920,15 +6988,15 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B159" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C159" t="s">
         <v>216</v>
@@ -6946,18 +7014,18 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B160" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C160" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
@@ -6966,24 +7034,24 @@
         <v>1</v>
       </c>
       <c r="F160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B161" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C161" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
@@ -6992,24 +7060,24 @@
         <v>1</v>
       </c>
       <c r="F161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B162" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C162" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
@@ -7024,24 +7092,24 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B163" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C163" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -7050,24 +7118,24 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B164" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C164" t="s">
         <v>216</v>
       </c>
       <c r="D164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
@@ -7076,24 +7144,24 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B165" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C165" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="b">
         <v>0</v>
@@ -7102,24 +7170,24 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B166" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="C166" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="b">
         <v>1</v>
@@ -7128,18 +7196,18 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B167" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C167" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -7154,18 +7222,18 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B168" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C168" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -7180,18 +7248,18 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B169" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C169" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -7206,18 +7274,18 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B170" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C170" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
@@ -7232,24 +7300,24 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B171" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C171" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="b">
         <v>0</v>
@@ -7258,33 +7326,189 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B172" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="C172" t="s">
+        <v>216</v>
+      </c>
+      <c r="D172" t="b">
+        <v>0</v>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>94</v>
+      </c>
+      <c r="B173" t="s">
+        <v>202</v>
+      </c>
+      <c r="C173" t="s">
+        <v>224</v>
+      </c>
+      <c r="D173" t="b">
+        <v>0</v>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+      <c r="G173" t="b">
+        <v>0</v>
+      </c>
+      <c r="H173" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>94</v>
+      </c>
+      <c r="B174" t="s">
+        <v>211</v>
+      </c>
+      <c r="C174" t="s">
+        <v>211</v>
+      </c>
+      <c r="D174" t="b">
+        <v>0</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+      <c r="G174" t="b">
+        <v>0</v>
+      </c>
+      <c r="H174" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>94</v>
+      </c>
+      <c r="B175" t="s">
+        <v>212</v>
+      </c>
+      <c r="C175" t="s">
+        <v>216</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="b">
+        <v>0</v>
+      </c>
+      <c r="H175" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>94</v>
+      </c>
+      <c r="B176" t="s">
+        <v>213</v>
+      </c>
+      <c r="C176" t="s">
+        <v>219</v>
+      </c>
+      <c r="D176" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" t="b">
+        <v>0</v>
+      </c>
+      <c r="H176" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>94</v>
+      </c>
+      <c r="B177" t="s">
+        <v>214</v>
+      </c>
+      <c r="C177" t="s">
+        <v>216</v>
+      </c>
+      <c r="D177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="b">
+        <v>0</v>
+      </c>
+      <c r="H177" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>94</v>
+      </c>
+      <c r="B178" t="s">
         <v>215</v>
       </c>
-      <c r="D172" t="b">
-        <v>0</v>
-      </c>
-      <c r="E172" t="b">
-        <v>1</v>
-      </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-      <c r="G172" t="b">
-        <v>0</v>
-      </c>
-      <c r="H172" t="s">
-        <v>332</v>
+      <c r="C178" t="s">
+        <v>224</v>
+      </c>
+      <c r="D178" t="b">
+        <v>0</v>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" t="b">
+        <v>0</v>
+      </c>
+      <c r="H178" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -7294,7 +7518,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7302,22 +7526,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7325,178 +7549,178 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D2" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E2" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E3" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="E4" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="E5" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="E6" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="E7" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="E8" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="D9" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="E9" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="E10" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="E11" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7504,294 +7728,311 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D12" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E12" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D13" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E13" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="E14" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="E15" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="E16" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="E17" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="E18" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="E19" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="E20" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E21" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B22" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="E22" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B23" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="E23" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B24" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="E24" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="B25" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="E25" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B26" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="E26" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B27" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="E27" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="B28" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="E28" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -7850,6 +8091,8 @@
     <hyperlink ref="F27" r:id="rId52" location="isAssociatedWith"/>
     <hyperlink ref="C28" r:id="rId53"/>
     <hyperlink ref="F28" r:id="rId54" location="isAssociatedWith"/>
+    <hyperlink ref="C29" r:id="rId55"/>
+    <hyperlink ref="F29" r:id="rId56" location="isAssociatedWith"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/emx/dist/urdm.xlsx
+++ b/emx/dist/urdm.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="471">
   <si>
     <t>urdm</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Lookups</t>
   </si>
   <si>
-    <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.3, 2021-11-18)</t>
-  </si>
-  <si>
-    <t>URDM Lookup tables (v0.9.4, 2021-11-18)</t>
+    <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.4, 2021-11-19)</t>
+  </si>
+  <si>
+    <t>URDM Lookup tables (v0.9.5, 2021-11-19)</t>
   </si>
   <si>
     <t>dcat:catalog</t>
@@ -82,12 +82,21 @@
     <t>country</t>
   </si>
   <si>
+    <t>dataUsePermissions</t>
+  </si>
+  <si>
+    <t>diseases</t>
+  </si>
+  <si>
     <t>genomeAccessions</t>
   </si>
   <si>
     <t>genotypicSex</t>
   </si>
   <si>
+    <t>inclusionCriteria</t>
+  </si>
+  <si>
     <t>inclusionStatus</t>
   </si>
   <si>
@@ -97,6 +106,12 @@
     <t>laboratoryProcedures</t>
   </si>
   <si>
+    <t>molecularDiagnosis</t>
+  </si>
+  <si>
+    <t>ngsKits</t>
+  </si>
+  <si>
     <t>organization</t>
   </si>
   <si>
@@ -112,9 +127,15 @@
     <t>releases</t>
   </si>
   <si>
+    <t>sequencingInstrumentModels</t>
+  </si>
+  <si>
     <t>sequencingMethods</t>
   </si>
   <si>
+    <t>sequencingPlatform</t>
+  </si>
+  <si>
     <t>studyStatus</t>
   </si>
   <si>
@@ -232,12 +253,21 @@
     <t>NCIT:C171105,dcat:dataset</t>
   </si>
   <si>
+    <t>DUO:0000001, dcat:dataset</t>
+  </si>
+  <si>
+    <t>NCIT:C15607,dcat:dataset</t>
+  </si>
+  <si>
     <t>EDAM:2340, dcat:dataset</t>
   </si>
   <si>
     <t>PATO:0020000,dcat:dataset</t>
   </si>
   <si>
+    <t>OBI:0500027, dcat:dataset</t>
+  </si>
+  <si>
     <t>NCIT:C166244,dcat:dataset</t>
   </si>
   <si>
@@ -247,6 +277,12 @@
     <t>NCIT:C25294,dcat:dataset</t>
   </si>
   <si>
+    <t>NCIT:C20826,dcat:dataset</t>
+  </si>
+  <si>
+    <t>GENEPIO:0000085, NCIT:C154307, dcat:dataset</t>
+  </si>
+  <si>
     <t>NCIT:C25412,dcat:dataset</t>
   </si>
   <si>
@@ -262,9 +298,15 @@
     <t>NCIT:C172217,dcat:dataset</t>
   </si>
   <si>
+    <t>GENEPIO:0001921, dcat:dataset</t>
+  </si>
+  <si>
     <t>FIX:0000704, dcat:dataset</t>
   </si>
   <si>
+    <t>dcat:dataset</t>
+  </si>
+  <si>
     <t>NCIT:C171103, dcat:dataset</t>
   </si>
   <si>
@@ -385,9 +427,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>inclusionCriteria</t>
-  </si>
-  <si>
     <t>principleInvestigator</t>
   </si>
   <si>
@@ -475,9 +514,6 @@
     <t>clinicalDiagnosis</t>
   </si>
   <si>
-    <t>molecularDiagnosis</t>
-  </si>
-  <si>
     <t>molecularDiagnosisOther</t>
   </si>
   <si>
@@ -556,9 +592,6 @@
     <t>sequencingFacilityOrganization</t>
   </si>
   <si>
-    <t>sequencingPlatform</t>
-  </si>
-  <si>
     <t>sequencingInstrumentModel</t>
   </si>
   <si>
@@ -1078,12 +1111,24 @@
     <t>urdm_lookups_organization</t>
   </si>
   <si>
+    <t>urdm_lookups_inclusionCriteria</t>
+  </si>
+  <si>
     <t>urdm_lookups_studyStatus</t>
   </si>
   <si>
+    <t>urdm_lookups_dataUsePermissions</t>
+  </si>
+  <si>
     <t>urdm_lookups_phenotype</t>
   </si>
   <si>
+    <t>urdm_lookups_diseases</t>
+  </si>
+  <si>
+    <t>urdm_lookups_molecularDiagnosis</t>
+  </si>
+  <si>
     <t>urdm_lookups_labIndication</t>
   </si>
   <si>
@@ -1096,6 +1141,15 @@
     <t>urdm_lookups_pathologicalState</t>
   </si>
   <si>
+    <t>urdm_lookups_ngsKits</t>
+  </si>
+  <si>
+    <t>urdm_lookups_sequencingPlatform</t>
+  </si>
+  <si>
+    <t>urdm_lookups_sequencingInstrumentModels</t>
+  </si>
+  <si>
     <t>urdm_lookups_sequencingMethods</t>
   </si>
   <si>
@@ -1147,9 +1201,6 @@
     <t>partOfAttribute</t>
   </si>
   <si>
-    <t>dcat:dataset</t>
-  </si>
-  <si>
     <t>ExO_0000127</t>
   </si>
   <si>
@@ -1186,12 +1237,21 @@
     <t>NCIT:C171105</t>
   </si>
   <si>
+    <t>DUO:0000001</t>
+  </si>
+  <si>
+    <t>NCIT:C15607</t>
+  </si>
+  <si>
     <t>EDAM:2340</t>
   </si>
   <si>
     <t>PATO:0020000</t>
   </si>
   <si>
+    <t>OBI:0500027</t>
+  </si>
+  <si>
     <t>NCIT:C166244</t>
   </si>
   <si>
@@ -1201,6 +1261,15 @@
     <t>NCIT:C25294</t>
   </si>
   <si>
+    <t>NCIT:C20826</t>
+  </si>
+  <si>
+    <t>GENEPIO:0000085</t>
+  </si>
+  <si>
+    <t>NCIT:C154307</t>
+  </si>
+  <si>
     <t>NCIT:C25412</t>
   </si>
   <si>
@@ -1216,9 +1285,15 @@
     <t>NCIT:C172217</t>
   </si>
   <si>
+    <t>GENEPIO:0001921</t>
+  </si>
+  <si>
     <t>FIX:0000704</t>
   </si>
   <si>
+    <t>GENEPIO:0000071</t>
+  </si>
+  <si>
     <t>NCIT:C171103</t>
   </si>
   <si>
@@ -1270,12 +1345,21 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C171105</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/DUO_0000001</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C15607</t>
+  </si>
+  <si>
     <t>http://edamontology.org/data_2340</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/PATO_0020000</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0500027</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C166244</t>
   </si>
   <si>
@@ -1285,6 +1369,15 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C25294</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C20826</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000085</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C154307</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C25412</t>
   </si>
   <si>
@@ -1300,7 +1393,13 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C172217</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0001921</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/FIX_0000704</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000071</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C171103</t>
@@ -1698,19 +1797,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1751,7 +1850,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1759,25 +1858,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1788,13 +1887,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1805,13 +1904,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1822,13 +1921,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1839,13 +1938,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1856,13 +1955,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1873,13 +1972,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1890,13 +1989,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1907,13 +2006,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1924,7 +2023,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1938,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1952,13 +2051,13 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1969,13 +2068,13 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1986,13 +2085,13 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2003,13 +2102,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2020,13 +2119,13 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2037,13 +2136,13 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2054,13 +2153,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2071,13 +2170,13 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2088,10 +2187,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2102,13 +2204,13 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2119,13 +2221,13 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2136,13 +2238,10 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2153,13 +2252,13 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2170,10 +2269,13 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2184,13 +2286,13 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2204,10 +2306,126 @@
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2225,48 +2443,48 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -2281,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -2289,13 +2507,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -2310,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -2318,13 +2536,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -2339,24 +2557,24 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -2371,56 +2589,56 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2435,24 +2653,24 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -2467,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -2475,13 +2693,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -2496,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -2504,13 +2722,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -2525,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -2533,13 +2751,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2554,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -2562,13 +2780,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2583,24 +2801,24 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2615,24 +2833,24 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2647,24 +2865,24 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2679,24 +2897,24 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2711,24 +2929,24 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2743,24 +2961,24 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2775,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -2783,13 +3001,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2804,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -2812,13 +3030,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2833,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -2841,13 +3059,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2862,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -2870,13 +3088,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2891,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -2899,13 +3117,13 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2920,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -2928,13 +3146,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2949,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -2957,13 +3175,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2978,24 +3196,24 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3010,24 +3228,24 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -3042,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -3050,13 +3268,13 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3071,24 +3289,24 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3103,24 +3321,24 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3135,24 +3353,24 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -3167,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -3175,13 +3393,13 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3196,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -3204,13 +3422,13 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3225,21 +3443,24 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3254,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -3262,13 +3483,13 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3283,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -3291,13 +3512,13 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -3312,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -3320,13 +3541,13 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -3341,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -3349,13 +3570,13 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3370,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -3378,13 +3599,13 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -3399,24 +3620,24 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -3431,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -3439,13 +3660,13 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -3460,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -3468,13 +3689,13 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -3489,24 +3710,24 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -3521,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -3529,13 +3750,13 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -3550,24 +3771,24 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -3582,24 +3803,24 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -3614,24 +3835,24 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -3646,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -3654,13 +3875,13 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -3675,24 +3896,24 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -3707,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -3715,13 +3936,13 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -3736,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -3744,13 +3965,13 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -3765,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -3773,13 +3994,13 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -3794,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -3802,13 +4023,13 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -3823,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -3831,13 +4052,13 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -3852,21 +4073,24 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -3881,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -3889,13 +4113,13 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -3910,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -3918,13 +4142,13 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -3939,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -3947,13 +4171,13 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -3968,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -3976,13 +4200,13 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -3997,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -4005,13 +4229,13 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -4026,24 +4250,24 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -4058,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -4066,13 +4290,13 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -4087,24 +4311,24 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -4119,24 +4343,24 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -4151,24 +4375,24 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -4183,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -4191,13 +4415,13 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -4212,24 +4436,24 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C67" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -4244,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -4252,13 +4476,13 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -4273,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
@@ -4281,13 +4505,13 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -4302,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -4310,13 +4534,13 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -4331,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
@@ -4339,13 +4563,13 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -4360,24 +4584,24 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -4392,24 +4616,24 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -4424,24 +4648,24 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -4456,21 +4680,24 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -4485,21 +4712,24 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -4514,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -4522,13 +4752,13 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -4543,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -4551,13 +4781,13 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -4572,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -4580,13 +4810,13 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -4601,24 +4831,24 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -4633,24 +4863,24 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -4665,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -4673,13 +4903,13 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -4694,24 +4924,24 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -4726,24 +4956,24 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -4758,24 +4988,24 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
@@ -4790,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
@@ -4798,13 +5028,13 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C86" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -4819,24 +5049,24 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -4851,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -4859,13 +5089,13 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C88" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -4880,24 +5110,24 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -4912,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -4920,13 +5150,13 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -4941,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
@@ -4949,13 +5179,13 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -4970,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -4978,13 +5208,13 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C92" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -4999,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="I92" t="b">
         <v>1</v>
@@ -5007,13 +5237,13 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -5028,24 +5258,24 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -5060,24 +5290,24 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -5092,24 +5322,24 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -5124,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
@@ -5132,13 +5362,13 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C97" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -5153,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
@@ -5161,13 +5391,13 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C98" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -5182,24 +5412,24 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -5214,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="I99" t="b">
         <v>1</v>
@@ -5222,13 +5452,13 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -5243,24 +5473,24 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C101" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -5275,24 +5505,24 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -5307,24 +5537,24 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C103" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -5339,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
@@ -5347,13 +5577,13 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -5368,24 +5598,24 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -5400,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
@@ -5408,13 +5638,13 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C106" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -5429,21 +5659,24 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C107" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -5458,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
@@ -5466,13 +5699,13 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -5487,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
@@ -5495,13 +5728,13 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -5516,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
@@ -5524,13 +5757,13 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C110" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -5545,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
@@ -5553,13 +5786,13 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C111" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -5574,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
@@ -5582,13 +5815,13 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C112" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -5603,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
@@ -5611,13 +5844,13 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C113" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -5632,24 +5865,24 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C114" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -5664,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
@@ -5672,13 +5905,13 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -5693,24 +5926,24 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C116" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -5725,24 +5958,24 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C117" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -5757,24 +5990,24 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B118" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C118" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
@@ -5789,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
@@ -5797,13 +6030,13 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B119" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C119" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -5818,24 +6051,24 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B120" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C120" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -5850,24 +6083,24 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B121" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C121" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -5882,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
@@ -5890,13 +6123,13 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B122" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C122" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -5911,24 +6144,24 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B123" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="C123" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -5943,21 +6176,24 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B124" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C124" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -5972,21 +6208,24 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="I124" t="b">
         <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C125" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -6001,24 +6240,24 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="I125" t="b">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C126" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -6033,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
@@ -6041,13 +6280,13 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B127" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C127" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -6062,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="I127" t="b">
         <v>1</v>
@@ -6070,13 +6309,13 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B128" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C128" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -6091,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="I128" t="b">
         <v>1</v>
@@ -6099,13 +6338,13 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B129" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C129" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -6120,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="I129" t="b">
         <v>1</v>
@@ -6128,13 +6367,13 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B130" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C130" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -6149,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
@@ -6157,13 +6396,13 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B131" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C131" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -6178,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
@@ -6186,13 +6425,13 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B132" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C132" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -6207,24 +6446,24 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B133" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C133" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -6239,24 +6478,24 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I133" t="b">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B134" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -6271,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="I134" t="b">
         <v>1</v>
@@ -6279,13 +6518,13 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B135" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C135" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -6300,24 +6539,24 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I135" t="b">
         <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B136" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C136" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -6332,24 +6571,24 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="I136" t="b">
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B137" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C137" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -6364,24 +6603,24 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B138" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C138" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
@@ -6396,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
@@ -6404,13 +6643,13 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B139" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C139" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -6425,24 +6664,24 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B140" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -6457,24 +6696,24 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B141" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C141" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -6489,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
@@ -6497,13 +6736,13 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B142" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C142" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -6518,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
@@ -6526,13 +6765,13 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B143" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C143" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -6547,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
@@ -6555,13 +6794,13 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C144" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
@@ -6576,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
@@ -6584,13 +6823,13 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B145" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C145" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -6605,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
@@ -6613,13 +6852,13 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B146" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C146" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
@@ -6634,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
@@ -6642,13 +6881,13 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B147" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C147" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -6663,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
@@ -6671,13 +6910,13 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B148" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C148" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -6692,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
@@ -6700,13 +6939,13 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B149" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C149" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -6721,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="I149" t="b">
         <v>1</v>
@@ -6729,13 +6968,13 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B150" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C150" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -6750,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
@@ -6758,13 +6997,13 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B151" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C151" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -6779,24 +7018,24 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I151" t="b">
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B152" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C152" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -6811,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="I152" t="b">
         <v>1</v>
@@ -6819,13 +7058,13 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B153" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C153" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
@@ -6840,24 +7079,24 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I153" t="b">
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B154" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C154" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -6872,24 +7111,24 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="I154" t="b">
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B155" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C155" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D155" t="b">
         <v>0</v>
@@ -6904,24 +7143,24 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="I155" t="b">
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B156" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C156" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -6936,18 +7175,18 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B157" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C157" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -6962,18 +7201,18 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B158" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C158" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
@@ -6988,18 +7227,18 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B159" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C159" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
@@ -7014,18 +7253,18 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B160" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C160" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
@@ -7040,18 +7279,18 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B161" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C161" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
@@ -7066,18 +7305,18 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B162" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C162" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
@@ -7092,18 +7331,18 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B163" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C163" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
@@ -7118,18 +7357,18 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C164" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
@@ -7144,18 +7383,18 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B165" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C165" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
@@ -7170,18 +7409,18 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B166" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C166" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -7196,18 +7435,18 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B167" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C167" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -7222,18 +7461,18 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B168" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C168" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -7248,18 +7487,18 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B169" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C169" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -7274,18 +7513,18 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B170" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C170" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
@@ -7300,18 +7539,18 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B171" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C171" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
@@ -7326,18 +7565,18 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B172" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C172" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
@@ -7352,18 +7591,18 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B173" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C173" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
@@ -7378,18 +7617,18 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B174" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C174" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
@@ -7404,18 +7643,18 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B175" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C175" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
@@ -7430,18 +7669,18 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B176" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C176" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
@@ -7456,18 +7695,18 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B177" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C177" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
@@ -7482,18 +7721,18 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B178" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C178" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
@@ -7508,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -7518,7 +7757,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7526,22 +7765,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7549,178 +7788,178 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="E2" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="E4" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="E5" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="E6" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="E7" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="E8" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="D9" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="E9" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="E11" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7728,311 +7967,447 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="D12" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="D13" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="E13" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B14" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="E15" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B16" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="E16" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="E18" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="B19" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="E19" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B20" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="E20" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="B21" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="E21" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="B22" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="E22" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="B23" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="E23" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="B24" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="E24" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="B25" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="E25" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="B26" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="E26" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="B27" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="E27" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B28" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="E28" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B29" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="E29" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B30" t="s">
+        <v>418</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E30" t="s">
+        <v>464</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>421</v>
+      </c>
+      <c r="B33" t="s">
+        <v>421</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>422</v>
+      </c>
+      <c r="B34" t="s">
+        <v>422</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E34" t="s">
+        <v>464</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>423</v>
+      </c>
+      <c r="B35" t="s">
+        <v>423</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E35" t="s">
+        <v>464</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>424</v>
+      </c>
+      <c r="B36" t="s">
+        <v>424</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E36" t="s">
+        <v>464</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E37" t="s">
+        <v>464</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -8093,6 +8468,22 @@
     <hyperlink ref="F28" r:id="rId54" location="isAssociatedWith"/>
     <hyperlink ref="C29" r:id="rId55"/>
     <hyperlink ref="F29" r:id="rId56" location="isAssociatedWith"/>
+    <hyperlink ref="C30" r:id="rId57"/>
+    <hyperlink ref="F30" r:id="rId58" location="isAssociatedWith"/>
+    <hyperlink ref="C31" r:id="rId59"/>
+    <hyperlink ref="F31" r:id="rId60" location="isAssociatedWith"/>
+    <hyperlink ref="C32" r:id="rId61"/>
+    <hyperlink ref="F32" r:id="rId62" location="isAssociatedWith"/>
+    <hyperlink ref="C33" r:id="rId63"/>
+    <hyperlink ref="F33" r:id="rId64" location="isAssociatedWith"/>
+    <hyperlink ref="C34" r:id="rId65"/>
+    <hyperlink ref="F34" r:id="rId66" location="isAssociatedWith"/>
+    <hyperlink ref="C35" r:id="rId67"/>
+    <hyperlink ref="F35" r:id="rId68" location="isAssociatedWith"/>
+    <hyperlink ref="C36" r:id="rId69"/>
+    <hyperlink ref="F36" r:id="rId70" location="isAssociatedWith"/>
+    <hyperlink ref="C37" r:id="rId71"/>
+    <hyperlink ref="F37" r:id="rId72" location="isAssociatedWith"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/emx/dist/urdm.xlsx
+++ b/emx/dist/urdm.xlsx
@@ -67,7 +67,7 @@
     <t>cohorts</t>
   </si>
   <si>
-    <t>laboratoryProcedures</t>
+    <t>labProcedures</t>
   </si>
   <si>
     <t>organizations</t>
@@ -448,7 +448,7 @@
     <t>urdm_cohorts</t>
   </si>
   <si>
-    <t>urdm_laboratoryProcedures</t>
+    <t>urdm_labProcedures</t>
   </si>
   <si>
     <t>urdm_organizations</t>
@@ -712,7 +712,7 @@
     <t>sequencingID</t>
   </si>
   <si>
-    <t>belongsTolabProcedure</t>
+    <t>belongsToLabProcedure</t>
   </si>
   <si>
     <t>belongsToSamplePreparation</t>

--- a/emx/dist/urdm.xlsx
+++ b/emx/dist/urdm.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="775">
   <si>
     <t>urdm</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Lookups</t>
   </si>
   <si>
-    <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.7, 2021-11-26)</t>
+    <t>The Unified Rare Disease Model (URDM) for NGS data in research and healthcare (v0.9.7, 2021-12-06)</t>
   </si>
   <si>
     <t>URDM Lookup tables (v0.9.7, 2021-11-26)</t>
@@ -718,6 +718,9 @@
     <t>belongsToSamplePreparation</t>
   </si>
   <si>
+    <t>reasonForSequencing</t>
+  </si>
+  <si>
     <t>sequencingDate</t>
   </si>
   <si>
@@ -1138,6 +1141,9 @@
     <t>A unique proper name or character sequence that identifies this particular nucleic acid sequencing assay.</t>
   </si>
   <si>
+    <t>A rationale for executing a plan of action.</t>
+  </si>
+  <si>
     <t>Date on which this sequencing assay was performed.</t>
   </si>
   <si>
@@ -1537,6 +1543,9 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C25294</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C69216</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/GENEPIO_0000069</t>
   </si>
   <si>
@@ -2105,6 +2114,9 @@
   </si>
   <si>
     <t>NCIT:C69208</t>
+  </si>
+  <si>
+    <t>NCIT:C69216</t>
   </si>
   <si>
     <t>NCIT:C70713</t>
@@ -2697,19 +2709,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2762,25 +2774,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>569</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3476,7 +3488,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L226"/>
+  <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3484,40 +3496,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3528,7 +3540,7 @@
         <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -3543,10 +3555,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -3560,7 +3572,7 @@
         <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -3575,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -3592,7 +3604,7 @@
         <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -3607,10 +3619,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -3627,7 +3639,7 @@
         <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -3642,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -3662,7 +3674,7 @@
         <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -3677,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -3697,7 +3709,7 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -3715,13 +3727,13 @@
         <v>95</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3732,7 +3744,7 @@
         <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -3747,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -3764,7 +3776,7 @@
         <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -3779,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -3796,7 +3808,7 @@
         <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -3811,10 +3823,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -3828,7 +3840,7 @@
         <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -3843,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -3860,7 +3872,7 @@
         <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -3875,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -3892,7 +3904,7 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -3907,16 +3919,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3927,7 +3939,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -3942,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3962,7 +3974,7 @@
         <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3977,16 +3989,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3997,7 +4009,7 @@
         <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4012,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4032,7 +4044,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -4047,16 +4059,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4067,7 +4079,7 @@
         <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4082,10 +4094,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -4099,7 +4111,7 @@
         <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4114,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -4137,7 +4149,7 @@
         <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4152,10 +4164,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -4172,7 +4184,7 @@
         <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4187,10 +4199,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -4207,7 +4219,7 @@
         <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4222,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -4239,7 +4251,7 @@
         <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4254,10 +4266,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -4271,7 +4283,7 @@
         <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4286,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -4303,7 +4315,7 @@
         <v>166</v>
       </c>
       <c r="C25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4318,10 +4330,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -4335,7 +4347,7 @@
         <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4350,10 +4362,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -4367,7 +4379,7 @@
         <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -4382,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -4402,7 +4414,7 @@
         <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -4420,7 +4432,7 @@
         <v>66</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -4437,7 +4449,7 @@
         <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -4455,7 +4467,7 @@
         <v>69</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -4472,7 +4484,7 @@
         <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -4487,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -4504,7 +4516,7 @@
         <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -4519,10 +4531,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
@@ -4539,7 +4551,7 @@
         <v>173</v>
       </c>
       <c r="C32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -4554,10 +4566,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
@@ -4574,7 +4586,7 @@
         <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -4589,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
@@ -4609,7 +4621,7 @@
         <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4624,10 +4636,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
@@ -4644,7 +4656,7 @@
         <v>176</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -4659,10 +4671,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
@@ -4679,7 +4691,7 @@
         <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -4694,10 +4706,10 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
@@ -4711,7 +4723,7 @@
         <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -4726,10 +4738,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -4743,7 +4755,7 @@
         <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -4758,10 +4770,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
@@ -4775,7 +4787,7 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -4790,16 +4802,16 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4810,7 +4822,7 @@
         <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -4825,10 +4837,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
@@ -4842,7 +4854,7 @@
         <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4857,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
@@ -4874,7 +4886,7 @@
         <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4889,10 +4901,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -4906,7 +4918,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -4921,10 +4933,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
@@ -4938,7 +4950,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4953,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
@@ -4970,7 +4982,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4985,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
@@ -5002,7 +5014,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -5020,13 +5032,13 @@
         <v>94</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -5037,7 +5049,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -5052,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
@@ -5069,7 +5081,7 @@
         <v>186</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -5084,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
@@ -5098,7 +5110,7 @@
         <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -5116,7 +5128,7 @@
         <v>69</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
@@ -5133,7 +5145,7 @@
         <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -5148,10 +5160,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
@@ -5165,7 +5177,7 @@
         <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -5180,10 +5192,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
@@ -5200,7 +5212,7 @@
         <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -5215,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
@@ -5235,7 +5247,7 @@
         <v>174</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -5250,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
@@ -5270,7 +5282,7 @@
         <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -5285,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J54" t="b">
         <v>1</v>
@@ -5305,7 +5317,7 @@
         <v>176</v>
       </c>
       <c r="C55" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -5320,10 +5332,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
@@ -5340,7 +5352,7 @@
         <v>187</v>
       </c>
       <c r="C56" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -5355,10 +5367,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
@@ -5372,7 +5384,7 @@
         <v>188</v>
       </c>
       <c r="C57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -5387,10 +5399,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
@@ -5407,7 +5419,7 @@
         <v>189</v>
       </c>
       <c r="C58" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -5422,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J58" t="b">
         <v>1</v>
@@ -5439,7 +5451,7 @@
         <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -5454,10 +5466,10 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J59" t="b">
         <v>1</v>
@@ -5471,7 +5483,7 @@
         <v>191</v>
       </c>
       <c r="C60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -5486,10 +5498,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="J60" t="b">
         <v>1</v>
@@ -5503,7 +5515,7 @@
         <v>192</v>
       </c>
       <c r="C61" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -5518,10 +5530,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J61" t="b">
         <v>1</v>
@@ -5535,7 +5547,7 @@
         <v>193</v>
       </c>
       <c r="C62" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -5553,13 +5565,13 @@
         <v>77</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="J62" t="b">
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -5570,7 +5582,7 @@
         <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -5585,16 +5597,16 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J63" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -5605,7 +5617,7 @@
         <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -5620,10 +5632,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J64" t="b">
         <v>1</v>
@@ -5637,7 +5649,7 @@
         <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -5652,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J65" t="b">
         <v>1</v>
@@ -5669,7 +5681,7 @@
         <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -5684,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
@@ -5698,7 +5710,7 @@
         <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -5713,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
@@ -5730,7 +5742,7 @@
         <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -5748,7 +5760,7 @@
         <v>69</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J68" t="b">
         <v>1</v>
@@ -5765,7 +5777,7 @@
         <v>171</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -5780,10 +5792,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J69" t="b">
         <v>1</v>
@@ -5797,7 +5809,7 @@
         <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -5812,10 +5824,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J70" t="b">
         <v>1</v>
@@ -5832,7 +5844,7 @@
         <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -5847,10 +5859,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J71" t="b">
         <v>1</v>
@@ -5867,7 +5879,7 @@
         <v>174</v>
       </c>
       <c r="C72" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -5882,10 +5894,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
@@ -5902,7 +5914,7 @@
         <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -5917,10 +5929,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
@@ -5937,7 +5949,7 @@
         <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -5952,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J74" t="b">
         <v>1</v>
@@ -5972,7 +5984,7 @@
         <v>198</v>
       </c>
       <c r="C75" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -5987,10 +5999,10 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
@@ -6004,7 +6016,7 @@
         <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -6019,10 +6031,10 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
@@ -6039,7 +6051,7 @@
         <v>199</v>
       </c>
       <c r="C77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -6054,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
@@ -6071,7 +6083,7 @@
         <v>200</v>
       </c>
       <c r="C78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -6086,10 +6098,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
@@ -6103,7 +6115,7 @@
         <v>201</v>
       </c>
       <c r="C79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -6118,10 +6130,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
@@ -6135,7 +6147,7 @@
         <v>202</v>
       </c>
       <c r="C80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -6150,10 +6162,10 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
@@ -6167,7 +6179,7 @@
         <v>203</v>
       </c>
       <c r="C81" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -6182,16 +6194,16 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -6202,7 +6214,7 @@
         <v>204</v>
       </c>
       <c r="C82" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -6217,16 +6229,16 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J82" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -6237,7 +6249,7 @@
         <v>205</v>
       </c>
       <c r="C83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -6252,16 +6264,16 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -6272,7 +6284,7 @@
         <v>206</v>
       </c>
       <c r="C84" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -6287,16 +6299,16 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -6307,7 +6319,7 @@
         <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -6322,16 +6334,16 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J85" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -6342,7 +6354,7 @@
         <v>207</v>
       </c>
       <c r="C86" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -6357,10 +6369,10 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
@@ -6374,7 +6386,7 @@
         <v>208</v>
       </c>
       <c r="C87" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -6389,16 +6401,16 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J87" t="b">
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -6409,7 +6421,7 @@
         <v>209</v>
       </c>
       <c r="C88" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -6424,10 +6436,10 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J88" t="b">
         <v>1</v>
@@ -6441,7 +6453,7 @@
         <v>210</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -6456,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J89" t="b">
         <v>1</v>
@@ -6476,7 +6488,7 @@
         <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -6494,7 +6506,7 @@
         <v>69</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J90" t="b">
         <v>1</v>
@@ -6511,7 +6523,7 @@
         <v>171</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -6526,10 +6538,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J91" t="b">
         <v>1</v>
@@ -6543,7 +6555,7 @@
         <v>172</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -6558,10 +6570,10 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J92" t="b">
         <v>1</v>
@@ -6578,7 +6590,7 @@
         <v>173</v>
       </c>
       <c r="C93" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -6593,10 +6605,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J93" t="b">
         <v>1</v>
@@ -6613,7 +6625,7 @@
         <v>174</v>
       </c>
       <c r="C94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -6628,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J94" t="b">
         <v>1</v>
@@ -6648,7 +6660,7 @@
         <v>175</v>
       </c>
       <c r="C95" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -6663,10 +6675,10 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J95" t="b">
         <v>1</v>
@@ -6683,7 +6695,7 @@
         <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -6698,10 +6710,10 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J96" t="b">
         <v>1</v>
@@ -6718,7 +6730,7 @@
         <v>211</v>
       </c>
       <c r="C97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -6733,10 +6745,10 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J97" t="b">
         <v>1</v>
@@ -6750,7 +6762,7 @@
         <v>188</v>
       </c>
       <c r="C98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -6765,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J98" t="b">
         <v>1</v>
@@ -6785,7 +6797,7 @@
         <v>212</v>
       </c>
       <c r="C99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -6800,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J99" t="b">
         <v>1</v>
@@ -6817,7 +6829,7 @@
         <v>213</v>
       </c>
       <c r="C100" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -6832,10 +6844,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
@@ -6849,7 +6861,7 @@
         <v>214</v>
       </c>
       <c r="C101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -6867,13 +6879,13 @@
         <v>90</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6884,7 +6896,7 @@
         <v>215</v>
       </c>
       <c r="C102" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -6899,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
@@ -6916,7 +6928,7 @@
         <v>216</v>
       </c>
       <c r="C103" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
@@ -6931,10 +6943,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J103" t="b">
         <v>1</v>
@@ -6948,7 +6960,7 @@
         <v>217</v>
       </c>
       <c r="C104" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -6963,10 +6975,10 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J104" t="b">
         <v>1</v>
@@ -6983,7 +6995,7 @@
         <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -6998,10 +7010,10 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J105" t="b">
         <v>1</v>
@@ -7015,7 +7027,7 @@
         <v>219</v>
       </c>
       <c r="C106" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -7030,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J106" t="b">
         <v>1</v>
@@ -7047,7 +7059,7 @@
         <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -7062,16 +7074,16 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
       </c>
       <c r="K107" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -7082,7 +7094,7 @@
         <v>22</v>
       </c>
       <c r="C108" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -7097,16 +7109,16 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J108" t="b">
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -7117,7 +7129,7 @@
         <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -7132,16 +7144,16 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J109" t="b">
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -7152,7 +7164,7 @@
         <v>220</v>
       </c>
       <c r="C110" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -7167,10 +7179,10 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="J110" t="b">
         <v>1</v>
@@ -7184,7 +7196,7 @@
         <v>163</v>
       </c>
       <c r="C111" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -7199,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
@@ -7216,7 +7228,7 @@
         <v>170</v>
       </c>
       <c r="C112" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -7234,7 +7246,7 @@
         <v>69</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
@@ -7251,7 +7263,7 @@
         <v>171</v>
       </c>
       <c r="C113" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -7266,10 +7278,10 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J113" t="b">
         <v>1</v>
@@ -7283,7 +7295,7 @@
         <v>172</v>
       </c>
       <c r="C114" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -7298,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J114" t="b">
         <v>1</v>
@@ -7318,7 +7330,7 @@
         <v>173</v>
       </c>
       <c r="C115" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -7333,10 +7345,10 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J115" t="b">
         <v>1</v>
@@ -7353,7 +7365,7 @@
         <v>174</v>
       </c>
       <c r="C116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -7368,10 +7380,10 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J116" t="b">
         <v>1</v>
@@ -7388,7 +7400,7 @@
         <v>175</v>
       </c>
       <c r="C117" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -7403,10 +7415,10 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J117" t="b">
         <v>1</v>
@@ -7423,7 +7435,7 @@
         <v>176</v>
       </c>
       <c r="C118" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
@@ -7438,10 +7450,10 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J118" t="b">
         <v>1</v>
@@ -7458,7 +7470,7 @@
         <v>211</v>
       </c>
       <c r="C119" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
@@ -7473,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J119" t="b">
         <v>1</v>
@@ -7490,7 +7502,7 @@
         <v>210</v>
       </c>
       <c r="C120" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -7505,10 +7517,10 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J120" t="b">
         <v>1</v>
@@ -7525,7 +7537,7 @@
         <v>221</v>
       </c>
       <c r="C121" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -7540,10 +7552,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J121" t="b">
         <v>1</v>
@@ -7557,7 +7569,7 @@
         <v>222</v>
       </c>
       <c r="C122" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -7572,16 +7584,16 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="J122" t="b">
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -7592,7 +7604,7 @@
         <v>223</v>
       </c>
       <c r="C123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -7607,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J123" t="b">
         <v>1</v>
@@ -7624,7 +7636,7 @@
         <v>224</v>
       </c>
       <c r="C124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -7639,16 +7651,16 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J124" t="b">
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -7659,7 +7671,7 @@
         <v>225</v>
       </c>
       <c r="C125" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -7674,10 +7686,10 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J125" t="b">
         <v>1</v>
@@ -7691,7 +7703,7 @@
         <v>226</v>
       </c>
       <c r="C126" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -7706,10 +7718,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
@@ -7723,7 +7735,7 @@
         <v>227</v>
       </c>
       <c r="C127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -7738,10 +7750,10 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="J127" t="b">
         <v>1</v>
@@ -7755,7 +7767,7 @@
         <v>228</v>
       </c>
       <c r="C128" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -7770,10 +7782,10 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J128" t="b">
         <v>1</v>
@@ -7787,7 +7799,7 @@
         <v>229</v>
       </c>
       <c r="C129" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -7802,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="J129" t="b">
         <v>1</v>
@@ -7819,7 +7831,7 @@
         <v>170</v>
       </c>
       <c r="C130" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -7837,7 +7849,7 @@
         <v>69</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J130" t="b">
         <v>1</v>
@@ -7854,7 +7866,7 @@
         <v>171</v>
       </c>
       <c r="C131" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -7869,10 +7881,10 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J131" t="b">
         <v>1</v>
@@ -7886,7 +7898,7 @@
         <v>172</v>
       </c>
       <c r="C132" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -7901,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J132" t="b">
         <v>1</v>
@@ -7921,7 +7933,7 @@
         <v>173</v>
       </c>
       <c r="C133" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -7936,10 +7948,10 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J133" t="b">
         <v>1</v>
@@ -7956,7 +7968,7 @@
         <v>174</v>
       </c>
       <c r="C134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -7971,10 +7983,10 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J134" t="b">
         <v>1</v>
@@ -7991,7 +8003,7 @@
         <v>175</v>
       </c>
       <c r="C135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -8006,10 +8018,10 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J135" t="b">
         <v>1</v>
@@ -8026,7 +8038,7 @@
         <v>176</v>
       </c>
       <c r="C136" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -8041,10 +8053,10 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J136" t="b">
         <v>1</v>
@@ -8061,7 +8073,7 @@
         <v>230</v>
       </c>
       <c r="C137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
@@ -8076,10 +8088,10 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J137" t="b">
         <v>1</v>
@@ -8093,7 +8105,7 @@
         <v>231</v>
       </c>
       <c r="C138" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -8111,7 +8123,7 @@
         <v>67</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J138" t="b">
         <v>1</v>
@@ -8128,7 +8140,7 @@
         <v>232</v>
       </c>
       <c r="C139" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -8143,10 +8155,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J139" t="b">
         <v>1</v>
@@ -8163,7 +8175,7 @@
         <v>233</v>
       </c>
       <c r="C140" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -8178,13 +8190,16 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J140" t="b">
         <v>1</v>
+      </c>
+      <c r="K140" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -8195,7 +8210,7 @@
         <v>234</v>
       </c>
       <c r="C141" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -8210,16 +8225,13 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="J141" t="b">
         <v>1</v>
-      </c>
-      <c r="K141" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -8227,10 +8239,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="C142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -8245,16 +8257,16 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J142" t="b">
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>564</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -8262,10 +8274,10 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="C143" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -8280,16 +8292,16 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J143" t="b">
         <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -8300,7 +8312,7 @@
         <v>236</v>
       </c>
       <c r="C144" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
@@ -8315,16 +8327,16 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J144" t="b">
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -8335,7 +8347,7 @@
         <v>237</v>
       </c>
       <c r="C145" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -8350,13 +8362,16 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J145" t="b">
         <v>1</v>
+      </c>
+      <c r="K145" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -8367,7 +8382,7 @@
         <v>238</v>
       </c>
       <c r="C146" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
@@ -8382,10 +8397,10 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="J146" t="b">
         <v>1</v>
@@ -8399,7 +8414,7 @@
         <v>239</v>
       </c>
       <c r="C147" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -8414,10 +8429,10 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="J147" t="b">
         <v>1</v>
@@ -8446,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J148" t="b">
         <v>1</v>
@@ -8463,7 +8478,7 @@
         <v>241</v>
       </c>
       <c r="C149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -8478,10 +8493,10 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J149" t="b">
         <v>1</v>
@@ -8495,7 +8510,7 @@
         <v>242</v>
       </c>
       <c r="C150" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -8510,10 +8525,10 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J150" t="b">
         <v>1</v>
@@ -8527,7 +8542,7 @@
         <v>243</v>
       </c>
       <c r="C151" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -8542,16 +8557,13 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J151" t="b">
         <v>1</v>
-      </c>
-      <c r="K151" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -8559,7 +8571,7 @@
         <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="C152" t="s">
         <v>275</v>
@@ -8577,16 +8589,16 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>69</v>
+        <v>385</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="J152" t="b">
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>145</v>
+        <v>570</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -8594,10 +8606,10 @@
         <v>140</v>
       </c>
       <c r="B153" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C153" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
@@ -8612,13 +8624,16 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>309</v>
+        <v>69</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J153" t="b">
         <v>1</v>
+      </c>
+      <c r="K153" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -8626,10 +8641,10 @@
         <v>140</v>
       </c>
       <c r="B154" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C154" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -8647,13 +8662,10 @@
         <v>310</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J154" t="b">
         <v>1</v>
-      </c>
-      <c r="L154" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -8661,7 +8673,7 @@
         <v>140</v>
       </c>
       <c r="B155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C155" t="s">
         <v>282</v>
@@ -8670,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
@@ -8682,7 +8694,7 @@
         <v>311</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J155" t="b">
         <v>1</v>
@@ -8696,10 +8708,10 @@
         <v>140</v>
       </c>
       <c r="B156" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C156" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
@@ -8717,7 +8729,7 @@
         <v>312</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J156" t="b">
         <v>1</v>
@@ -8731,16 +8743,16 @@
         <v>140</v>
       </c>
       <c r="B157" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C157" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
@@ -8752,7 +8764,7 @@
         <v>313</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J157" t="b">
         <v>1</v>
@@ -8766,10 +8778,10 @@
         <v>140</v>
       </c>
       <c r="B158" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C158" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
@@ -8787,7 +8799,7 @@
         <v>314</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J158" t="b">
         <v>1</v>
@@ -8798,19 +8810,19 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B159" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="C159" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
@@ -8819,13 +8831,16 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>517</v>
+        <v>447</v>
       </c>
       <c r="J159" t="b">
         <v>1</v>
+      </c>
+      <c r="L159" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -8836,13 +8851,13 @@
         <v>245</v>
       </c>
       <c r="C160" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="b">
         <v>0</v>
@@ -8851,16 +8866,13 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="J160" t="b">
         <v>1</v>
-      </c>
-      <c r="K160" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -8868,10 +8880,10 @@
         <v>141</v>
       </c>
       <c r="B161" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="C161" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
@@ -8886,16 +8898,16 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>413</v>
+        <v>506</v>
       </c>
       <c r="J161" t="b">
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8903,7 +8915,7 @@
         <v>141</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C162" t="s">
         <v>275</v>
@@ -8921,16 +8933,16 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="J162" t="b">
         <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8938,10 +8950,10 @@
         <v>141</v>
       </c>
       <c r="B163" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C163" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
@@ -8956,16 +8968,16 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J163" t="b">
         <v>1</v>
       </c>
       <c r="K163" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8973,10 +8985,10 @@
         <v>141</v>
       </c>
       <c r="B164" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="C164" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
@@ -8991,13 +9003,16 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>385</v>
+        <v>66</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>518</v>
+        <v>440</v>
       </c>
       <c r="J164" t="b">
         <v>1</v>
+      </c>
+      <c r="K164" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -9008,7 +9023,7 @@
         <v>247</v>
       </c>
       <c r="C165" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
@@ -9023,10 +9038,10 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J165" t="b">
         <v>1</v>
@@ -9040,7 +9055,7 @@
         <v>248</v>
       </c>
       <c r="C166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -9055,10 +9070,10 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J166" t="b">
         <v>1</v>
@@ -9072,7 +9087,7 @@
         <v>249</v>
       </c>
       <c r="C167" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -9087,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="J167" t="b">
         <v>1</v>
@@ -9104,7 +9119,7 @@
         <v>250</v>
       </c>
       <c r="C168" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -9119,10 +9134,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J168" t="b">
         <v>1</v>
@@ -9133,7 +9148,7 @@
         <v>141</v>
       </c>
       <c r="B169" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="C169" t="s">
         <v>274</v>
@@ -9151,16 +9166,13 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J169" t="b">
         <v>1</v>
-      </c>
-      <c r="K169" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -9168,10 +9180,10 @@
         <v>141</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="C170" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
@@ -9186,13 +9198,16 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J170" t="b">
         <v>1</v>
+      </c>
+      <c r="K170" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -9203,7 +9218,7 @@
         <v>252</v>
       </c>
       <c r="C171" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
@@ -9218,10 +9233,10 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>432</v>
+        <v>527</v>
       </c>
       <c r="J171" t="b">
         <v>1</v>
@@ -9232,10 +9247,10 @@
         <v>141</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="C172" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
@@ -9250,16 +9265,13 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>69</v>
+        <v>304</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J172" t="b">
         <v>1</v>
-      </c>
-      <c r="K172" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -9267,10 +9279,10 @@
         <v>141</v>
       </c>
       <c r="B173" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C173" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
@@ -9285,13 +9297,16 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>309</v>
+        <v>69</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J173" t="b">
         <v>1</v>
+      </c>
+      <c r="K173" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -9299,10 +9314,10 @@
         <v>141</v>
       </c>
       <c r="B174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C174" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
@@ -9320,13 +9335,10 @@
         <v>310</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J174" t="b">
         <v>1</v>
-      </c>
-      <c r="L174" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -9334,7 +9346,7 @@
         <v>141</v>
       </c>
       <c r="B175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C175" t="s">
         <v>282</v>
@@ -9343,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
@@ -9355,7 +9367,7 @@
         <v>311</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J175" t="b">
         <v>1</v>
@@ -9369,10 +9381,10 @@
         <v>141</v>
       </c>
       <c r="B176" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C176" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
@@ -9390,7 +9402,7 @@
         <v>312</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J176" t="b">
         <v>1</v>
@@ -9404,16 +9416,16 @@
         <v>141</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C177" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
@@ -9425,7 +9437,7 @@
         <v>313</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J177" t="b">
         <v>1</v>
@@ -9439,10 +9451,10 @@
         <v>141</v>
       </c>
       <c r="B178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C178" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
@@ -9460,7 +9472,7 @@
         <v>314</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J178" t="b">
         <v>1</v>
@@ -9471,19 +9483,19 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B179" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="C179" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
@@ -9492,13 +9504,16 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>525</v>
+        <v>447</v>
       </c>
       <c r="J179" t="b">
         <v>1</v>
+      </c>
+      <c r="L179" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -9509,13 +9524,13 @@
         <v>254</v>
       </c>
       <c r="C180" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
@@ -9524,10 +9539,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>447</v>
+        <v>528</v>
       </c>
       <c r="J180" t="b">
         <v>1</v>
@@ -9541,7 +9556,7 @@
         <v>255</v>
       </c>
       <c r="C181" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
@@ -9550,16 +9565,16 @@
         <v>1</v>
       </c>
       <c r="F181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>392</v>
+        <v>317</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>526</v>
+        <v>449</v>
       </c>
       <c r="J181" t="b">
         <v>1</v>
@@ -9573,7 +9588,7 @@
         <v>256</v>
       </c>
       <c r="C182" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
@@ -9582,16 +9597,16 @@
         <v>1</v>
       </c>
       <c r="F182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J182" t="b">
         <v>1</v>
@@ -9602,10 +9617,10 @@
         <v>142</v>
       </c>
       <c r="B183" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="C183" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
@@ -9620,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J183" t="b">
         <v>1</v>
@@ -9634,10 +9649,10 @@
         <v>142</v>
       </c>
       <c r="B184" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C184" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
@@ -9652,10 +9667,10 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>301</v>
+        <v>396</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>430</v>
+        <v>531</v>
       </c>
       <c r="J184" t="b">
         <v>1</v>
@@ -9666,10 +9681,10 @@
         <v>142</v>
       </c>
       <c r="B185" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C185" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D185" t="b">
         <v>0</v>
@@ -9684,10 +9699,10 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>529</v>
+        <v>432</v>
       </c>
       <c r="J185" t="b">
         <v>1</v>
@@ -9698,10 +9713,10 @@
         <v>142</v>
       </c>
       <c r="B186" t="s">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="C186" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
@@ -9716,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J186" t="b">
         <v>1</v>
@@ -9730,10 +9745,10 @@
         <v>142</v>
       </c>
       <c r="B187" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="C187" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
@@ -9748,10 +9763,10 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>440</v>
+        <v>533</v>
       </c>
       <c r="J187" t="b">
         <v>1</v>
@@ -9762,10 +9777,10 @@
         <v>142</v>
       </c>
       <c r="B188" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C188" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -9783,13 +9798,10 @@
         <v>310</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J188" t="b">
         <v>1</v>
-      </c>
-      <c r="L188" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9797,7 +9809,7 @@
         <v>142</v>
       </c>
       <c r="B189" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C189" t="s">
         <v>282</v>
@@ -9806,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
@@ -9818,7 +9830,7 @@
         <v>311</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J189" t="b">
         <v>1</v>
@@ -9832,10 +9844,10 @@
         <v>142</v>
       </c>
       <c r="B190" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C190" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
@@ -9853,7 +9865,7 @@
         <v>312</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J190" t="b">
         <v>1</v>
@@ -9867,16 +9879,16 @@
         <v>142</v>
       </c>
       <c r="B191" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C191" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -9888,7 +9900,7 @@
         <v>313</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J191" t="b">
         <v>1</v>
@@ -9902,10 +9914,10 @@
         <v>142</v>
       </c>
       <c r="B192" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C192" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D192" t="b">
         <v>0</v>
@@ -9923,7 +9935,7 @@
         <v>314</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J192" t="b">
         <v>1</v>
@@ -9932,39 +9944,42 @@
         <v>171</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B193" t="s">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="C193" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>397</v>
+        <v>315</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>531</v>
+        <v>447</v>
       </c>
       <c r="J193" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="L193" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
         <v>143</v>
       </c>
@@ -9972,39 +9987,39 @@
         <v>259</v>
       </c>
       <c r="C194" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J194" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
         <v>143</v>
       </c>
       <c r="B195" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C195" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D195" t="b">
         <v>0</v>
@@ -10019,24 +10034,24 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J195" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
         <v>143</v>
       </c>
       <c r="B196" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C196" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D196" t="b">
         <v>0</v>
@@ -10051,16 +10066,16 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J196" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
         <v>143</v>
       </c>
@@ -10068,7 +10083,7 @@
         <v>261</v>
       </c>
       <c r="C197" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D197" t="b">
         <v>0</v>
@@ -10083,16 +10098,16 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J197" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:12">
       <c r="A198" t="s">
         <v>143</v>
       </c>
@@ -10100,7 +10115,7 @@
         <v>262</v>
       </c>
       <c r="C198" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
@@ -10115,88 +10130,88 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J198" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B199" t="s">
         <v>263</v>
       </c>
       <c r="C199" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J199" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:12">
       <c r="A200" t="s">
         <v>144</v>
       </c>
       <c r="B200" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C200" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="J200" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:12">
       <c r="A201" t="s">
         <v>144</v>
       </c>
       <c r="B201" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C201" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D201" t="b">
         <v>0</v>
@@ -10211,24 +10226,24 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J201" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:12">
       <c r="A202" t="s">
         <v>144</v>
       </c>
       <c r="B202" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C202" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D202" t="b">
         <v>0</v>
@@ -10243,24 +10258,24 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J202" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>144</v>
       </c>
       <c r="B203" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C203" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D203" t="b">
         <v>0</v>
@@ -10275,30 +10290,30 @@
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J203" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B204" t="s">
         <v>266</v>
       </c>
       <c r="C204" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
@@ -10307,48 +10322,48 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="J204" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
         <v>145</v>
       </c>
       <c r="B205" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C205" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J205" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
         <v>145</v>
       </c>
@@ -10356,7 +10371,7 @@
         <v>256</v>
       </c>
       <c r="C206" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D206" t="b">
         <v>0</v>
@@ -10365,30 +10380,30 @@
         <v>1</v>
       </c>
       <c r="F206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J206" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:12">
       <c r="A207" t="s">
         <v>145</v>
       </c>
       <c r="B207" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C207" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
@@ -10403,16 +10418,16 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="J207" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:12">
       <c r="A208" t="s">
         <v>145</v>
       </c>
@@ -10420,7 +10435,7 @@
         <v>268</v>
       </c>
       <c r="C208" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
@@ -10435,10 +10450,10 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>443</v>
+        <v>544</v>
       </c>
       <c r="J208" t="b">
         <v>1</v>
@@ -10452,7 +10467,7 @@
         <v>269</v>
       </c>
       <c r="C209" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D209" t="b">
         <v>0</v>
@@ -10467,10 +10482,10 @@
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>542</v>
+        <v>445</v>
       </c>
       <c r="J209" t="b">
         <v>1</v>
@@ -10484,7 +10499,7 @@
         <v>270</v>
       </c>
       <c r="C210" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
@@ -10499,10 +10514,10 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J210" t="b">
         <v>1</v>
@@ -10516,7 +10531,7 @@
         <v>271</v>
       </c>
       <c r="C211" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
@@ -10531,10 +10546,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J211" t="b">
         <v>1</v>
@@ -10542,19 +10557,19 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B212" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C212" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212" t="b">
         <v>0</v>
@@ -10563,10 +10578,10 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="J212" t="b">
         <v>1</v>
@@ -10577,28 +10592,28 @@
         <v>146</v>
       </c>
       <c r="B213" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C213" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J213" t="b">
         <v>1</v>
@@ -10612,7 +10627,7 @@
         <v>256</v>
       </c>
       <c r="C214" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
@@ -10621,16 +10636,16 @@
         <v>1</v>
       </c>
       <c r="F214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J214" t="b">
         <v>1</v>
@@ -10641,10 +10656,10 @@
         <v>146</v>
       </c>
       <c r="B215" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C215" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
@@ -10659,10 +10674,10 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="J215" t="b">
         <v>1</v>
@@ -10673,10 +10688,10 @@
         <v>146</v>
       </c>
       <c r="B216" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C216" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
@@ -10691,10 +10706,10 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="J216" t="b">
         <v>1</v>
@@ -10702,31 +10717,31 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B217" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C217" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="J217" t="b">
         <v>1</v>
@@ -10737,28 +10752,28 @@
         <v>132</v>
       </c>
       <c r="B218" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C218" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="J218" t="b">
         <v>1</v>
@@ -10769,10 +10784,10 @@
         <v>132</v>
       </c>
       <c r="B219" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C219" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
@@ -10787,10 +10802,10 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J219" t="b">
         <v>1</v>
@@ -10801,10 +10816,10 @@
         <v>132</v>
       </c>
       <c r="B220" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C220" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
@@ -10819,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J220" t="b">
         <v>1</v>
@@ -10833,10 +10848,10 @@
         <v>132</v>
       </c>
       <c r="B221" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C221" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
@@ -10851,10 +10866,10 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J221" t="b">
         <v>1</v>
@@ -10862,13 +10877,13 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B222" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C222" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
@@ -10877,16 +10892,16 @@
         <v>1</v>
       </c>
       <c r="F222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="J222" t="b">
         <v>1</v>
@@ -10897,10 +10912,10 @@
         <v>133</v>
       </c>
       <c r="B223" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C223" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
@@ -10909,16 +10924,16 @@
         <v>1</v>
       </c>
       <c r="F223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="J223" t="b">
         <v>1</v>
@@ -10929,10 +10944,10 @@
         <v>133</v>
       </c>
       <c r="B224" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C224" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
@@ -10947,10 +10962,10 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J224" t="b">
         <v>1</v>
@@ -10961,16 +10976,16 @@
         <v>133</v>
       </c>
       <c r="B225" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C225" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225" t="b">
         <v>0</v>
@@ -10979,10 +10994,10 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J225" t="b">
         <v>1</v>
@@ -10993,16 +11008,16 @@
         <v>133</v>
       </c>
       <c r="B226" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C226" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226" t="b">
         <v>0</v>
@@ -11011,12 +11026,44 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J226" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227" t="s">
+        <v>133</v>
+      </c>
+      <c r="B227" t="s">
+        <v>266</v>
+      </c>
+      <c r="C227" t="s">
+        <v>284</v>
+      </c>
+      <c r="D227" t="b">
+        <v>0</v>
+      </c>
+      <c r="E227" t="b">
+        <v>1</v>
+      </c>
+      <c r="F227" t="b">
+        <v>0</v>
+      </c>
+      <c r="G227" t="b">
+        <v>0</v>
+      </c>
+      <c r="H227" t="s">
+        <v>408</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J227" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11176,8 +11223,8 @@
     <hyperlink ref="I155" r:id="rId152"/>
     <hyperlink ref="I156" r:id="rId153"/>
     <hyperlink ref="I157" r:id="rId154"/>
-    <hyperlink ref="I158" r:id="rId155" location="wasUpdatedBy"/>
-    <hyperlink ref="I159" r:id="rId156"/>
+    <hyperlink ref="I158" r:id="rId155"/>
+    <hyperlink ref="I159" r:id="rId156" location="wasUpdatedBy"/>
     <hyperlink ref="I160" r:id="rId157"/>
     <hyperlink ref="I161" r:id="rId158"/>
     <hyperlink ref="I162" r:id="rId159"/>
@@ -11196,8 +11243,8 @@
     <hyperlink ref="I175" r:id="rId172"/>
     <hyperlink ref="I176" r:id="rId173"/>
     <hyperlink ref="I177" r:id="rId174"/>
-    <hyperlink ref="I178" r:id="rId175" location="wasUpdatedBy"/>
-    <hyperlink ref="I179" r:id="rId176"/>
+    <hyperlink ref="I178" r:id="rId175"/>
+    <hyperlink ref="I179" r:id="rId176" location="wasUpdatedBy"/>
     <hyperlink ref="I180" r:id="rId177"/>
     <hyperlink ref="I181" r:id="rId178"/>
     <hyperlink ref="I182" r:id="rId179"/>
@@ -11210,8 +11257,8 @@
     <hyperlink ref="I189" r:id="rId186"/>
     <hyperlink ref="I190" r:id="rId187"/>
     <hyperlink ref="I191" r:id="rId188"/>
-    <hyperlink ref="I192" r:id="rId189" location="wasUpdatedBy"/>
-    <hyperlink ref="I193" r:id="rId190"/>
+    <hyperlink ref="I192" r:id="rId189"/>
+    <hyperlink ref="I193" r:id="rId190" location="wasUpdatedBy"/>
     <hyperlink ref="I194" r:id="rId191"/>
     <hyperlink ref="I195" r:id="rId192"/>
     <hyperlink ref="I196" r:id="rId193"/>
@@ -11245,6 +11292,7 @@
     <hyperlink ref="I224" r:id="rId221"/>
     <hyperlink ref="I225" r:id="rId222"/>
     <hyperlink ref="I226" r:id="rId223"/>
+    <hyperlink ref="I227" r:id="rId224"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11252,7 +11300,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11260,1802 +11308,1802 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D2" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="E2" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D3" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="E3" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D4" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="E4" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D5" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="E5" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B6" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D6" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E6" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D7" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="E7" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B8" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D8" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="E8" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D9" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E9" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B10" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D10" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D11" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="E11" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B12" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D12" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="E12" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B13" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D13" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="E13" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B14" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D14" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="E14" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B15" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D15" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E15" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D16" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E16" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B17" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D17" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E17" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B18" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D18" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E18" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D19" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E19" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B20" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D20" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E20" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B21" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D21" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="E21" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B22" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D22" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="E22" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B23" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D23" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="E23" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B24" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D24" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="E24" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B25" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D25" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="E25" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B26" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D26" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E26" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B27" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D27" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E27" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B28" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D28" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E28" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B29" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D29" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E29" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B30" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D30" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E30" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B31" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D31" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E31" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B32" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D32" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E32" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B33" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D33" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E33" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B34" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D34" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E34" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B35" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D35" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E35" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B36" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D36" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E36" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B37" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D37" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E37" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B38" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D38" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E38" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B39" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D39" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E39" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B40" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D40" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E40" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B41" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D41" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E41" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B42" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D42" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E42" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B43" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D43" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E43" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B44" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D44" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E44" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B45" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D45" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E45" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B46" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D46" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E46" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B47" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D47" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E47" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B48" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D48" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E48" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B49" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D49" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E49" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B50" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D50" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E50" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B51" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D51" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E51" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B52" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E52" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B53" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D53" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E53" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B54" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D54" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E54" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B55" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D55" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E55" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B56" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D56" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E56" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B57" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D57" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E57" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B58" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D58" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E58" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B59" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D59" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E59" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B60" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D60" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E60" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B61" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D61" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E61" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B62" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D62" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E62" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D63" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E63" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B64" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D64" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E64" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D65" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E65" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B66" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D66" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E66" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B67" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D67" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E67" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B68" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D68" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E68" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B69" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D69" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E69" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B70" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D70" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E70" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B71" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D71" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E71" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B72" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D72" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E72" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B73" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D73" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E73" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B74" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D74" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E74" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B75" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D75" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E75" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B76" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D76" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E76" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B77" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D77" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E77" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B78" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D78" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E78" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B79" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D79" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E79" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B80" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D80" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E80" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B81" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D81" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E81" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B82" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D82" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E82" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B83" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D83" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E83" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B84" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D84" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E84" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B85" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D85" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E85" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B86" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D86" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E86" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B87" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D87" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E87" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B88" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D88" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E88" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B89" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D89" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E89" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B90" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D90" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E90" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -13063,1119 +13111,1139 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D91" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E91" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B92" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D92" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E92" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B93" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D93" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E93" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B94" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D94" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E94" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B95" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D95" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E95" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B96" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D96" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E96" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B97" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D97" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E97" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B98" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D98" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E98" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B99" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D99" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E99" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B100" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D100" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E100" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B101" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D101" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E101" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B102" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D102" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E102" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B103" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D103" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E103" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="B104" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="D104" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E104" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
-        <v>421</v>
+        <v>491</v>
       </c>
       <c r="B105" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>421</v>
+        <v>491</v>
       </c>
       <c r="D105" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E105" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
-        <v>538</v>
+        <v>423</v>
       </c>
       <c r="B106" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>538</v>
+        <v>423</v>
       </c>
       <c r="D106" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E106" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
-        <v>436</v>
+        <v>541</v>
       </c>
       <c r="B107" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>436</v>
+        <v>541</v>
       </c>
       <c r="D107" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E107" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B108" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D108" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E108" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
-        <v>534</v>
+        <v>436</v>
       </c>
       <c r="B109" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>534</v>
+        <v>436</v>
       </c>
       <c r="D109" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E109" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B110" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D110" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E110" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
-        <v>420</v>
+        <v>538</v>
       </c>
       <c r="B111" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>420</v>
+        <v>538</v>
       </c>
       <c r="D111" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E111" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
-        <v>531</v>
+        <v>422</v>
       </c>
       <c r="B112" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>531</v>
+        <v>422</v>
       </c>
       <c r="D112" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E112" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="B113" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="D113" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E113" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="B114" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="D114" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E114" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B115" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D115" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E115" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="B116" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="D116" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E116" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="B117" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="D117" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E117" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="B118" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="D118" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E118" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="B119" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="D119" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E119" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="B120" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="D120" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E120" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2" t="s">
-        <v>536</v>
+        <v>418</v>
       </c>
       <c r="B121" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>536</v>
+        <v>418</v>
       </c>
       <c r="D121" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E121" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="B122" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="D122" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="E122" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
-        <v>591</v>
+        <v>510</v>
       </c>
       <c r="B123" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>591</v>
+        <v>510</v>
       </c>
       <c r="D123" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="E123" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
-        <v>449</v>
+        <v>594</v>
       </c>
       <c r="B124" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>449</v>
+        <v>594</v>
       </c>
       <c r="D124" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="E124" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B125" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D125" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="E125" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>529</v>
+        <v>448</v>
       </c>
       <c r="B126" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>529</v>
+        <v>448</v>
       </c>
       <c r="D126" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E126" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>448</v>
+        <v>532</v>
       </c>
       <c r="B127" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>448</v>
+        <v>532</v>
       </c>
       <c r="D127" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E127" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
-        <v>528</v>
+        <v>450</v>
       </c>
       <c r="B128" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>528</v>
+        <v>450</v>
       </c>
       <c r="D128" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E128" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
-        <v>424</v>
+        <v>531</v>
       </c>
       <c r="B129" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>424</v>
+        <v>531</v>
       </c>
       <c r="D129" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="E129" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B130" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D130" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="E130" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B131" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D131" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="E131" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
-        <v>592</v>
+        <v>439</v>
       </c>
       <c r="B132" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>592</v>
+        <v>439</v>
       </c>
       <c r="D132" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="E132" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
-        <v>461</v>
+        <v>595</v>
       </c>
       <c r="B133" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>461</v>
+        <v>595</v>
       </c>
       <c r="D133" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E133" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B134" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D134" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="E134" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
-        <v>541</v>
+        <v>467</v>
       </c>
       <c r="B135" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>541</v>
+        <v>467</v>
       </c>
       <c r="D135" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E135" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
-        <v>440</v>
+        <v>544</v>
       </c>
       <c r="B136" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>440</v>
+        <v>544</v>
       </c>
       <c r="D136" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E136" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="B137" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="D137" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="E137" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B138" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D138" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="E138" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B139" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D139" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="E139" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="B140" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="D140" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E140" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="B141" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="D141" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="E141" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B142" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D142" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E142" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B143" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D143" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E143" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
       <c r="B144" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
       <c r="D144" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="E144" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2" t="s">
-        <v>6</v>
+        <v>447</v>
       </c>
       <c r="B145" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>6</v>
+        <v>447</v>
       </c>
       <c r="D145" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="E145" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
-        <v>593</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>593</v>
+        <v>6</v>
       </c>
       <c r="D146" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="E146" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B147" t="s">
+        <v>742</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D147" t="s">
+        <v>767</v>
+      </c>
+      <c r="E147" t="s">
+        <v>768</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -14606,15 +14674,18 @@
     <hyperlink ref="A143" r:id="rId424"/>
     <hyperlink ref="C143" r:id="rId425"/>
     <hyperlink ref="F143" r:id="rId426" location="isAssociatedWith"/>
-    <hyperlink ref="A144" r:id="rId427" location="wasUpdatedBy"/>
-    <hyperlink ref="C144" r:id="rId428" location="wasUpdatedBy"/>
+    <hyperlink ref="A144" r:id="rId427"/>
+    <hyperlink ref="C144" r:id="rId428"/>
     <hyperlink ref="F144" r:id="rId429" location="isAssociatedWith"/>
-    <hyperlink ref="A145" r:id="rId430" location="Class:Catalog"/>
-    <hyperlink ref="C145" r:id="rId431" location="Class:Catalog"/>
+    <hyperlink ref="A145" r:id="rId430" location="wasUpdatedBy"/>
+    <hyperlink ref="C145" r:id="rId431" location="wasUpdatedBy"/>
     <hyperlink ref="F145" r:id="rId432" location="isAssociatedWith"/>
-    <hyperlink ref="A146" r:id="rId433" location="Property:catalog_dataset"/>
-    <hyperlink ref="C146" r:id="rId434" location="Property:catalog_dataset"/>
+    <hyperlink ref="A146" r:id="rId433" location="Class:Catalog"/>
+    <hyperlink ref="C146" r:id="rId434" location="Class:Catalog"/>
     <hyperlink ref="F146" r:id="rId435" location="isAssociatedWith"/>
+    <hyperlink ref="A147" r:id="rId436" location="Property:catalog_dataset"/>
+    <hyperlink ref="C147" r:id="rId437" location="Property:catalog_dataset"/>
+    <hyperlink ref="F147" r:id="rId438" location="isAssociatedWith"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
